--- a/Data/Combined Modeling Files.xlsx
+++ b/Data/Combined Modeling Files.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://partnershealthcare.sharepoint.com/sites/FDAOpioidmodelingteam/Shared Documents/Opioid Model/GitHub/PROMISE/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{331DCC53-FF34-4A91-B7F9-5149B0B6DA51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{C41DF5DC-7B5D-4673-BC01-B93B4104D054}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="8_{331DCC53-FF34-4A91-B7F9-5149B0B6DA51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{49D3439C-387C-4D56-806B-37ED314C08D8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="920" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="18426" windowHeight="11746" tabRatio="920" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Directory" sheetId="4" r:id="rId1"/>
@@ -4868,9 +4868,13 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4911,20 +4915,20 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4963,12 +4967,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="69" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5049,36 +5083,6 @@
     <xf numFmtId="165" fontId="70" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5121,6 +5125,9 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -5130,13 +5137,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -5642,6 +5644,392 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Opioid Prescriptions</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Projections using 2020'!$A$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># of opioid prescriptions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:forward val="12"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.2532050291245842E-3"/>
+                  <c:y val="-0.10802085514523931"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Projections using 2020'!$B$54:$W$54</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Projections using 2020'!$T$54:$W$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Projections using 2020'!$B$55:$W$55</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Projections using 2020'!$T$55:$W$55</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>193782638</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>169863949</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0">
+                  <c:v>154658303</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0">
+                  <c:v>144174733</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9ADF-46B1-BA97-8624A04B7915}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="877088735"/>
+        <c:axId val="882696287"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="877088735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="882696287"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="882696287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="877088735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>MMEs</a:t>
             </a:r>
           </a:p>
@@ -6003,7 +6391,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6377,7 +6765,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6756,7 +7144,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7130,7 +7518,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7597,7 +7985,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7954,6 +8342,334 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>'Initiation Data'!$B$8:$V$8</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38365.384615384617</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51826.923076923078</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30961.538461538465</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43473.684210526313</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39789.473684210527</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22040.81632653061</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25959.183673469386</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30933.333333333332</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>49866.666666666664</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29802.469135802468</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37358.024691358019</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23926.380368098158</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25920.245398773008</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>52644.295302013415</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33523.489932885903</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42214.765100671138</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15804.878048780489</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>33264.705882352937</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21341.463414634145</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F4A0-494F-A62A-0ECEB784D67C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="342946096"/>
+        <c:axId val="342956496"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="342946096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="342956496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="342956496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="342946096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8633,7 +9349,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9217,7 +9933,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9823,7 +10539,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10240,7 +10956,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10620,7 +11336,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -11000,7 +11716,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -11384,392 +12100,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Opioid Prescriptions</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Projections using 2020'!$A$55</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v># of opioid prescriptions</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="log"/>
-            <c:forward val="12"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="4.2532050291245842E-3"/>
-                  <c:y val="-0.10802085514523931"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:cat>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Projections using 2020'!$B$54:$W$54</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Projections using 2020'!$T$54:$W$54</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2020</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Projections using 2020'!$B$55:$W$55</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Projections using 2020'!$T$55:$W$55</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>193782638</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>169863949</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0">
-                  <c:v>154658303</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0">
-                  <c:v>144174733</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9ADF-46B1-BA97-8624A04B7915}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="877088735"/>
-        <c:axId val="882696287"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="877088735"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="882696287"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="882696287"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="877088735"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -12011,6 +12341,46 @@
 </file>
 
 <file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -15467,6 +15837,522 @@
 </file>
 
 <file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -20148,6 +21034,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>879661</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>34737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>319367</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>267820</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EA4E9A7-CBB3-4251-8697-83B8A8D00C75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -21394,17 +22316,17 @@
       <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14.35"/>
   <cols>
-    <col min="1" max="1" width="38.44140625" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+    <col min="1" max="1" width="38.41015625" customWidth="1"/>
+    <col min="2" max="2" width="20.87890625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="61.5" customHeight="1">
-      <c r="A1" s="650" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="650"/>
+      <c r="A1" s="652" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="652"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
@@ -21526,7 +22448,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.6">
+    <row r="18" spans="1:2" ht="15.7">
       <c r="A18" s="76" t="s">
         <v>24</v>
       </c>
@@ -21534,7 +22456,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.6">
+    <row r="19" spans="1:2" ht="15.7">
       <c r="A19" s="76" t="s">
         <v>25</v>
       </c>
@@ -21822,29 +22744,29 @@
       <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14.35"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" customWidth="1"/>
+    <col min="1" max="1" width="20.41015625" customWidth="1"/>
+    <col min="2" max="2" width="11.87890625" customWidth="1"/>
+    <col min="4" max="4" width="7.87890625" customWidth="1"/>
+    <col min="9" max="9" width="10.41015625" customWidth="1"/>
+    <col min="10" max="10" width="9.41015625" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="12" max="12" width="10.44140625" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" customWidth="1"/>
+    <col min="12" max="12" width="10.41015625" customWidth="1"/>
+    <col min="14" max="14" width="10.41015625" customWidth="1"/>
     <col min="16" max="16" width="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.44140625" customWidth="1"/>
-    <col min="19" max="19" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.21875" customWidth="1"/>
+    <col min="18" max="18" width="8.41015625" customWidth="1"/>
+    <col min="19" max="19" width="12.41015625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.234375" customWidth="1"/>
     <col min="21" max="21" width="10" customWidth="1"/>
-    <col min="22" max="22" width="14.44140625" customWidth="1"/>
-    <col min="23" max="23" width="11.44140625" customWidth="1"/>
-    <col min="24" max="24" width="14.44140625" customWidth="1"/>
-    <col min="25" max="25" width="14.109375" customWidth="1"/>
-    <col min="26" max="26" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.41015625" customWidth="1"/>
+    <col min="23" max="23" width="11.41015625" customWidth="1"/>
+    <col min="24" max="24" width="14.41015625" customWidth="1"/>
+    <col min="25" max="25" width="14.1171875" customWidth="1"/>
+    <col min="26" max="26" width="8.41015625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.41015625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.41015625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.41015625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -21912,7 +22834,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="28.8">
+    <row r="2" spans="1:35" ht="28.7">
       <c r="A2" s="84" t="s">
         <v>7</v>
       </c>
@@ -22179,7 +23101,7 @@
         <v>28216.687905819526</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="28.8">
+    <row r="5" spans="1:35" ht="28.7">
       <c r="A5" s="84" t="s">
         <v>10</v>
       </c>
@@ -22269,17 +23191,17 @@
       </c>
     </row>
     <row r="6" spans="1:35" s="18" customFormat="1" ht="87.75" customHeight="1">
-      <c r="A6" s="722" t="s">
+      <c r="A6" s="724" t="s">
         <v>339</v>
       </c>
-      <c r="B6" s="722"/>
-      <c r="C6" s="722"/>
-      <c r="D6" s="722"/>
-      <c r="E6" s="722"/>
-      <c r="F6" s="722"/>
-      <c r="G6" s="722"/>
-      <c r="H6" s="722"/>
-      <c r="I6" s="722"/>
+      <c r="B6" s="724"/>
+      <c r="C6" s="724"/>
+      <c r="D6" s="724"/>
+      <c r="E6" s="724"/>
+      <c r="F6" s="724"/>
+      <c r="G6" s="724"/>
+      <c r="H6" s="724"/>
+      <c r="I6" s="724"/>
       <c r="J6" s="17"/>
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
@@ -22295,22 +23217,22 @@
       <c r="V6" s="17"/>
     </row>
     <row r="7" spans="1:35">
-      <c r="A7" s="723" t="s">
+      <c r="A7" s="725" t="s">
         <v>340</v>
       </c>
-      <c r="B7" s="724"/>
-      <c r="C7" s="724"/>
-      <c r="D7" s="724"/>
-      <c r="E7" s="724"/>
-      <c r="F7" s="724"/>
-      <c r="G7" s="724"/>
-      <c r="H7" s="724"/>
-      <c r="I7" s="724"/>
-      <c r="J7" s="724"/>
-      <c r="K7" s="724"/>
-      <c r="L7" s="724"/>
-      <c r="M7" s="725"/>
-      <c r="N7" s="726"/>
+      <c r="B7" s="726"/>
+      <c r="C7" s="726"/>
+      <c r="D7" s="726"/>
+      <c r="E7" s="726"/>
+      <c r="F7" s="726"/>
+      <c r="G7" s="726"/>
+      <c r="H7" s="726"/>
+      <c r="I7" s="726"/>
+      <c r="J7" s="726"/>
+      <c r="K7" s="726"/>
+      <c r="L7" s="726"/>
+      <c r="M7" s="727"/>
+      <c r="N7" s="728"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -22320,52 +23242,52 @@
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
     </row>
-    <row r="8" spans="1:35" ht="15.6">
+    <row r="8" spans="1:35" ht="15.7">
       <c r="A8" s="6"/>
-      <c r="B8" s="727" t="s">
+      <c r="B8" s="729" t="s">
         <v>341</v>
       </c>
-      <c r="C8" s="728"/>
-      <c r="D8" s="728"/>
-      <c r="E8" s="728"/>
-      <c r="F8" s="728"/>
-      <c r="G8" s="728"/>
-      <c r="H8" s="728"/>
-      <c r="I8" s="728"/>
-      <c r="J8" s="728"/>
-      <c r="K8" s="728"/>
-      <c r="L8" s="728"/>
-      <c r="M8" s="728"/>
-      <c r="N8" s="725"/>
+      <c r="C8" s="730"/>
+      <c r="D8" s="730"/>
+      <c r="E8" s="730"/>
+      <c r="F8" s="730"/>
+      <c r="G8" s="730"/>
+      <c r="H8" s="730"/>
+      <c r="I8" s="730"/>
+      <c r="J8" s="730"/>
+      <c r="K8" s="730"/>
+      <c r="L8" s="730"/>
+      <c r="M8" s="730"/>
+      <c r="N8" s="727"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
-      <c r="R8" s="721" t="s">
+      <c r="R8" s="723" t="s">
         <v>342</v>
       </c>
-      <c r="S8" s="721"/>
-      <c r="T8" s="721"/>
-      <c r="U8" s="721"/>
-      <c r="V8" s="721" t="s">
+      <c r="S8" s="723"/>
+      <c r="T8" s="723"/>
+      <c r="U8" s="723"/>
+      <c r="V8" s="723" t="s">
         <v>343</v>
       </c>
-      <c r="W8" s="721"/>
-      <c r="X8" s="721"/>
-      <c r="Y8" s="721"/>
-      <c r="Z8" s="719" t="s">
+      <c r="W8" s="723"/>
+      <c r="X8" s="723"/>
+      <c r="Y8" s="723"/>
+      <c r="Z8" s="721" t="s">
         <v>344</v>
       </c>
-      <c r="AA8" s="719"/>
-      <c r="AB8" s="719"/>
-      <c r="AC8" s="719"/>
-      <c r="AD8" s="720" t="s">
+      <c r="AA8" s="721"/>
+      <c r="AB8" s="721"/>
+      <c r="AC8" s="721"/>
+      <c r="AD8" s="722" t="s">
         <v>345</v>
       </c>
-      <c r="AE8" s="720"/>
-      <c r="AF8" s="720"/>
-      <c r="AG8" s="720"/>
-    </row>
-    <row r="9" spans="1:35" ht="57.6">
+      <c r="AE8" s="722"/>
+      <c r="AF8" s="722"/>
+      <c r="AG8" s="722"/>
+    </row>
+    <row r="9" spans="1:35" ht="57.35">
       <c r="A9" s="7" t="s">
         <v>164</v>
       </c>
@@ -25016,13 +25938,13 @@
         <v>376</v>
       </c>
       <c r="C37" s="14"/>
-      <c r="D37" s="729" t="s">
+      <c r="D37" s="731" t="s">
         <v>377</v>
       </c>
-      <c r="E37" s="729"/>
-      <c r="F37" s="729"/>
-      <c r="G37" s="729"/>
-      <c r="H37" s="729"/>
+      <c r="E37" s="731"/>
+      <c r="F37" s="731"/>
+      <c r="G37" s="731"/>
+      <c r="H37" s="731"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -25457,7 +26379,7 @@
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
     </row>
-    <row r="52" spans="1:35" ht="28.8">
+    <row r="52" spans="1:35" ht="28.7">
       <c r="A52" s="84" t="s">
         <v>9</v>
       </c>
@@ -25551,7 +26473,7 @@
       <c r="Z52" s="2"/>
       <c r="AA52" s="2"/>
     </row>
-    <row r="53" spans="1:35" ht="28.8">
+    <row r="53" spans="1:35" ht="28.7">
       <c r="A53" s="84" t="s">
         <v>338</v>
       </c>
@@ -25792,11 +26714,11 @@
       <c r="X56" s="2"/>
     </row>
     <row r="59" spans="1:35">
-      <c r="A59" s="671" t="s">
+      <c r="A59" s="673" t="s">
         <v>399</v>
       </c>
-      <c r="B59" s="671"/>
-      <c r="C59" s="671"/>
+      <c r="B59" s="673"/>
+      <c r="C59" s="673"/>
     </row>
     <row r="61" spans="1:35" ht="15" customHeight="1">
       <c r="AE61" s="96"/>
@@ -25920,34 +26842,34 @@
   <dimension ref="A1:W66"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A12" sqref="A12"/>
-      <selection pane="topRight" activeCell="Y8" sqref="Y8"/>
+      <selection pane="topRight" activeCell="B8" sqref="B8:V8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14.35"/>
   <cols>
-    <col min="1" max="1" width="43.44140625" customWidth="1"/>
+    <col min="1" max="1" width="43.41015625" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" customWidth="1"/>
+    <col min="3" max="3" width="12.87890625" customWidth="1"/>
+    <col min="4" max="4" width="12.234375" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.41015625" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" customWidth="1"/>
+    <col min="9" max="9" width="12.1171875" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.21875" customWidth="1"/>
-    <col min="14" max="14" width="11.88671875" customWidth="1"/>
+    <col min="13" max="13" width="13.234375" customWidth="1"/>
+    <col min="14" max="14" width="11.87890625" customWidth="1"/>
     <col min="15" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.44140625" customWidth="1"/>
-    <col min="18" max="18" width="14.44140625" customWidth="1"/>
-    <col min="19" max="19" width="14.109375" customWidth="1"/>
-    <col min="20" max="20" width="15.109375" customWidth="1"/>
-    <col min="21" max="21" width="20.21875" customWidth="1"/>
-    <col min="22" max="22" width="10.88671875" customWidth="1"/>
+    <col min="17" max="17" width="11.41015625" customWidth="1"/>
+    <col min="18" max="18" width="14.41015625" customWidth="1"/>
+    <col min="19" max="19" width="14.1171875" customWidth="1"/>
+    <col min="20" max="20" width="15.1171875" customWidth="1"/>
+    <col min="21" max="21" width="20.234375" customWidth="1"/>
+    <col min="22" max="22" width="10.87890625" customWidth="1"/>
     <col min="23" max="23" width="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -26622,17 +27544,17 @@
       </c>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="732" t="s">
+      <c r="A9" s="734" t="s">
         <v>402</v>
       </c>
-      <c r="B9" s="732"/>
-      <c r="C9" s="732"/>
-      <c r="D9" s="732"/>
-      <c r="E9" s="732"/>
-      <c r="F9" s="732"/>
-      <c r="G9" s="732"/>
-      <c r="H9" s="732"/>
-      <c r="I9" s="732"/>
+      <c r="B9" s="734"/>
+      <c r="C9" s="734"/>
+      <c r="D9" s="734"/>
+      <c r="E9" s="734"/>
+      <c r="F9" s="734"/>
+      <c r="G9" s="734"/>
+      <c r="H9" s="734"/>
+      <c r="I9" s="734"/>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="641"/>
@@ -26646,18 +27568,18 @@
       <c r="I10" s="641"/>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="730" t="s">
+      <c r="A11" s="732" t="s">
         <v>403</v>
       </c>
-      <c r="B11" s="730"/>
-      <c r="C11" s="730"/>
-      <c r="D11" s="730"/>
-      <c r="E11" s="730"/>
-      <c r="F11" s="730"/>
-      <c r="G11" s="730"/>
-      <c r="H11" s="730"/>
-    </row>
-    <row r="12" spans="1:23" ht="72">
+      <c r="B11" s="732"/>
+      <c r="C11" s="732"/>
+      <c r="D11" s="732"/>
+      <c r="E11" s="732"/>
+      <c r="F11" s="732"/>
+      <c r="G11" s="732"/>
+      <c r="H11" s="732"/>
+    </row>
+    <row r="12" spans="1:23" ht="71.7">
       <c r="A12" s="49" t="s">
         <v>181</v>
       </c>
@@ -27777,48 +28699,48 @@
     </row>
     <row r="33" spans="1:20" ht="14.85" customHeight="1"/>
     <row r="34" spans="1:20">
-      <c r="A34" s="731" t="s">
+      <c r="A34" s="733" t="s">
         <v>456</v>
       </c>
-      <c r="B34" s="731"/>
-      <c r="C34" s="731"/>
-      <c r="D34" s="731"/>
-      <c r="E34" s="731"/>
-      <c r="F34" s="731"/>
-      <c r="G34" s="731"/>
-      <c r="H34" s="731"/>
-      <c r="I34" s="731"/>
-      <c r="J34" s="731"/>
-      <c r="K34" s="731"/>
-      <c r="L34" s="731"/>
-      <c r="M34" s="731"/>
-      <c r="N34" s="731"/>
-      <c r="O34" s="731"/>
-      <c r="P34" s="731"/>
-      <c r="Q34" s="731"/>
-      <c r="R34" s="731"/>
-      <c r="S34" s="731"/>
+      <c r="B34" s="733"/>
+      <c r="C34" s="733"/>
+      <c r="D34" s="733"/>
+      <c r="E34" s="733"/>
+      <c r="F34" s="733"/>
+      <c r="G34" s="733"/>
+      <c r="H34" s="733"/>
+      <c r="I34" s="733"/>
+      <c r="J34" s="733"/>
+      <c r="K34" s="733"/>
+      <c r="L34" s="733"/>
+      <c r="M34" s="733"/>
+      <c r="N34" s="733"/>
+      <c r="O34" s="733"/>
+      <c r="P34" s="733"/>
+      <c r="Q34" s="733"/>
+      <c r="R34" s="733"/>
+      <c r="S34" s="733"/>
     </row>
     <row r="35" spans="1:20">
-      <c r="A35" s="731"/>
-      <c r="B35" s="731"/>
-      <c r="C35" s="731"/>
-      <c r="D35" s="731"/>
-      <c r="E35" s="731"/>
-      <c r="F35" s="731"/>
-      <c r="G35" s="731"/>
-      <c r="H35" s="731"/>
-      <c r="I35" s="731"/>
-      <c r="J35" s="731"/>
-      <c r="K35" s="731"/>
-      <c r="L35" s="731"/>
-      <c r="M35" s="731"/>
-      <c r="N35" s="731"/>
-      <c r="O35" s="731"/>
-      <c r="P35" s="731"/>
-      <c r="Q35" s="731"/>
-      <c r="R35" s="731"/>
-      <c r="S35" s="731"/>
+      <c r="A35" s="733"/>
+      <c r="B35" s="733"/>
+      <c r="C35" s="733"/>
+      <c r="D35" s="733"/>
+      <c r="E35" s="733"/>
+      <c r="F35" s="733"/>
+      <c r="G35" s="733"/>
+      <c r="H35" s="733"/>
+      <c r="I35" s="733"/>
+      <c r="J35" s="733"/>
+      <c r="K35" s="733"/>
+      <c r="L35" s="733"/>
+      <c r="M35" s="733"/>
+      <c r="N35" s="733"/>
+      <c r="O35" s="733"/>
+      <c r="P35" s="733"/>
+      <c r="Q35" s="733"/>
+      <c r="R35" s="733"/>
+      <c r="S35" s="733"/>
     </row>
     <row r="36" spans="1:20">
       <c r="A36" t="s">
@@ -27882,7 +28804,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="28.8">
+    <row r="37" spans="1:20" ht="28.7">
       <c r="A37" t="s">
         <v>459</v>
       </c>
@@ -27927,7 +28849,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="86.4">
+    <row r="38" spans="1:20" ht="86">
       <c r="A38" t="s">
         <v>460</v>
       </c>
@@ -27982,7 +28904,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="43.2">
+    <row r="39" spans="1:20" ht="43">
       <c r="A39" t="s">
         <v>462</v>
       </c>
@@ -28037,7 +28959,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="43.2">
+    <row r="40" spans="1:20" ht="43">
       <c r="A40" t="s">
         <v>463</v>
       </c>
@@ -28082,7 +29004,7 @@
         <v>47000</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="28.8">
+    <row r="41" spans="1:20" ht="28.7">
       <c r="A41" s="49" t="s">
         <v>464</v>
       </c>
@@ -28129,7 +29051,7 @@
         <v>82000</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="28.8">
+    <row r="42" spans="1:20" ht="28.7">
       <c r="A42" s="26" t="s">
         <v>46</v>
       </c>
@@ -28554,71 +29476,71 @@
       </c>
     </row>
     <row r="50" spans="1:20">
-      <c r="A50" s="730" t="s">
+      <c r="A50" s="732" t="s">
         <v>470</v>
       </c>
-      <c r="B50" s="730"/>
-      <c r="C50" s="730"/>
-      <c r="D50" s="730"/>
-      <c r="E50" s="730"/>
-      <c r="F50" s="730"/>
-      <c r="G50" s="730"/>
-      <c r="H50" s="730"/>
-      <c r="I50" s="730"/>
-      <c r="J50" s="730"/>
-      <c r="K50" s="730"/>
+      <c r="B50" s="732"/>
+      <c r="C50" s="732"/>
+      <c r="D50" s="732"/>
+      <c r="E50" s="732"/>
+      <c r="F50" s="732"/>
+      <c r="G50" s="732"/>
+      <c r="H50" s="732"/>
+      <c r="I50" s="732"/>
+      <c r="J50" s="732"/>
+      <c r="K50" s="732"/>
     </row>
     <row r="51" spans="1:20">
-      <c r="A51" s="730"/>
-      <c r="B51" s="730"/>
-      <c r="C51" s="730"/>
-      <c r="D51" s="730"/>
-      <c r="E51" s="730"/>
-      <c r="F51" s="730"/>
-      <c r="G51" s="730"/>
-      <c r="H51" s="730"/>
-      <c r="I51" s="730"/>
-      <c r="J51" s="730"/>
-      <c r="K51" s="730"/>
+      <c r="A51" s="732"/>
+      <c r="B51" s="732"/>
+      <c r="C51" s="732"/>
+      <c r="D51" s="732"/>
+      <c r="E51" s="732"/>
+      <c r="F51" s="732"/>
+      <c r="G51" s="732"/>
+      <c r="H51" s="732"/>
+      <c r="I51" s="732"/>
+      <c r="J51" s="732"/>
+      <c r="K51" s="732"/>
     </row>
     <row r="52" spans="1:20" ht="13.35" customHeight="1">
-      <c r="A52" s="730"/>
-      <c r="B52" s="730"/>
-      <c r="C52" s="730"/>
-      <c r="D52" s="730"/>
-      <c r="E52" s="730"/>
-      <c r="F52" s="730"/>
-      <c r="G52" s="730"/>
-      <c r="H52" s="730"/>
-      <c r="I52" s="730"/>
-      <c r="J52" s="730"/>
-      <c r="K52" s="730"/>
+      <c r="A52" s="732"/>
+      <c r="B52" s="732"/>
+      <c r="C52" s="732"/>
+      <c r="D52" s="732"/>
+      <c r="E52" s="732"/>
+      <c r="F52" s="732"/>
+      <c r="G52" s="732"/>
+      <c r="H52" s="732"/>
+      <c r="I52" s="732"/>
+      <c r="J52" s="732"/>
+      <c r="K52" s="732"/>
     </row>
     <row r="53" spans="1:20">
-      <c r="A53" s="730"/>
-      <c r="B53" s="730"/>
-      <c r="C53" s="730"/>
-      <c r="D53" s="730"/>
-      <c r="E53" s="730"/>
-      <c r="F53" s="730"/>
-      <c r="G53" s="730"/>
-      <c r="H53" s="730"/>
-      <c r="I53" s="730"/>
-      <c r="J53" s="730"/>
-      <c r="K53" s="730"/>
+      <c r="A53" s="732"/>
+      <c r="B53" s="732"/>
+      <c r="C53" s="732"/>
+      <c r="D53" s="732"/>
+      <c r="E53" s="732"/>
+      <c r="F53" s="732"/>
+      <c r="G53" s="732"/>
+      <c r="H53" s="732"/>
+      <c r="I53" s="732"/>
+      <c r="J53" s="732"/>
+      <c r="K53" s="732"/>
     </row>
     <row r="54" spans="1:20">
-      <c r="A54" s="730"/>
-      <c r="B54" s="730"/>
-      <c r="C54" s="730"/>
-      <c r="D54" s="730"/>
-      <c r="E54" s="730"/>
-      <c r="F54" s="730"/>
-      <c r="G54" s="730"/>
-      <c r="H54" s="730"/>
-      <c r="I54" s="730"/>
-      <c r="J54" s="730"/>
-      <c r="K54" s="730"/>
+      <c r="A54" s="732"/>
+      <c r="B54" s="732"/>
+      <c r="C54" s="732"/>
+      <c r="D54" s="732"/>
+      <c r="E54" s="732"/>
+      <c r="F54" s="732"/>
+      <c r="G54" s="732"/>
+      <c r="H54" s="732"/>
+      <c r="I54" s="732"/>
+      <c r="J54" s="732"/>
+      <c r="K54" s="732"/>
     </row>
     <row r="56" spans="1:20">
       <c r="A56" s="1" t="s">
@@ -28838,23 +29760,23 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14.35"/>
   <cols>
-    <col min="1" max="1" width="29.88671875" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="4" width="13.44140625" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" customWidth="1"/>
-    <col min="7" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.21875" customWidth="1"/>
-    <col min="10" max="11" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.109375" customWidth="1"/>
+    <col min="1" max="1" width="29.87890625" customWidth="1"/>
+    <col min="2" max="2" width="13.87890625" customWidth="1"/>
+    <col min="3" max="4" width="13.41015625" customWidth="1"/>
+    <col min="5" max="5" width="16.234375" customWidth="1"/>
+    <col min="6" max="6" width="14.234375" customWidth="1"/>
+    <col min="7" max="8" width="14.41015625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.234375" customWidth="1"/>
+    <col min="10" max="11" width="14.41015625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.1171875" customWidth="1"/>
     <col min="13" max="13" width="17" customWidth="1"/>
-    <col min="14" max="25" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.44140625" customWidth="1"/>
-    <col min="27" max="30" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="25" width="14.41015625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.41015625" customWidth="1"/>
+    <col min="27" max="30" width="14.41015625" bestFit="1" customWidth="1"/>
     <col min="31" max="39" width="18" customWidth="1"/>
-    <col min="40" max="40" width="19.44140625" customWidth="1"/>
+    <col min="40" max="40" width="19.41015625" customWidth="1"/>
     <col min="41" max="46" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -29058,12 +29980,12 @@
       <c r="AE2" s="139"/>
       <c r="AF2" s="139"/>
       <c r="AG2" s="140"/>
-      <c r="AI2" s="733" t="s">
+      <c r="AI2" s="736" t="s">
         <v>476</v>
       </c>
-      <c r="AJ2" s="733"/>
-      <c r="AK2" s="733"/>
-      <c r="AL2" s="733"/>
+      <c r="AJ2" s="736"/>
+      <c r="AK2" s="736"/>
+      <c r="AL2" s="736"/>
       <c r="AM2" s="223"/>
     </row>
     <row r="3" spans="1:57" ht="34.35" customHeight="1">
@@ -29162,10 +30084,10 @@
       <c r="AE3" s="139"/>
       <c r="AF3" s="139"/>
       <c r="AG3" s="140"/>
-      <c r="AI3" s="733"/>
-      <c r="AJ3" s="733"/>
-      <c r="AK3" s="733"/>
-      <c r="AL3" s="733"/>
+      <c r="AI3" s="736"/>
+      <c r="AJ3" s="736"/>
+      <c r="AK3" s="736"/>
+      <c r="AL3" s="736"/>
       <c r="AM3" s="223"/>
       <c r="AX3" t="s">
         <v>478</v>
@@ -29271,10 +30193,10 @@
       <c r="AE4" s="139"/>
       <c r="AF4" s="139"/>
       <c r="AG4" s="140"/>
-      <c r="AI4" s="733"/>
-      <c r="AJ4" s="733"/>
-      <c r="AK4" s="733"/>
-      <c r="AL4" s="733"/>
+      <c r="AI4" s="736"/>
+      <c r="AJ4" s="736"/>
+      <c r="AK4" s="736"/>
+      <c r="AL4" s="736"/>
       <c r="AM4" s="223"/>
       <c r="AW4" t="s">
         <v>181</v>
@@ -29397,10 +30319,10 @@
       <c r="AE5" s="139"/>
       <c r="AF5" s="139"/>
       <c r="AG5" s="140"/>
-      <c r="AI5" s="733"/>
-      <c r="AJ5" s="733"/>
-      <c r="AK5" s="733"/>
-      <c r="AL5" s="733"/>
+      <c r="AI5" s="736"/>
+      <c r="AJ5" s="736"/>
+      <c r="AK5" s="736"/>
+      <c r="AL5" s="736"/>
       <c r="AM5" s="223"/>
       <c r="AW5">
         <v>2002</v>
@@ -30009,7 +30931,7 @@
       <c r="AG11" s="25"/>
       <c r="AM11" s="223"/>
     </row>
-    <row r="12" spans="1:57" ht="15" thickBot="1">
+    <row r="12" spans="1:57" ht="14.7" thickBot="1">
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
@@ -30586,15 +31508,15 @@
       </c>
     </row>
     <row r="20" spans="1:57">
-      <c r="A20" s="736" t="s">
+      <c r="A20" s="735" t="s">
         <v>497</v>
       </c>
-      <c r="B20" s="736"/>
-      <c r="C20" s="736"/>
-      <c r="D20" s="736"/>
-      <c r="E20" s="736"/>
-      <c r="F20" s="736"/>
-      <c r="G20" s="736"/>
+      <c r="B20" s="735"/>
+      <c r="C20" s="735"/>
+      <c r="D20" s="735"/>
+      <c r="E20" s="735"/>
+      <c r="F20" s="735"/>
+      <c r="G20" s="735"/>
       <c r="I20" s="272"/>
       <c r="AA20" s="1">
         <v>2002</v>
@@ -30685,16 +31607,16 @@
         <v>0.59043335257408602</v>
       </c>
     </row>
-    <row r="21" spans="1:57" ht="28.8">
-      <c r="A21" s="736" t="s">
+    <row r="21" spans="1:57" ht="28.7">
+      <c r="A21" s="735" t="s">
         <v>498</v>
       </c>
-      <c r="B21" s="736"/>
-      <c r="C21" s="736"/>
-      <c r="D21" s="736"/>
-      <c r="E21" s="736"/>
-      <c r="F21" s="736"/>
-      <c r="G21" s="736"/>
+      <c r="B21" s="735"/>
+      <c r="C21" s="735"/>
+      <c r="D21" s="735"/>
+      <c r="E21" s="735"/>
+      <c r="F21" s="735"/>
+      <c r="G21" s="735"/>
       <c r="Z21" s="49" t="s">
         <v>499</v>
       </c>
@@ -30805,14 +31727,14 @@
         <v>0.35116056083220265</v>
       </c>
     </row>
-    <row r="22" spans="1:57" ht="28.8">
-      <c r="A22" s="736" t="s">
+    <row r="22" spans="1:57" ht="28.7">
+      <c r="A22" s="735" t="s">
         <v>500</v>
       </c>
-      <c r="B22" s="736" t="s">
+      <c r="B22" s="735" t="s">
         <v>501</v>
       </c>
-      <c r="C22" s="736" t="s">
+      <c r="C22" s="735" t="s">
         <v>502</v>
       </c>
       <c r="D22" s="642" t="s">
@@ -30821,7 +31743,7 @@
       <c r="E22" s="642" t="s">
         <v>504</v>
       </c>
-      <c r="F22" s="736" t="s">
+      <c r="F22" s="735" t="s">
         <v>505</v>
       </c>
       <c r="G22" s="642" t="s">
@@ -30940,17 +31862,17 @@
         <v>0.52275756557215547</v>
       </c>
     </row>
-    <row r="23" spans="1:57" ht="28.8">
-      <c r="A23" s="736"/>
-      <c r="B23" s="736"/>
-      <c r="C23" s="736"/>
+    <row r="23" spans="1:57" ht="28.7">
+      <c r="A23" s="735"/>
+      <c r="B23" s="735"/>
+      <c r="C23" s="735"/>
       <c r="D23" s="642" t="s">
         <v>502</v>
       </c>
       <c r="E23" s="642" t="s">
         <v>507</v>
       </c>
-      <c r="F23" s="736"/>
+      <c r="F23" s="735"/>
       <c r="G23" s="642" t="s">
         <v>505</v>
       </c>
@@ -31097,7 +32019,7 @@
         <v>0.39097376936899497</v>
       </c>
     </row>
-    <row r="24" spans="1:57" ht="28.8">
+    <row r="24" spans="1:57" ht="28.7">
       <c r="A24" s="642" t="s">
         <v>516</v>
       </c>
@@ -31281,7 +32203,7 @@
         <v>0.24577347467820138</v>
       </c>
     </row>
-    <row r="25" spans="1:57" ht="28.8">
+    <row r="25" spans="1:57" ht="28.7">
       <c r="A25" s="642"/>
       <c r="B25" s="642" t="s">
         <v>508</v>
@@ -31400,7 +32322,7 @@
         <v>267714</v>
       </c>
     </row>
-    <row r="26" spans="1:57" ht="15" thickBot="1">
+    <row r="26" spans="1:57" ht="14.7" thickBot="1">
       <c r="A26" s="642"/>
       <c r="B26" s="642" t="s">
         <v>519</v>
@@ -32061,39 +32983,39 @@
       <c r="AA40" s="250"/>
     </row>
     <row r="41" spans="1:44">
-      <c r="A41" s="736" t="s">
+      <c r="A41" s="735" t="s">
         <v>497</v>
       </c>
-      <c r="B41" s="736"/>
-      <c r="C41" s="736"/>
-      <c r="D41" s="736"/>
-      <c r="E41" s="736"/>
-      <c r="F41" s="736"/>
-      <c r="G41" s="736"/>
+      <c r="B41" s="735"/>
+      <c r="C41" s="735"/>
+      <c r="D41" s="735"/>
+      <c r="E41" s="735"/>
+      <c r="F41" s="735"/>
+      <c r="G41" s="735"/>
       <c r="Z41" s="250"/>
       <c r="AA41" s="250"/>
     </row>
     <row r="42" spans="1:44">
-      <c r="A42" s="736" t="s">
+      <c r="A42" s="735" t="s">
         <v>525</v>
       </c>
-      <c r="B42" s="736"/>
-      <c r="C42" s="736"/>
-      <c r="D42" s="736"/>
-      <c r="E42" s="736"/>
-      <c r="F42" s="736"/>
-      <c r="G42" s="736"/>
+      <c r="B42" s="735"/>
+      <c r="C42" s="735"/>
+      <c r="D42" s="735"/>
+      <c r="E42" s="735"/>
+      <c r="F42" s="735"/>
+      <c r="G42" s="735"/>
       <c r="Z42" s="250"/>
       <c r="AA42" s="250"/>
     </row>
     <row r="43" spans="1:44">
-      <c r="A43" s="736" t="s">
+      <c r="A43" s="735" t="s">
         <v>500</v>
       </c>
-      <c r="B43" s="736" t="s">
+      <c r="B43" s="735" t="s">
         <v>501</v>
       </c>
-      <c r="C43" s="736" t="s">
+      <c r="C43" s="735" t="s">
         <v>502</v>
       </c>
       <c r="D43" s="642" t="s">
@@ -32102,7 +33024,7 @@
       <c r="E43" s="642" t="s">
         <v>504</v>
       </c>
-      <c r="F43" s="736" t="s">
+      <c r="F43" s="735" t="s">
         <v>505</v>
       </c>
       <c r="G43" s="642" t="s">
@@ -32114,17 +33036,17 @@
       <c r="Z43" s="250"/>
       <c r="AA43" s="250"/>
     </row>
-    <row r="44" spans="1:44" ht="29.4" thickBot="1">
-      <c r="A44" s="736"/>
-      <c r="B44" s="736"/>
-      <c r="C44" s="736"/>
+    <row r="44" spans="1:44" ht="29" thickBot="1">
+      <c r="A44" s="735"/>
+      <c r="B44" s="735"/>
+      <c r="C44" s="735"/>
       <c r="D44" s="642" t="s">
         <v>502</v>
       </c>
       <c r="E44" s="642" t="s">
         <v>507</v>
       </c>
-      <c r="F44" s="736"/>
+      <c r="F44" s="735"/>
       <c r="G44" s="642" t="s">
         <v>505</v>
       </c>
@@ -32161,7 +33083,7 @@
       <c r="Z44" s="250"/>
       <c r="AA44" s="250"/>
     </row>
-    <row r="45" spans="1:44" ht="28.8">
+    <row r="45" spans="1:44" ht="28.7">
       <c r="A45" s="642" t="s">
         <v>516</v>
       </c>
@@ -32281,7 +33203,7 @@
       <c r="Z46" s="250"/>
       <c r="AA46" s="250"/>
     </row>
-    <row r="47" spans="1:44" ht="15" thickBot="1">
+    <row r="47" spans="1:44" ht="14.7" thickBot="1">
       <c r="A47" s="642"/>
       <c r="B47" s="642" t="s">
         <v>519</v>
@@ -33116,35 +34038,35 @@
       </c>
     </row>
     <row r="62" spans="1:43">
-      <c r="A62" s="736" t="s">
+      <c r="A62" s="735" t="s">
         <v>497</v>
       </c>
-      <c r="B62" s="736"/>
-      <c r="C62" s="736"/>
-      <c r="D62" s="736"/>
-      <c r="E62" s="736"/>
-      <c r="F62" s="736"/>
-      <c r="G62" s="736"/>
+      <c r="B62" s="735"/>
+      <c r="C62" s="735"/>
+      <c r="D62" s="735"/>
+      <c r="E62" s="735"/>
+      <c r="F62" s="735"/>
+      <c r="G62" s="735"/>
     </row>
     <row r="63" spans="1:43">
-      <c r="A63" s="736" t="s">
+      <c r="A63" s="735" t="s">
         <v>532</v>
       </c>
-      <c r="B63" s="736"/>
-      <c r="C63" s="736"/>
-      <c r="D63" s="736"/>
-      <c r="E63" s="736"/>
-      <c r="F63" s="736"/>
-      <c r="G63" s="736"/>
+      <c r="B63" s="735"/>
+      <c r="C63" s="735"/>
+      <c r="D63" s="735"/>
+      <c r="E63" s="735"/>
+      <c r="F63" s="735"/>
+      <c r="G63" s="735"/>
     </row>
     <row r="64" spans="1:43">
-      <c r="A64" s="736" t="s">
+      <c r="A64" s="735" t="s">
         <v>500</v>
       </c>
-      <c r="B64" s="736" t="s">
+      <c r="B64" s="735" t="s">
         <v>501</v>
       </c>
-      <c r="C64" s="736" t="s">
+      <c r="C64" s="735" t="s">
         <v>502</v>
       </c>
       <c r="D64" s="642" t="s">
@@ -33153,7 +34075,7 @@
       <c r="E64" s="642" t="s">
         <v>504</v>
       </c>
-      <c r="F64" s="736" t="s">
+      <c r="F64" s="735" t="s">
         <v>505</v>
       </c>
       <c r="G64" s="642" t="s">
@@ -33163,17 +34085,17 @@
         <v>506</v>
       </c>
     </row>
-    <row r="65" spans="1:55" ht="29.4" thickBot="1">
-      <c r="A65" s="736"/>
-      <c r="B65" s="736"/>
-      <c r="C65" s="736"/>
+    <row r="65" spans="1:55" ht="29" thickBot="1">
+      <c r="A65" s="735"/>
+      <c r="B65" s="735"/>
+      <c r="C65" s="735"/>
       <c r="D65" s="642" t="s">
         <v>502</v>
       </c>
       <c r="E65" s="642" t="s">
         <v>507</v>
       </c>
-      <c r="F65" s="736"/>
+      <c r="F65" s="735"/>
       <c r="G65" s="642" t="s">
         <v>505</v>
       </c>
@@ -33218,7 +34140,7 @@
       <c r="AE65" s="223"/>
       <c r="AF65" s="223"/>
     </row>
-    <row r="66" spans="1:55" ht="28.8">
+    <row r="66" spans="1:55" ht="28.7">
       <c r="A66" s="642" t="s">
         <v>516</v>
       </c>
@@ -33387,7 +34309,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="67" spans="1:55" ht="43.2">
+    <row r="67" spans="1:55" ht="28.7">
       <c r="A67" s="642"/>
       <c r="B67" s="642" t="s">
         <v>508</v>
@@ -33508,7 +34430,7 @@
       <c r="BB67" s="223"/>
       <c r="BC67" s="223"/>
     </row>
-    <row r="68" spans="1:55" ht="43.8" thickBot="1">
+    <row r="68" spans="1:55" ht="43.35" thickBot="1">
       <c r="A68" s="642"/>
       <c r="B68" s="642" t="s">
         <v>519</v>
@@ -33613,7 +34535,7 @@
         <v>355101000</v>
       </c>
     </row>
-    <row r="69" spans="1:55" ht="57.6">
+    <row r="69" spans="1:55" ht="57.35">
       <c r="A69" s="642"/>
       <c r="B69" s="642" t="s">
         <v>255</v>
@@ -33686,7 +34608,7 @@
       <c r="BB69" s="223"/>
       <c r="BC69" s="223"/>
     </row>
-    <row r="70" spans="1:55" ht="43.2">
+    <row r="70" spans="1:55" ht="43">
       <c r="A70" s="642" t="s">
         <v>513</v>
       </c>
@@ -34289,15 +35211,15 @@
       <c r="AJ82" s="223"/>
     </row>
     <row r="83" spans="1:36">
-      <c r="A83" s="736" t="s">
+      <c r="A83" s="735" t="s">
         <v>497</v>
       </c>
-      <c r="B83" s="736"/>
-      <c r="C83" s="736"/>
-      <c r="D83" s="736"/>
-      <c r="E83" s="736"/>
-      <c r="F83" s="736"/>
-      <c r="G83" s="736"/>
+      <c r="B83" s="735"/>
+      <c r="C83" s="735"/>
+      <c r="D83" s="735"/>
+      <c r="E83" s="735"/>
+      <c r="F83" s="735"/>
+      <c r="G83" s="735"/>
       <c r="Z83" s="223"/>
       <c r="AA83" s="223"/>
       <c r="AB83" s="223"/>
@@ -34311,15 +35233,15 @@
       <c r="AJ83" s="223"/>
     </row>
     <row r="84" spans="1:36">
-      <c r="A84" s="736" t="s">
+      <c r="A84" s="735" t="s">
         <v>538</v>
       </c>
-      <c r="B84" s="736"/>
-      <c r="C84" s="736"/>
-      <c r="D84" s="736"/>
-      <c r="E84" s="736"/>
-      <c r="F84" s="736"/>
-      <c r="G84" s="736"/>
+      <c r="B84" s="735"/>
+      <c r="C84" s="735"/>
+      <c r="D84" s="735"/>
+      <c r="E84" s="735"/>
+      <c r="F84" s="735"/>
+      <c r="G84" s="735"/>
       <c r="Z84" s="223"/>
       <c r="AA84" s="223"/>
       <c r="AB84" s="223"/>
@@ -34333,13 +35255,13 @@
       <c r="AJ84" s="223"/>
     </row>
     <row r="85" spans="1:36">
-      <c r="A85" s="736" t="s">
+      <c r="A85" s="735" t="s">
         <v>500</v>
       </c>
-      <c r="B85" s="736" t="s">
+      <c r="B85" s="735" t="s">
         <v>501</v>
       </c>
-      <c r="C85" s="736" t="s">
+      <c r="C85" s="735" t="s">
         <v>502</v>
       </c>
       <c r="D85" s="642" t="s">
@@ -34348,7 +35270,7 @@
       <c r="E85" s="642" t="s">
         <v>504</v>
       </c>
-      <c r="F85" s="736" t="s">
+      <c r="F85" s="735" t="s">
         <v>505</v>
       </c>
       <c r="G85" s="642" t="s">
@@ -34369,17 +35291,17 @@
       <c r="AI85" s="223"/>
       <c r="AJ85" s="223"/>
     </row>
-    <row r="86" spans="1:36" ht="29.4" thickBot="1">
-      <c r="A86" s="736"/>
-      <c r="B86" s="736"/>
-      <c r="C86" s="736"/>
+    <row r="86" spans="1:36" ht="29" thickBot="1">
+      <c r="A86" s="735"/>
+      <c r="B86" s="735"/>
+      <c r="C86" s="735"/>
       <c r="D86" s="642" t="s">
         <v>502</v>
       </c>
       <c r="E86" s="642" t="s">
         <v>507</v>
       </c>
-      <c r="F86" s="736"/>
+      <c r="F86" s="735"/>
       <c r="G86" s="642" t="s">
         <v>505</v>
       </c>
@@ -34425,7 +35347,7 @@
       <c r="AI86" s="223"/>
       <c r="AJ86" s="223"/>
     </row>
-    <row r="87" spans="1:36" ht="28.8">
+    <row r="87" spans="1:36" ht="28.7">
       <c r="A87" s="642" t="s">
         <v>516</v>
       </c>
@@ -34563,7 +35485,7 @@
       <c r="AI88" s="223"/>
       <c r="AJ88" s="223"/>
     </row>
-    <row r="89" spans="1:36" ht="15" thickBot="1">
+    <row r="89" spans="1:36" ht="14.7" thickBot="1">
       <c r="A89" s="642"/>
       <c r="B89" s="642" t="s">
         <v>519</v>
@@ -34944,7 +35866,7 @@
       <c r="AO98" s="223"/>
       <c r="AP98" s="223"/>
     </row>
-    <row r="99" spans="1:42" ht="288">
+    <row r="99" spans="1:42" ht="272.35000000000002">
       <c r="A99" s="642" t="s">
         <v>255</v>
       </c>
@@ -35051,35 +35973,35 @@
       <c r="A103" s="129"/>
     </row>
     <row r="104" spans="1:42">
-      <c r="A104" s="736" t="s">
+      <c r="A104" s="735" t="s">
         <v>497</v>
       </c>
-      <c r="B104" s="736"/>
-      <c r="C104" s="736"/>
-      <c r="D104" s="736"/>
-      <c r="E104" s="736"/>
-      <c r="F104" s="736"/>
-      <c r="G104" s="736"/>
+      <c r="B104" s="735"/>
+      <c r="C104" s="735"/>
+      <c r="D104" s="735"/>
+      <c r="E104" s="735"/>
+      <c r="F104" s="735"/>
+      <c r="G104" s="735"/>
     </row>
     <row r="105" spans="1:42">
-      <c r="A105" s="736" t="s">
+      <c r="A105" s="735" t="s">
         <v>540</v>
       </c>
-      <c r="B105" s="736"/>
-      <c r="C105" s="736"/>
-      <c r="D105" s="736"/>
-      <c r="E105" s="736"/>
-      <c r="F105" s="736"/>
-      <c r="G105" s="736"/>
+      <c r="B105" s="735"/>
+      <c r="C105" s="735"/>
+      <c r="D105" s="735"/>
+      <c r="E105" s="735"/>
+      <c r="F105" s="735"/>
+      <c r="G105" s="735"/>
     </row>
     <row r="106" spans="1:42">
-      <c r="A106" s="736" t="s">
+      <c r="A106" s="735" t="s">
         <v>500</v>
       </c>
-      <c r="B106" s="736" t="s">
+      <c r="B106" s="735" t="s">
         <v>501</v>
       </c>
-      <c r="C106" s="736" t="s">
+      <c r="C106" s="735" t="s">
         <v>502</v>
       </c>
       <c r="D106" s="642" t="s">
@@ -35088,7 +36010,7 @@
       <c r="E106" s="642" t="s">
         <v>504</v>
       </c>
-      <c r="F106" s="736" t="s">
+      <c r="F106" s="735" t="s">
         <v>505</v>
       </c>
       <c r="G106" s="642" t="s">
@@ -35098,17 +36020,17 @@
         <v>506</v>
       </c>
     </row>
-    <row r="107" spans="1:42" ht="29.4" thickBot="1">
-      <c r="A107" s="736"/>
-      <c r="B107" s="736"/>
-      <c r="C107" s="736"/>
+    <row r="107" spans="1:42" ht="29" thickBot="1">
+      <c r="A107" s="735"/>
+      <c r="B107" s="735"/>
+      <c r="C107" s="735"/>
       <c r="D107" s="642" t="s">
         <v>502</v>
       </c>
       <c r="E107" s="642" t="s">
         <v>507</v>
       </c>
-      <c r="F107" s="736"/>
+      <c r="F107" s="735"/>
       <c r="G107" s="642" t="s">
         <v>505</v>
       </c>
@@ -35143,7 +36065,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="108" spans="1:42" ht="28.8">
+    <row r="108" spans="1:42" ht="28.7">
       <c r="A108" s="642" t="s">
         <v>516</v>
       </c>
@@ -35259,7 +36181,7 @@
         <v>0.57803937794552485</v>
       </c>
     </row>
-    <row r="110" spans="1:42" ht="15" thickBot="1">
+    <row r="110" spans="1:42" ht="14.7" thickBot="1">
       <c r="A110" s="642"/>
       <c r="B110" s="642" t="s">
         <v>519</v>
@@ -35612,35 +36534,35 @@
       <c r="A124" s="129"/>
     </row>
     <row r="125" spans="1:21">
-      <c r="A125" s="736" t="s">
+      <c r="A125" s="735" t="s">
         <v>497</v>
       </c>
-      <c r="B125" s="736"/>
-      <c r="C125" s="736"/>
-      <c r="D125" s="736"/>
-      <c r="E125" s="736"/>
-      <c r="F125" s="736"/>
-      <c r="G125" s="736"/>
+      <c r="B125" s="735"/>
+      <c r="C125" s="735"/>
+      <c r="D125" s="735"/>
+      <c r="E125" s="735"/>
+      <c r="F125" s="735"/>
+      <c r="G125" s="735"/>
     </row>
     <row r="126" spans="1:21">
-      <c r="A126" s="736" t="s">
+      <c r="A126" s="735" t="s">
         <v>541</v>
       </c>
-      <c r="B126" s="736"/>
-      <c r="C126" s="736"/>
-      <c r="D126" s="736"/>
-      <c r="E126" s="736"/>
-      <c r="F126" s="736"/>
-      <c r="G126" s="736"/>
+      <c r="B126" s="735"/>
+      <c r="C126" s="735"/>
+      <c r="D126" s="735"/>
+      <c r="E126" s="735"/>
+      <c r="F126" s="735"/>
+      <c r="G126" s="735"/>
     </row>
     <row r="127" spans="1:21">
-      <c r="A127" s="736" t="s">
+      <c r="A127" s="735" t="s">
         <v>500</v>
       </c>
-      <c r="B127" s="736" t="s">
+      <c r="B127" s="735" t="s">
         <v>501</v>
       </c>
-      <c r="C127" s="736" t="s">
+      <c r="C127" s="735" t="s">
         <v>502</v>
       </c>
       <c r="D127" s="642" t="s">
@@ -35649,7 +36571,7 @@
       <c r="E127" s="642" t="s">
         <v>504</v>
       </c>
-      <c r="F127" s="736" t="s">
+      <c r="F127" s="735" t="s">
         <v>505</v>
       </c>
       <c r="G127" s="642" t="s">
@@ -35659,17 +36581,17 @@
         <v>506</v>
       </c>
     </row>
-    <row r="128" spans="1:21" ht="29.4" thickBot="1">
-      <c r="A128" s="736"/>
-      <c r="B128" s="736"/>
-      <c r="C128" s="736"/>
+    <row r="128" spans="1:21" ht="29" thickBot="1">
+      <c r="A128" s="735"/>
+      <c r="B128" s="735"/>
+      <c r="C128" s="735"/>
       <c r="D128" s="642" t="s">
         <v>502</v>
       </c>
       <c r="E128" s="642" t="s">
         <v>507</v>
       </c>
-      <c r="F128" s="736"/>
+      <c r="F128" s="735"/>
       <c r="G128" s="642" t="s">
         <v>505</v>
       </c>
@@ -35704,7 +36626,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="129" spans="1:21" ht="28.8">
+    <row r="129" spans="1:21" ht="28.7">
       <c r="A129" s="642" t="s">
         <v>516</v>
       </c>
@@ -35820,7 +36742,7 @@
         <v>0.72162230278590955</v>
       </c>
     </row>
-    <row r="131" spans="1:21" ht="15" thickBot="1">
+    <row r="131" spans="1:21" ht="14.7" thickBot="1">
       <c r="A131" s="642"/>
       <c r="B131" s="642" t="s">
         <v>519</v>
@@ -36173,35 +37095,35 @@
       <c r="A145" s="129"/>
     </row>
     <row r="146" spans="1:21">
-      <c r="A146" s="736" t="s">
+      <c r="A146" s="735" t="s">
         <v>497</v>
       </c>
-      <c r="B146" s="736"/>
-      <c r="C146" s="736"/>
-      <c r="D146" s="736"/>
-      <c r="E146" s="736"/>
-      <c r="F146" s="736"/>
-      <c r="G146" s="736"/>
+      <c r="B146" s="735"/>
+      <c r="C146" s="735"/>
+      <c r="D146" s="735"/>
+      <c r="E146" s="735"/>
+      <c r="F146" s="735"/>
+      <c r="G146" s="735"/>
     </row>
     <row r="147" spans="1:21">
-      <c r="A147" s="736" t="s">
+      <c r="A147" s="735" t="s">
         <v>542</v>
       </c>
-      <c r="B147" s="736"/>
-      <c r="C147" s="736"/>
-      <c r="D147" s="736"/>
-      <c r="E147" s="736"/>
-      <c r="F147" s="736"/>
-      <c r="G147" s="736"/>
+      <c r="B147" s="735"/>
+      <c r="C147" s="735"/>
+      <c r="D147" s="735"/>
+      <c r="E147" s="735"/>
+      <c r="F147" s="735"/>
+      <c r="G147" s="735"/>
     </row>
     <row r="148" spans="1:21">
-      <c r="A148" s="736" t="s">
+      <c r="A148" s="735" t="s">
         <v>500</v>
       </c>
-      <c r="B148" s="736" t="s">
+      <c r="B148" s="735" t="s">
         <v>501</v>
       </c>
-      <c r="C148" s="736" t="s">
+      <c r="C148" s="735" t="s">
         <v>502</v>
       </c>
       <c r="D148" s="642" t="s">
@@ -36210,7 +37132,7 @@
       <c r="E148" s="642" t="s">
         <v>504</v>
       </c>
-      <c r="F148" s="736" t="s">
+      <c r="F148" s="735" t="s">
         <v>505</v>
       </c>
       <c r="G148" s="642" t="s">
@@ -36220,17 +37142,17 @@
         <v>506</v>
       </c>
     </row>
-    <row r="149" spans="1:21" ht="29.4" thickBot="1">
-      <c r="A149" s="736"/>
-      <c r="B149" s="736"/>
-      <c r="C149" s="736"/>
+    <row r="149" spans="1:21" ht="29" thickBot="1">
+      <c r="A149" s="735"/>
+      <c r="B149" s="735"/>
+      <c r="C149" s="735"/>
       <c r="D149" s="642" t="s">
         <v>502</v>
       </c>
       <c r="E149" s="642" t="s">
         <v>507</v>
       </c>
-      <c r="F149" s="736"/>
+      <c r="F149" s="735"/>
       <c r="G149" s="642" t="s">
         <v>505</v>
       </c>
@@ -36265,7 +37187,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="150" spans="1:21" ht="28.8">
+    <row r="150" spans="1:21" ht="28.7">
       <c r="A150" s="642" t="s">
         <v>516</v>
       </c>
@@ -36381,7 +37303,7 @@
         <v>0.42434660061496415</v>
       </c>
     </row>
-    <row r="152" spans="1:21" ht="15" thickBot="1">
+    <row r="152" spans="1:21" ht="14.7" thickBot="1">
       <c r="A152" s="642"/>
       <c r="B152" s="642" t="s">
         <v>519</v>
@@ -36734,35 +37656,35 @@
       <c r="A166" s="129"/>
     </row>
     <row r="167" spans="1:21">
-      <c r="A167" s="736" t="s">
+      <c r="A167" s="735" t="s">
         <v>497</v>
       </c>
-      <c r="B167" s="736"/>
-      <c r="C167" s="736"/>
-      <c r="D167" s="736"/>
-      <c r="E167" s="736"/>
-      <c r="F167" s="736"/>
-      <c r="G167" s="736"/>
+      <c r="B167" s="735"/>
+      <c r="C167" s="735"/>
+      <c r="D167" s="735"/>
+      <c r="E167" s="735"/>
+      <c r="F167" s="735"/>
+      <c r="G167" s="735"/>
     </row>
     <row r="168" spans="1:21">
-      <c r="A168" s="736" t="s">
+      <c r="A168" s="735" t="s">
         <v>543</v>
       </c>
-      <c r="B168" s="736"/>
-      <c r="C168" s="736"/>
-      <c r="D168" s="736"/>
-      <c r="E168" s="736"/>
-      <c r="F168" s="736"/>
-      <c r="G168" s="736"/>
+      <c r="B168" s="735"/>
+      <c r="C168" s="735"/>
+      <c r="D168" s="735"/>
+      <c r="E168" s="735"/>
+      <c r="F168" s="735"/>
+      <c r="G168" s="735"/>
     </row>
     <row r="169" spans="1:21">
-      <c r="A169" s="736" t="s">
+      <c r="A169" s="735" t="s">
         <v>500</v>
       </c>
-      <c r="B169" s="736" t="s">
+      <c r="B169" s="735" t="s">
         <v>501</v>
       </c>
-      <c r="C169" s="736" t="s">
+      <c r="C169" s="735" t="s">
         <v>502</v>
       </c>
       <c r="D169" s="642" t="s">
@@ -36771,7 +37693,7 @@
       <c r="E169" s="642" t="s">
         <v>504</v>
       </c>
-      <c r="F169" s="736" t="s">
+      <c r="F169" s="735" t="s">
         <v>505</v>
       </c>
       <c r="G169" s="642" t="s">
@@ -36781,17 +37703,17 @@
         <v>506</v>
       </c>
     </row>
-    <row r="170" spans="1:21" ht="29.4" thickBot="1">
-      <c r="A170" s="736"/>
-      <c r="B170" s="736"/>
-      <c r="C170" s="736"/>
+    <row r="170" spans="1:21" ht="29" thickBot="1">
+      <c r="A170" s="735"/>
+      <c r="B170" s="735"/>
+      <c r="C170" s="735"/>
       <c r="D170" s="642" t="s">
         <v>502</v>
       </c>
       <c r="E170" s="642" t="s">
         <v>507</v>
       </c>
-      <c r="F170" s="736"/>
+      <c r="F170" s="735"/>
       <c r="G170" s="642" t="s">
         <v>505</v>
       </c>
@@ -36826,7 +37748,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="171" spans="1:21" ht="28.8">
+    <row r="171" spans="1:21" ht="28.7">
       <c r="A171" s="642" t="s">
         <v>516</v>
       </c>
@@ -36942,7 +37864,7 @@
         <v>0.67685122298409983</v>
       </c>
     </row>
-    <row r="173" spans="1:21" ht="15" thickBot="1">
+    <row r="173" spans="1:21" ht="14.7" thickBot="1">
       <c r="A173" s="642"/>
       <c r="B173" s="642" t="s">
         <v>519</v>
@@ -37295,35 +38217,35 @@
       <c r="A187" s="129"/>
     </row>
     <row r="188" spans="1:21">
-      <c r="A188" s="736" t="s">
+      <c r="A188" s="735" t="s">
         <v>497</v>
       </c>
-      <c r="B188" s="736"/>
-      <c r="C188" s="736"/>
-      <c r="D188" s="736"/>
-      <c r="E188" s="736"/>
-      <c r="F188" s="736"/>
-      <c r="G188" s="736"/>
+      <c r="B188" s="735"/>
+      <c r="C188" s="735"/>
+      <c r="D188" s="735"/>
+      <c r="E188" s="735"/>
+      <c r="F188" s="735"/>
+      <c r="G188" s="735"/>
     </row>
     <row r="189" spans="1:21">
-      <c r="A189" s="736" t="s">
+      <c r="A189" s="735" t="s">
         <v>544</v>
       </c>
-      <c r="B189" s="736"/>
-      <c r="C189" s="736"/>
-      <c r="D189" s="736"/>
-      <c r="E189" s="736"/>
-      <c r="F189" s="736"/>
-      <c r="G189" s="736"/>
+      <c r="B189" s="735"/>
+      <c r="C189" s="735"/>
+      <c r="D189" s="735"/>
+      <c r="E189" s="735"/>
+      <c r="F189" s="735"/>
+      <c r="G189" s="735"/>
     </row>
     <row r="190" spans="1:21">
-      <c r="A190" s="736" t="s">
+      <c r="A190" s="735" t="s">
         <v>500</v>
       </c>
-      <c r="B190" s="736" t="s">
+      <c r="B190" s="735" t="s">
         <v>501</v>
       </c>
-      <c r="C190" s="736" t="s">
+      <c r="C190" s="735" t="s">
         <v>502</v>
       </c>
       <c r="D190" s="642" t="s">
@@ -37332,7 +38254,7 @@
       <c r="E190" s="642" t="s">
         <v>504</v>
       </c>
-      <c r="F190" s="736" t="s">
+      <c r="F190" s="735" t="s">
         <v>505</v>
       </c>
       <c r="G190" s="642" t="s">
@@ -37342,17 +38264,17 @@
         <v>506</v>
       </c>
     </row>
-    <row r="191" spans="1:21" ht="29.4" thickBot="1">
-      <c r="A191" s="736"/>
-      <c r="B191" s="736"/>
-      <c r="C191" s="736"/>
+    <row r="191" spans="1:21" ht="29" thickBot="1">
+      <c r="A191" s="735"/>
+      <c r="B191" s="735"/>
+      <c r="C191" s="735"/>
       <c r="D191" s="642" t="s">
         <v>502</v>
       </c>
       <c r="E191" s="642" t="s">
         <v>507</v>
       </c>
-      <c r="F191" s="736"/>
+      <c r="F191" s="735"/>
       <c r="G191" s="642" t="s">
         <v>505</v>
       </c>
@@ -37387,7 +38309,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="192" spans="1:21" ht="28.8">
+    <row r="192" spans="1:21" ht="28.7">
       <c r="A192" s="642" t="s">
         <v>516</v>
       </c>
@@ -37503,7 +38425,7 @@
         <v>0.47542778169279082</v>
       </c>
     </row>
-    <row r="194" spans="1:14" ht="15" thickBot="1">
+    <row r="194" spans="1:14" ht="14.7" thickBot="1">
       <c r="A194" s="642"/>
       <c r="B194" s="642" t="s">
         <v>519</v>
@@ -37856,35 +38778,35 @@
       <c r="A208" s="129"/>
     </row>
     <row r="209" spans="1:21">
-      <c r="A209" s="736" t="s">
+      <c r="A209" s="735" t="s">
         <v>497</v>
       </c>
-      <c r="B209" s="736"/>
-      <c r="C209" s="736"/>
-      <c r="D209" s="736"/>
-      <c r="E209" s="736"/>
-      <c r="F209" s="736"/>
-      <c r="G209" s="736"/>
+      <c r="B209" s="735"/>
+      <c r="C209" s="735"/>
+      <c r="D209" s="735"/>
+      <c r="E209" s="735"/>
+      <c r="F209" s="735"/>
+      <c r="G209" s="735"/>
     </row>
     <row r="210" spans="1:21">
-      <c r="A210" s="736" t="s">
+      <c r="A210" s="735" t="s">
         <v>545</v>
       </c>
-      <c r="B210" s="736"/>
-      <c r="C210" s="736"/>
-      <c r="D210" s="736"/>
-      <c r="E210" s="736"/>
-      <c r="F210" s="736"/>
-      <c r="G210" s="736"/>
+      <c r="B210" s="735"/>
+      <c r="C210" s="735"/>
+      <c r="D210" s="735"/>
+      <c r="E210" s="735"/>
+      <c r="F210" s="735"/>
+      <c r="G210" s="735"/>
     </row>
     <row r="211" spans="1:21">
-      <c r="A211" s="736" t="s">
+      <c r="A211" s="735" t="s">
         <v>500</v>
       </c>
-      <c r="B211" s="736" t="s">
+      <c r="B211" s="735" t="s">
         <v>501</v>
       </c>
-      <c r="C211" s="736" t="s">
+      <c r="C211" s="735" t="s">
         <v>502</v>
       </c>
       <c r="D211" s="642" t="s">
@@ -37893,7 +38815,7 @@
       <c r="E211" s="642" t="s">
         <v>504</v>
       </c>
-      <c r="F211" s="736" t="s">
+      <c r="F211" s="735" t="s">
         <v>505</v>
       </c>
       <c r="G211" s="642" t="s">
@@ -37903,17 +38825,17 @@
         <v>506</v>
       </c>
     </row>
-    <row r="212" spans="1:21" ht="29.4" thickBot="1">
-      <c r="A212" s="736"/>
-      <c r="B212" s="736"/>
-      <c r="C212" s="736"/>
+    <row r="212" spans="1:21" ht="29" thickBot="1">
+      <c r="A212" s="735"/>
+      <c r="B212" s="735"/>
+      <c r="C212" s="735"/>
       <c r="D212" s="642" t="s">
         <v>502</v>
       </c>
       <c r="E212" s="642" t="s">
         <v>507</v>
       </c>
-      <c r="F212" s="736"/>
+      <c r="F212" s="735"/>
       <c r="G212" s="642" t="s">
         <v>505</v>
       </c>
@@ -37948,7 +38870,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="213" spans="1:21" ht="28.8">
+    <row r="213" spans="1:21" ht="28.7">
       <c r="A213" s="642" t="s">
         <v>516</v>
       </c>
@@ -38064,7 +38986,7 @@
         <v>0.47088840431370804</v>
       </c>
     </row>
-    <row r="215" spans="1:21" ht="15" thickBot="1">
+    <row r="215" spans="1:21" ht="14.7" thickBot="1">
       <c r="A215" s="642"/>
       <c r="B215" s="642" t="s">
         <v>519</v>
@@ -38417,35 +39339,35 @@
       <c r="A229" s="129"/>
     </row>
     <row r="230" spans="1:21">
-      <c r="A230" s="736" t="s">
+      <c r="A230" s="735" t="s">
         <v>497</v>
       </c>
-      <c r="B230" s="736"/>
-      <c r="C230" s="736"/>
-      <c r="D230" s="736"/>
-      <c r="E230" s="736"/>
-      <c r="F230" s="736"/>
-      <c r="G230" s="736"/>
+      <c r="B230" s="735"/>
+      <c r="C230" s="735"/>
+      <c r="D230" s="735"/>
+      <c r="E230" s="735"/>
+      <c r="F230" s="735"/>
+      <c r="G230" s="735"/>
     </row>
     <row r="231" spans="1:21">
-      <c r="A231" s="736" t="s">
+      <c r="A231" s="735" t="s">
         <v>546</v>
       </c>
-      <c r="B231" s="736"/>
-      <c r="C231" s="736"/>
-      <c r="D231" s="736"/>
-      <c r="E231" s="736"/>
-      <c r="F231" s="736"/>
-      <c r="G231" s="736"/>
+      <c r="B231" s="735"/>
+      <c r="C231" s="735"/>
+      <c r="D231" s="735"/>
+      <c r="E231" s="735"/>
+      <c r="F231" s="735"/>
+      <c r="G231" s="735"/>
     </row>
     <row r="232" spans="1:21">
-      <c r="A232" s="736" t="s">
+      <c r="A232" s="735" t="s">
         <v>500</v>
       </c>
-      <c r="B232" s="736" t="s">
+      <c r="B232" s="735" t="s">
         <v>501</v>
       </c>
-      <c r="C232" s="736" t="s">
+      <c r="C232" s="735" t="s">
         <v>502</v>
       </c>
       <c r="D232" s="642" t="s">
@@ -38454,7 +39376,7 @@
       <c r="E232" s="642" t="s">
         <v>504</v>
       </c>
-      <c r="F232" s="736" t="s">
+      <c r="F232" s="735" t="s">
         <v>505</v>
       </c>
       <c r="G232" s="642" t="s">
@@ -38464,17 +39386,17 @@
         <v>506</v>
       </c>
     </row>
-    <row r="233" spans="1:21" ht="29.4" thickBot="1">
-      <c r="A233" s="736"/>
-      <c r="B233" s="736"/>
-      <c r="C233" s="736"/>
+    <row r="233" spans="1:21" ht="29" thickBot="1">
+      <c r="A233" s="735"/>
+      <c r="B233" s="735"/>
+      <c r="C233" s="735"/>
       <c r="D233" s="642" t="s">
         <v>502</v>
       </c>
       <c r="E233" s="642" t="s">
         <v>507</v>
       </c>
-      <c r="F233" s="736"/>
+      <c r="F233" s="735"/>
       <c r="G233" s="642" t="s">
         <v>505</v>
       </c>
@@ -38509,7 +39431,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="234" spans="1:21" ht="28.8">
+    <row r="234" spans="1:21" ht="28.7">
       <c r="A234" s="642" t="s">
         <v>516</v>
       </c>
@@ -38625,7 +39547,7 @@
         <v>0.48412019742862716</v>
       </c>
     </row>
-    <row r="236" spans="1:21" ht="15" thickBot="1">
+    <row r="236" spans="1:21" ht="14.7" thickBot="1">
       <c r="A236" s="642"/>
       <c r="B236" s="642" t="s">
         <v>519</v>
@@ -38978,35 +39900,35 @@
       <c r="A250" s="129"/>
     </row>
     <row r="251" spans="1:21">
-      <c r="A251" s="736" t="s">
+      <c r="A251" s="735" t="s">
         <v>497</v>
       </c>
-      <c r="B251" s="736"/>
-      <c r="C251" s="736"/>
-      <c r="D251" s="736"/>
-      <c r="E251" s="736"/>
-      <c r="F251" s="736"/>
-      <c r="G251" s="736"/>
+      <c r="B251" s="735"/>
+      <c r="C251" s="735"/>
+      <c r="D251" s="735"/>
+      <c r="E251" s="735"/>
+      <c r="F251" s="735"/>
+      <c r="G251" s="735"/>
     </row>
     <row r="252" spans="1:21">
-      <c r="A252" s="736" t="s">
+      <c r="A252" s="735" t="s">
         <v>547</v>
       </c>
-      <c r="B252" s="736"/>
-      <c r="C252" s="736"/>
-      <c r="D252" s="736"/>
-      <c r="E252" s="736"/>
-      <c r="F252" s="736"/>
-      <c r="G252" s="736"/>
+      <c r="B252" s="735"/>
+      <c r="C252" s="735"/>
+      <c r="D252" s="735"/>
+      <c r="E252" s="735"/>
+      <c r="F252" s="735"/>
+      <c r="G252" s="735"/>
     </row>
     <row r="253" spans="1:21">
-      <c r="A253" s="736" t="s">
+      <c r="A253" s="735" t="s">
         <v>500</v>
       </c>
-      <c r="B253" s="736" t="s">
+      <c r="B253" s="735" t="s">
         <v>501</v>
       </c>
-      <c r="C253" s="736" t="s">
+      <c r="C253" s="735" t="s">
         <v>502</v>
       </c>
       <c r="D253" s="642" t="s">
@@ -39015,7 +39937,7 @@
       <c r="E253" s="642" t="s">
         <v>504</v>
       </c>
-      <c r="F253" s="736" t="s">
+      <c r="F253" s="735" t="s">
         <v>505</v>
       </c>
       <c r="G253" s="642" t="s">
@@ -39025,17 +39947,17 @@
         <v>506</v>
       </c>
     </row>
-    <row r="254" spans="1:21" ht="29.4" thickBot="1">
-      <c r="A254" s="736"/>
-      <c r="B254" s="736"/>
-      <c r="C254" s="736"/>
+    <row r="254" spans="1:21" ht="29" thickBot="1">
+      <c r="A254" s="735"/>
+      <c r="B254" s="735"/>
+      <c r="C254" s="735"/>
       <c r="D254" s="642" t="s">
         <v>502</v>
       </c>
       <c r="E254" s="642" t="s">
         <v>507</v>
       </c>
-      <c r="F254" s="736"/>
+      <c r="F254" s="735"/>
       <c r="G254" s="642" t="s">
         <v>505</v>
       </c>
@@ -39070,7 +39992,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="255" spans="1:21" ht="28.8">
+    <row r="255" spans="1:21" ht="28.7">
       <c r="A255" s="642" t="s">
         <v>516</v>
       </c>
@@ -39186,7 +40108,7 @@
         <v>0.70006800322385654</v>
       </c>
     </row>
-    <row r="257" spans="1:13" ht="15" thickBot="1">
+    <row r="257" spans="1:13" ht="14.7" thickBot="1">
       <c r="A257" s="642"/>
       <c r="B257" s="642" t="s">
         <v>519</v>
@@ -39539,35 +40461,35 @@
       <c r="A271" s="129"/>
     </row>
     <row r="272" spans="1:13">
-      <c r="A272" s="736" t="s">
+      <c r="A272" s="735" t="s">
         <v>497</v>
       </c>
-      <c r="B272" s="736"/>
-      <c r="C272" s="736"/>
-      <c r="D272" s="736"/>
-      <c r="E272" s="736"/>
-      <c r="F272" s="736"/>
-      <c r="G272" s="736"/>
+      <c r="B272" s="735"/>
+      <c r="C272" s="735"/>
+      <c r="D272" s="735"/>
+      <c r="E272" s="735"/>
+      <c r="F272" s="735"/>
+      <c r="G272" s="735"/>
     </row>
     <row r="273" spans="1:21">
-      <c r="A273" s="736" t="s">
+      <c r="A273" s="735" t="s">
         <v>548</v>
       </c>
-      <c r="B273" s="736"/>
-      <c r="C273" s="736"/>
-      <c r="D273" s="736"/>
-      <c r="E273" s="736"/>
-      <c r="F273" s="736"/>
-      <c r="G273" s="736"/>
+      <c r="B273" s="735"/>
+      <c r="C273" s="735"/>
+      <c r="D273" s="735"/>
+      <c r="E273" s="735"/>
+      <c r="F273" s="735"/>
+      <c r="G273" s="735"/>
     </row>
     <row r="274" spans="1:21">
-      <c r="A274" s="736" t="s">
+      <c r="A274" s="735" t="s">
         <v>500</v>
       </c>
-      <c r="B274" s="736" t="s">
+      <c r="B274" s="735" t="s">
         <v>501</v>
       </c>
-      <c r="C274" s="736" t="s">
+      <c r="C274" s="735" t="s">
         <v>502</v>
       </c>
       <c r="D274" s="642" t="s">
@@ -39576,7 +40498,7 @@
       <c r="E274" s="642" t="s">
         <v>504</v>
       </c>
-      <c r="F274" s="736" t="s">
+      <c r="F274" s="735" t="s">
         <v>505</v>
       </c>
       <c r="G274" s="642" t="s">
@@ -39586,17 +40508,17 @@
         <v>506</v>
       </c>
     </row>
-    <row r="275" spans="1:21" ht="29.4" thickBot="1">
-      <c r="A275" s="736"/>
-      <c r="B275" s="736"/>
-      <c r="C275" s="736"/>
+    <row r="275" spans="1:21" ht="29" thickBot="1">
+      <c r="A275" s="735"/>
+      <c r="B275" s="735"/>
+      <c r="C275" s="735"/>
       <c r="D275" s="642" t="s">
         <v>502</v>
       </c>
       <c r="E275" s="642" t="s">
         <v>507</v>
       </c>
-      <c r="F275" s="736"/>
+      <c r="F275" s="735"/>
       <c r="G275" s="642" t="s">
         <v>505</v>
       </c>
@@ -39631,7 +40553,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="276" spans="1:21" ht="28.8">
+    <row r="276" spans="1:21" ht="28.7">
       <c r="A276" s="642" t="s">
         <v>516</v>
       </c>
@@ -39747,7 +40669,7 @@
         <v>0.45505317441636534</v>
       </c>
     </row>
-    <row r="278" spans="1:21" ht="15" thickBot="1">
+    <row r="278" spans="1:21" ht="14.7" thickBot="1">
       <c r="A278" s="642"/>
       <c r="B278" s="642" t="s">
         <v>519</v>
@@ -40100,35 +41022,35 @@
       <c r="A292" s="129"/>
     </row>
     <row r="293" spans="1:21">
-      <c r="A293" s="736" t="s">
+      <c r="A293" s="735" t="s">
         <v>497</v>
       </c>
-      <c r="B293" s="736"/>
-      <c r="C293" s="736"/>
-      <c r="D293" s="736"/>
-      <c r="E293" s="736"/>
-      <c r="F293" s="736"/>
-      <c r="G293" s="736"/>
+      <c r="B293" s="735"/>
+      <c r="C293" s="735"/>
+      <c r="D293" s="735"/>
+      <c r="E293" s="735"/>
+      <c r="F293" s="735"/>
+      <c r="G293" s="735"/>
     </row>
     <row r="294" spans="1:21">
-      <c r="A294" s="736" t="s">
+      <c r="A294" s="735" t="s">
         <v>549</v>
       </c>
-      <c r="B294" s="736"/>
-      <c r="C294" s="736"/>
-      <c r="D294" s="736"/>
-      <c r="E294" s="736"/>
-      <c r="F294" s="736"/>
-      <c r="G294" s="736"/>
+      <c r="B294" s="735"/>
+      <c r="C294" s="735"/>
+      <c r="D294" s="735"/>
+      <c r="E294" s="735"/>
+      <c r="F294" s="735"/>
+      <c r="G294" s="735"/>
     </row>
     <row r="295" spans="1:21">
-      <c r="A295" s="736" t="s">
+      <c r="A295" s="735" t="s">
         <v>500</v>
       </c>
-      <c r="B295" s="736" t="s">
+      <c r="B295" s="735" t="s">
         <v>501</v>
       </c>
-      <c r="C295" s="736" t="s">
+      <c r="C295" s="735" t="s">
         <v>502</v>
       </c>
       <c r="D295" s="642" t="s">
@@ -40137,7 +41059,7 @@
       <c r="E295" s="642" t="s">
         <v>504</v>
       </c>
-      <c r="F295" s="736" t="s">
+      <c r="F295" s="735" t="s">
         <v>505</v>
       </c>
       <c r="G295" s="642" t="s">
@@ -40147,17 +41069,17 @@
         <v>506</v>
       </c>
     </row>
-    <row r="296" spans="1:21" ht="29.4" thickBot="1">
-      <c r="A296" s="736"/>
-      <c r="B296" s="736"/>
-      <c r="C296" s="736"/>
+    <row r="296" spans="1:21" ht="29" thickBot="1">
+      <c r="A296" s="735"/>
+      <c r="B296" s="735"/>
+      <c r="C296" s="735"/>
       <c r="D296" s="642" t="s">
         <v>502</v>
       </c>
       <c r="E296" s="642" t="s">
         <v>507</v>
       </c>
-      <c r="F296" s="736"/>
+      <c r="F296" s="735"/>
       <c r="G296" s="642" t="s">
         <v>505</v>
       </c>
@@ -40192,7 +41114,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="297" spans="1:21" ht="28.8">
+    <row r="297" spans="1:21" ht="28.7">
       <c r="A297" s="642" t="s">
         <v>516</v>
       </c>
@@ -40308,7 +41230,7 @@
         <v>0.59043335257408602</v>
       </c>
     </row>
-    <row r="299" spans="1:21" ht="15" thickBot="1">
+    <row r="299" spans="1:21" ht="14.7" thickBot="1">
       <c r="A299" s="642"/>
       <c r="B299" s="642" t="s">
         <v>519</v>
@@ -40661,35 +41583,35 @@
       <c r="A313" s="129"/>
     </row>
     <row r="314" spans="1:21">
-      <c r="A314" s="736" t="s">
+      <c r="A314" s="735" t="s">
         <v>497</v>
       </c>
-      <c r="B314" s="736"/>
-      <c r="C314" s="736"/>
-      <c r="D314" s="736"/>
-      <c r="E314" s="736"/>
-      <c r="F314" s="736"/>
-      <c r="G314" s="736"/>
+      <c r="B314" s="735"/>
+      <c r="C314" s="735"/>
+      <c r="D314" s="735"/>
+      <c r="E314" s="735"/>
+      <c r="F314" s="735"/>
+      <c r="G314" s="735"/>
     </row>
     <row r="315" spans="1:21">
-      <c r="A315" s="736" t="s">
+      <c r="A315" s="735" t="s">
         <v>550</v>
       </c>
-      <c r="B315" s="736"/>
-      <c r="C315" s="736"/>
-      <c r="D315" s="736"/>
-      <c r="E315" s="736"/>
-      <c r="F315" s="736"/>
-      <c r="G315" s="736"/>
+      <c r="B315" s="735"/>
+      <c r="C315" s="735"/>
+      <c r="D315" s="735"/>
+      <c r="E315" s="735"/>
+      <c r="F315" s="735"/>
+      <c r="G315" s="735"/>
     </row>
     <row r="316" spans="1:21">
-      <c r="A316" s="736" t="s">
+      <c r="A316" s="735" t="s">
         <v>500</v>
       </c>
-      <c r="B316" s="736" t="s">
+      <c r="B316" s="735" t="s">
         <v>501</v>
       </c>
-      <c r="C316" s="736" t="s">
+      <c r="C316" s="735" t="s">
         <v>502</v>
       </c>
       <c r="D316" s="642" t="s">
@@ -40698,7 +41620,7 @@
       <c r="E316" s="642" t="s">
         <v>504</v>
       </c>
-      <c r="F316" s="736" t="s">
+      <c r="F316" s="735" t="s">
         <v>505</v>
       </c>
       <c r="G316" s="642" t="s">
@@ -40708,17 +41630,17 @@
         <v>506</v>
       </c>
     </row>
-    <row r="317" spans="1:21" ht="29.4" thickBot="1">
-      <c r="A317" s="736"/>
-      <c r="B317" s="736"/>
-      <c r="C317" s="736"/>
+    <row r="317" spans="1:21" ht="29" thickBot="1">
+      <c r="A317" s="735"/>
+      <c r="B317" s="735"/>
+      <c r="C317" s="735"/>
       <c r="D317" s="642" t="s">
         <v>502</v>
       </c>
       <c r="E317" s="642" t="s">
         <v>507</v>
       </c>
-      <c r="F317" s="736"/>
+      <c r="F317" s="735"/>
       <c r="G317" s="642" t="s">
         <v>505</v>
       </c>
@@ -40753,7 +41675,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="318" spans="1:21" ht="28.8">
+    <row r="318" spans="1:21" ht="28.7">
       <c r="A318" s="642" t="s">
         <v>516</v>
       </c>
@@ -40869,7 +41791,7 @@
         <v>0.35116056083220265</v>
       </c>
     </row>
-    <row r="320" spans="1:21" ht="15" thickBot="1">
+    <row r="320" spans="1:21" ht="14.7" thickBot="1">
       <c r="A320" s="642"/>
       <c r="B320" s="642" t="s">
         <v>519</v>
@@ -41222,35 +42144,35 @@
       <c r="A334" s="129"/>
     </row>
     <row r="335" spans="1:12">
-      <c r="A335" s="736" t="s">
+      <c r="A335" s="735" t="s">
         <v>497</v>
       </c>
-      <c r="B335" s="736"/>
-      <c r="C335" s="736"/>
-      <c r="D335" s="736"/>
-      <c r="E335" s="736"/>
-      <c r="F335" s="736"/>
-      <c r="G335" s="736"/>
+      <c r="B335" s="735"/>
+      <c r="C335" s="735"/>
+      <c r="D335" s="735"/>
+      <c r="E335" s="735"/>
+      <c r="F335" s="735"/>
+      <c r="G335" s="735"/>
     </row>
     <row r="336" spans="1:12">
-      <c r="A336" s="736" t="s">
+      <c r="A336" s="735" t="s">
         <v>551</v>
       </c>
-      <c r="B336" s="736"/>
-      <c r="C336" s="736"/>
-      <c r="D336" s="736"/>
-      <c r="E336" s="736"/>
-      <c r="F336" s="736"/>
-      <c r="G336" s="736"/>
+      <c r="B336" s="735"/>
+      <c r="C336" s="735"/>
+      <c r="D336" s="735"/>
+      <c r="E336" s="735"/>
+      <c r="F336" s="735"/>
+      <c r="G336" s="735"/>
     </row>
     <row r="337" spans="1:21">
-      <c r="A337" s="736" t="s">
+      <c r="A337" s="735" t="s">
         <v>500</v>
       </c>
-      <c r="B337" s="736" t="s">
+      <c r="B337" s="735" t="s">
         <v>501</v>
       </c>
-      <c r="C337" s="736" t="s">
+      <c r="C337" s="735" t="s">
         <v>502</v>
       </c>
       <c r="D337" s="642" t="s">
@@ -41259,7 +42181,7 @@
       <c r="E337" s="642" t="s">
         <v>504</v>
       </c>
-      <c r="F337" s="736" t="s">
+      <c r="F337" s="735" t="s">
         <v>505</v>
       </c>
       <c r="G337" s="642" t="s">
@@ -41269,17 +42191,17 @@
         <v>506</v>
       </c>
     </row>
-    <row r="338" spans="1:21" ht="29.4" thickBot="1">
-      <c r="A338" s="736"/>
-      <c r="B338" s="736"/>
-      <c r="C338" s="736"/>
+    <row r="338" spans="1:21" ht="29" thickBot="1">
+      <c r="A338" s="735"/>
+      <c r="B338" s="735"/>
+      <c r="C338" s="735"/>
       <c r="D338" s="642" t="s">
         <v>502</v>
       </c>
       <c r="E338" s="642" t="s">
         <v>507</v>
       </c>
-      <c r="F338" s="736"/>
+      <c r="F338" s="735"/>
       <c r="G338" s="642" t="s">
         <v>505</v>
       </c>
@@ -41314,7 +42236,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="339" spans="1:21" ht="28.8">
+    <row r="339" spans="1:21" ht="28.7">
       <c r="A339" s="642" t="s">
         <v>516</v>
       </c>
@@ -41430,7 +42352,7 @@
         <v>0.52275756557215547</v>
       </c>
     </row>
-    <row r="341" spans="1:21" ht="15" thickBot="1">
+    <row r="341" spans="1:21" ht="14.7" thickBot="1">
       <c r="A341" s="642"/>
       <c r="B341" s="642" t="s">
         <v>519</v>
@@ -41783,35 +42705,35 @@
       <c r="A355" s="129"/>
     </row>
     <row r="356" spans="1:21">
-      <c r="A356" s="736" t="s">
+      <c r="A356" s="735" t="s">
         <v>497</v>
       </c>
-      <c r="B356" s="736"/>
-      <c r="C356" s="736"/>
-      <c r="D356" s="736"/>
-      <c r="E356" s="736"/>
-      <c r="F356" s="736"/>
-      <c r="G356" s="736"/>
+      <c r="B356" s="735"/>
+      <c r="C356" s="735"/>
+      <c r="D356" s="735"/>
+      <c r="E356" s="735"/>
+      <c r="F356" s="735"/>
+      <c r="G356" s="735"/>
     </row>
     <row r="357" spans="1:21">
-      <c r="A357" s="736" t="s">
+      <c r="A357" s="735" t="s">
         <v>552</v>
       </c>
-      <c r="B357" s="736"/>
-      <c r="C357" s="736"/>
-      <c r="D357" s="736"/>
-      <c r="E357" s="736"/>
-      <c r="F357" s="736"/>
-      <c r="G357" s="736"/>
+      <c r="B357" s="735"/>
+      <c r="C357" s="735"/>
+      <c r="D357" s="735"/>
+      <c r="E357" s="735"/>
+      <c r="F357" s="735"/>
+      <c r="G357" s="735"/>
     </row>
     <row r="358" spans="1:21">
-      <c r="A358" s="736" t="s">
+      <c r="A358" s="735" t="s">
         <v>500</v>
       </c>
-      <c r="B358" s="736" t="s">
+      <c r="B358" s="735" t="s">
         <v>501</v>
       </c>
-      <c r="C358" s="736" t="s">
+      <c r="C358" s="735" t="s">
         <v>502</v>
       </c>
       <c r="D358" s="642" t="s">
@@ -41820,7 +42742,7 @@
       <c r="E358" s="642" t="s">
         <v>504</v>
       </c>
-      <c r="F358" s="736" t="s">
+      <c r="F358" s="735" t="s">
         <v>505</v>
       </c>
       <c r="G358" s="642" t="s">
@@ -41830,17 +42752,17 @@
         <v>506</v>
       </c>
     </row>
-    <row r="359" spans="1:21" ht="29.4" thickBot="1">
-      <c r="A359" s="736"/>
-      <c r="B359" s="736"/>
-      <c r="C359" s="736"/>
+    <row r="359" spans="1:21" ht="29" thickBot="1">
+      <c r="A359" s="735"/>
+      <c r="B359" s="735"/>
+      <c r="C359" s="735"/>
       <c r="D359" s="642" t="s">
         <v>502</v>
       </c>
       <c r="E359" s="642" t="s">
         <v>507</v>
       </c>
-      <c r="F359" s="736"/>
+      <c r="F359" s="735"/>
       <c r="G359" s="642" t="s">
         <v>505</v>
       </c>
@@ -41875,7 +42797,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="360" spans="1:21" ht="28.8">
+    <row r="360" spans="1:21" ht="28.7">
       <c r="A360" s="642" t="s">
         <v>516</v>
       </c>
@@ -41991,7 +42913,7 @@
         <v>0.39097376936899497</v>
       </c>
     </row>
-    <row r="362" spans="1:21" ht="15" thickBot="1">
+    <row r="362" spans="1:21" ht="14.7" thickBot="1">
       <c r="A362" s="642"/>
       <c r="B362" s="642" t="s">
         <v>519</v>
@@ -42342,31 +43264,31 @@
     </row>
     <row r="376" spans="1:21" ht="14.85" customHeight="1"/>
     <row r="377" spans="1:21">
-      <c r="A377" s="734" t="s">
+      <c r="A377" s="737" t="s">
         <v>497</v>
       </c>
-      <c r="B377" s="735"/>
-      <c r="C377" s="735"/>
-      <c r="D377" s="735"/>
-      <c r="E377" s="735"/>
-      <c r="F377" s="735"/>
-      <c r="G377" s="735"/>
+      <c r="B377" s="738"/>
+      <c r="C377" s="738"/>
+      <c r="D377" s="738"/>
+      <c r="E377" s="738"/>
+      <c r="F377" s="738"/>
+      <c r="G377" s="738"/>
     </row>
     <row r="378" spans="1:21">
-      <c r="A378" s="736" t="s">
+      <c r="A378" s="735" t="s">
         <v>553</v>
       </c>
-      <c r="B378" s="736"/>
-      <c r="C378" s="736"/>
-      <c r="D378" s="736"/>
-      <c r="E378" s="736"/>
-      <c r="F378" s="736"/>
-      <c r="G378" s="736"/>
+      <c r="B378" s="735"/>
+      <c r="C378" s="735"/>
+      <c r="D378" s="735"/>
+      <c r="E378" s="735"/>
+      <c r="F378" s="735"/>
+      <c r="G378" s="735"/>
       <c r="J378" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="379" spans="1:21" ht="29.4" thickBot="1">
+    <row r="379" spans="1:21" ht="29" thickBot="1">
       <c r="A379" s="230" t="s">
         <v>500</v>
       </c>
@@ -42419,7 +43341,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="380" spans="1:21" ht="28.8">
+    <row r="380" spans="1:21" ht="28.7">
       <c r="A380" s="230" t="s">
         <v>516</v>
       </c>
@@ -42537,7 +43459,7 @@
         <v>0.24577347467820138</v>
       </c>
     </row>
-    <row r="382" spans="1:21" ht="15" thickBot="1">
+    <row r="382" spans="1:21" ht="14.7" thickBot="1">
       <c r="A382" s="230" t="s">
         <v>557</v>
       </c>
@@ -42910,6 +43832,87 @@
     </row>
   </sheetData>
   <mergeCells count="105">
+    <mergeCell ref="AI2:AL5"/>
+    <mergeCell ref="A377:G377"/>
+    <mergeCell ref="A378:G378"/>
+    <mergeCell ref="A356:G356"/>
+    <mergeCell ref="A357:G357"/>
+    <mergeCell ref="A358:A359"/>
+    <mergeCell ref="B358:B359"/>
+    <mergeCell ref="C358:C359"/>
+    <mergeCell ref="F358:F359"/>
+    <mergeCell ref="A335:G335"/>
+    <mergeCell ref="A336:G336"/>
+    <mergeCell ref="A337:A338"/>
+    <mergeCell ref="B337:B338"/>
+    <mergeCell ref="C337:C338"/>
+    <mergeCell ref="F337:F338"/>
+    <mergeCell ref="A314:G314"/>
+    <mergeCell ref="A315:G315"/>
+    <mergeCell ref="A316:A317"/>
+    <mergeCell ref="B316:B317"/>
+    <mergeCell ref="C316:C317"/>
+    <mergeCell ref="F316:F317"/>
+    <mergeCell ref="A293:G293"/>
+    <mergeCell ref="A294:G294"/>
+    <mergeCell ref="A295:A296"/>
+    <mergeCell ref="B295:B296"/>
+    <mergeCell ref="C295:C296"/>
+    <mergeCell ref="F295:F296"/>
+    <mergeCell ref="A272:G272"/>
+    <mergeCell ref="A273:G273"/>
+    <mergeCell ref="A274:A275"/>
+    <mergeCell ref="B274:B275"/>
+    <mergeCell ref="C274:C275"/>
+    <mergeCell ref="F274:F275"/>
+    <mergeCell ref="A251:G251"/>
+    <mergeCell ref="A252:G252"/>
+    <mergeCell ref="A253:A254"/>
+    <mergeCell ref="B253:B254"/>
+    <mergeCell ref="C253:C254"/>
+    <mergeCell ref="F253:F254"/>
+    <mergeCell ref="A230:G230"/>
+    <mergeCell ref="A231:G231"/>
+    <mergeCell ref="A232:A233"/>
+    <mergeCell ref="B232:B233"/>
+    <mergeCell ref="C232:C233"/>
+    <mergeCell ref="F232:F233"/>
+    <mergeCell ref="A209:G209"/>
+    <mergeCell ref="A210:G210"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="C211:C212"/>
+    <mergeCell ref="F211:F212"/>
+    <mergeCell ref="A188:G188"/>
+    <mergeCell ref="A189:G189"/>
+    <mergeCell ref="A190:A191"/>
+    <mergeCell ref="B190:B191"/>
+    <mergeCell ref="C190:C191"/>
+    <mergeCell ref="F190:F191"/>
+    <mergeCell ref="A167:G167"/>
+    <mergeCell ref="A168:G168"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="C169:C170"/>
+    <mergeCell ref="F169:F170"/>
+    <mergeCell ref="A146:G146"/>
+    <mergeCell ref="A147:G147"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="F148:F149"/>
+    <mergeCell ref="A125:G125"/>
+    <mergeCell ref="A126:G126"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="F127:F128"/>
+    <mergeCell ref="A104:G104"/>
+    <mergeCell ref="A105:G105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="F106:F107"/>
     <mergeCell ref="A83:G83"/>
     <mergeCell ref="A84:G84"/>
     <mergeCell ref="A85:A86"/>
@@ -42934,87 +43937,6 @@
     <mergeCell ref="B43:B44"/>
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A125:G125"/>
-    <mergeCell ref="A126:G126"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="F127:F128"/>
-    <mergeCell ref="A104:G104"/>
-    <mergeCell ref="A105:G105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="A167:G167"/>
-    <mergeCell ref="A168:G168"/>
-    <mergeCell ref="A169:A170"/>
-    <mergeCell ref="B169:B170"/>
-    <mergeCell ref="C169:C170"/>
-    <mergeCell ref="F169:F170"/>
-    <mergeCell ref="A146:G146"/>
-    <mergeCell ref="A147:G147"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="F148:F149"/>
-    <mergeCell ref="A209:G209"/>
-    <mergeCell ref="A210:G210"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="B211:B212"/>
-    <mergeCell ref="C211:C212"/>
-    <mergeCell ref="F211:F212"/>
-    <mergeCell ref="A188:G188"/>
-    <mergeCell ref="A189:G189"/>
-    <mergeCell ref="A190:A191"/>
-    <mergeCell ref="B190:B191"/>
-    <mergeCell ref="C190:C191"/>
-    <mergeCell ref="F190:F191"/>
-    <mergeCell ref="A251:G251"/>
-    <mergeCell ref="A252:G252"/>
-    <mergeCell ref="A253:A254"/>
-    <mergeCell ref="B253:B254"/>
-    <mergeCell ref="C253:C254"/>
-    <mergeCell ref="F253:F254"/>
-    <mergeCell ref="A230:G230"/>
-    <mergeCell ref="A231:G231"/>
-    <mergeCell ref="A232:A233"/>
-    <mergeCell ref="B232:B233"/>
-    <mergeCell ref="C232:C233"/>
-    <mergeCell ref="F232:F233"/>
-    <mergeCell ref="B295:B296"/>
-    <mergeCell ref="C295:C296"/>
-    <mergeCell ref="F295:F296"/>
-    <mergeCell ref="A272:G272"/>
-    <mergeCell ref="A273:G273"/>
-    <mergeCell ref="A274:A275"/>
-    <mergeCell ref="B274:B275"/>
-    <mergeCell ref="C274:C275"/>
-    <mergeCell ref="F274:F275"/>
-    <mergeCell ref="AI2:AL5"/>
-    <mergeCell ref="A377:G377"/>
-    <mergeCell ref="A378:G378"/>
-    <mergeCell ref="A356:G356"/>
-    <mergeCell ref="A357:G357"/>
-    <mergeCell ref="A358:A359"/>
-    <mergeCell ref="B358:B359"/>
-    <mergeCell ref="C358:C359"/>
-    <mergeCell ref="F358:F359"/>
-    <mergeCell ref="A335:G335"/>
-    <mergeCell ref="A336:G336"/>
-    <mergeCell ref="A337:A338"/>
-    <mergeCell ref="B337:B338"/>
-    <mergeCell ref="C337:C338"/>
-    <mergeCell ref="F337:F338"/>
-    <mergeCell ref="A314:G314"/>
-    <mergeCell ref="A315:G315"/>
-    <mergeCell ref="A316:A317"/>
-    <mergeCell ref="B316:B317"/>
-    <mergeCell ref="C316:C317"/>
-    <mergeCell ref="F316:F317"/>
-    <mergeCell ref="A293:G293"/>
-    <mergeCell ref="A294:G294"/>
-    <mergeCell ref="A295:A296"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -43025,25 +43947,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC872E6-AE5E-452E-A1E8-BE369046D2A9}">
   <dimension ref="A1:AQ42"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="15.7"/>
   <cols>
-    <col min="1" max="1" width="52.21875" style="252" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="252" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="252" customWidth="1"/>
+    <col min="1" max="1" width="52.234375" style="252" customWidth="1"/>
+    <col min="2" max="2" width="19.41015625" style="252" customWidth="1"/>
+    <col min="3" max="3" width="10.1171875" style="252" customWidth="1"/>
     <col min="4" max="4" width="10" style="252" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.109375" style="252" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.1171875" style="252" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="252" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" style="252" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="252" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" style="252" bestFit="1" customWidth="1"/>
-    <col min="11" max="22" width="11.6640625" style="252" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="37.21875" style="252" customWidth="1"/>
-    <col min="24" max="39" width="14.44140625" style="252" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="8.88671875" style="252"/>
+    <col min="8" max="8" width="10.1171875" style="252" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.64453125" style="252" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1171875" style="252" bestFit="1" customWidth="1"/>
+    <col min="11" max="22" width="11.64453125" style="252" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="37.234375" style="252" customWidth="1"/>
+    <col min="24" max="39" width="14.41015625" style="252" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="8.87890625" style="252"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43">
@@ -43975,31 +44897,31 @@
       <c r="R11" s="262"/>
       <c r="S11" s="262"/>
     </row>
-    <row r="12" spans="1:43" ht="21">
-      <c r="A12" s="669" t="s">
+    <row r="12" spans="1:43" ht="20.7">
+      <c r="A12" s="671" t="s">
         <v>561</v>
       </c>
-      <c r="B12" s="669"/>
-      <c r="C12" s="669"/>
-      <c r="D12" s="669"/>
-      <c r="E12" s="669"/>
-      <c r="F12" s="669"/>
-      <c r="G12" s="669"/>
-      <c r="H12" s="669"/>
-      <c r="I12" s="669"/>
-      <c r="J12" s="669"/>
-      <c r="K12" s="669"/>
-      <c r="L12" s="669"/>
-      <c r="M12" s="669"/>
-      <c r="N12" s="669"/>
-      <c r="O12" s="669"/>
-      <c r="P12" s="669"/>
-      <c r="Q12" s="669"/>
-      <c r="R12" s="669"/>
-      <c r="S12" s="669"/>
-      <c r="T12" s="669"/>
-      <c r="U12" s="669"/>
-      <c r="V12" s="669"/>
+      <c r="B12" s="671"/>
+      <c r="C12" s="671"/>
+      <c r="D12" s="671"/>
+      <c r="E12" s="671"/>
+      <c r="F12" s="671"/>
+      <c r="G12" s="671"/>
+      <c r="H12" s="671"/>
+      <c r="I12" s="671"/>
+      <c r="J12" s="671"/>
+      <c r="K12" s="671"/>
+      <c r="L12" s="671"/>
+      <c r="M12" s="671"/>
+      <c r="N12" s="671"/>
+      <c r="O12" s="671"/>
+      <c r="P12" s="671"/>
+      <c r="Q12" s="671"/>
+      <c r="R12" s="671"/>
+      <c r="S12" s="671"/>
+      <c r="T12" s="671"/>
+      <c r="U12" s="671"/>
+      <c r="V12" s="671"/>
       <c r="W12" s="255"/>
       <c r="X12" s="254"/>
       <c r="Y12" s="254"/>
@@ -44020,7 +44942,7 @@
       <c r="AN12" s="254"/>
       <c r="AO12" s="254"/>
     </row>
-    <row r="13" spans="1:43" ht="16.2" thickBot="1">
+    <row r="13" spans="1:43" ht="16" thickBot="1">
       <c r="B13" s="346">
         <v>1999</v>
       </c>
@@ -44097,7 +45019,7 @@
       <c r="AN13" s="256"/>
       <c r="AO13" s="256"/>
     </row>
-    <row r="14" spans="1:43" ht="31.8" thickBot="1">
+    <row r="14" spans="1:43" ht="31.7" thickBot="1">
       <c r="A14" s="370" t="s">
         <v>562</v>
       </c>
@@ -44223,7 +45145,7 @@
       <c r="AM16" s="257"/>
       <c r="AN16" s="257"/>
     </row>
-    <row r="17" spans="1:41" ht="16.2" thickBot="1">
+    <row r="17" spans="1:41" ht="16" thickBot="1">
       <c r="W17" s="252" t="s">
         <v>564</v>
       </c>
@@ -44498,7 +45420,7 @@
         <v>0.26771400000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:41" ht="16.2" thickBot="1">
+    <row r="21" spans="1:41" ht="16" thickBot="1">
       <c r="A21" s="365" t="s">
         <v>568</v>
       </c>
@@ -44686,12 +45608,12 @@
         <v>571</v>
       </c>
     </row>
-    <row r="23" spans="1:41" ht="16.2" thickBot="1">
+    <row r="23" spans="1:41" ht="16" thickBot="1">
       <c r="A23" s="259"/>
       <c r="W23" s="255"/>
       <c r="X23" s="377"/>
     </row>
-    <row r="24" spans="1:41" ht="33" thickBot="1">
+    <row r="24" spans="1:41" ht="32.700000000000003" thickBot="1">
       <c r="A24" s="351" t="s">
         <v>572</v>
       </c>
@@ -44781,7 +45703,7 @@
       <c r="S25" s="355"/>
       <c r="T25" s="355"/>
     </row>
-    <row r="26" spans="1:41" ht="31.2">
+    <row r="26" spans="1:41" ht="31.35">
       <c r="A26" s="363" t="s">
         <v>573</v>
       </c>
@@ -45116,7 +46038,7 @@
         <v>66397.666184171685</v>
       </c>
     </row>
-    <row r="30" spans="1:41" ht="16.2" thickBot="1">
+    <row r="30" spans="1:41" ht="16" thickBot="1">
       <c r="A30" s="360" t="s">
         <v>41</v>
       </c>
@@ -45226,7 +46148,7 @@
       <c r="U31" s="253"/>
       <c r="V31" s="253"/>
     </row>
-    <row r="32" spans="1:41" ht="31.2">
+    <row r="32" spans="1:41" ht="31.35">
       <c r="A32" s="363" t="s">
         <v>575</v>
       </c>
@@ -45472,7 +46394,7 @@
         <v>832913.11656914616</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="16.2" thickBot="1">
+    <row r="35" spans="1:22" ht="16" thickBot="1">
       <c r="A35" s="367" t="s">
         <v>578</v>
       </c>
@@ -45567,7 +46489,7 @@
       </c>
     </row>
     <row r="37" spans="1:22" ht="15.6" customHeight="1" thickBot="1"/>
-    <row r="38" spans="1:22" ht="31.2">
+    <row r="38" spans="1:22" ht="31.35">
       <c r="A38" s="363" t="s">
         <v>579</v>
       </c>
@@ -45705,7 +46627,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="16.2" thickBot="1">
+    <row r="41" spans="1:22" ht="16" thickBot="1">
       <c r="A41" s="367" t="s">
         <v>582</v>
       </c>
@@ -45770,69 +46692,69 @@
   <dimension ref="A1:AN87"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="S12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AQ52" sqref="AQ52"/>
+      <selection pane="bottomRight" activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14.35"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="49" customWidth="1"/>
-    <col min="2" max="4" width="16.44140625" style="49" hidden="1" customWidth="1"/>
-    <col min="5" max="15" width="16.44140625" hidden="1" customWidth="1"/>
-    <col min="16" max="21" width="16.44140625" customWidth="1"/>
-    <col min="22" max="22" width="17.88671875" customWidth="1"/>
-    <col min="23" max="23" width="19.21875" customWidth="1"/>
-    <col min="24" max="24" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="25" max="29" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.21875" customWidth="1"/>
-    <col min="31" max="33" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.88671875" customWidth="1"/>
-    <col min="36" max="36" width="31.109375" customWidth="1"/>
-    <col min="37" max="37" width="21.21875" customWidth="1"/>
+    <col min="1" max="1" width="25.64453125" style="49" customWidth="1"/>
+    <col min="2" max="4" width="16.41015625" style="49" hidden="1" customWidth="1"/>
+    <col min="5" max="15" width="16.41015625" hidden="1" customWidth="1"/>
+    <col min="16" max="21" width="16.41015625" customWidth="1"/>
+    <col min="22" max="22" width="17.87890625" customWidth="1"/>
+    <col min="23" max="23" width="19.234375" customWidth="1"/>
+    <col min="24" max="24" width="16.234375" bestFit="1" customWidth="1"/>
+    <col min="25" max="29" width="13.1171875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.234375" customWidth="1"/>
+    <col min="31" max="33" width="13.1171875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.52734375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.87890625" customWidth="1"/>
+    <col min="36" max="36" width="31.1171875" customWidth="1"/>
+    <col min="37" max="37" width="21.234375" customWidth="1"/>
     <col min="38" max="38" width="22" customWidth="1"/>
-    <col min="39" max="39" width="12.6640625" customWidth="1"/>
+    <col min="39" max="39" width="12.64453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="50.1" customHeight="1">
-      <c r="A1" s="655" t="s">
+      <c r="A1" s="657" t="s">
         <v>584</v>
       </c>
-      <c r="B1" s="655"/>
-      <c r="C1" s="655"/>
-      <c r="D1" s="655"/>
-      <c r="E1" s="655"/>
-      <c r="F1" s="655"/>
-      <c r="G1" s="655"/>
-      <c r="H1" s="655"/>
-      <c r="I1" s="655"/>
-      <c r="J1" s="655"/>
-      <c r="K1" s="655"/>
-      <c r="L1" s="655"/>
-      <c r="M1" s="655"/>
-      <c r="N1" s="655"/>
-      <c r="O1" s="655"/>
-      <c r="P1" s="655"/>
-      <c r="Q1" s="655"/>
-      <c r="R1" s="655"/>
-      <c r="S1" s="655"/>
-      <c r="T1" s="655"/>
-      <c r="U1" s="655"/>
-      <c r="V1" s="655"/>
-      <c r="W1" s="655"/>
-      <c r="X1" s="655"/>
-      <c r="Y1" s="655"/>
-      <c r="Z1" s="655"/>
-      <c r="AA1" s="655"/>
-      <c r="AB1" s="655"/>
-      <c r="AC1" s="655"/>
-      <c r="AD1" s="655"/>
-      <c r="AE1" s="655"/>
-      <c r="AF1" s="655"/>
-      <c r="AG1" s="655"/>
-      <c r="AH1" s="655"/>
+      <c r="B1" s="657"/>
+      <c r="C1" s="657"/>
+      <c r="D1" s="657"/>
+      <c r="E1" s="657"/>
+      <c r="F1" s="657"/>
+      <c r="G1" s="657"/>
+      <c r="H1" s="657"/>
+      <c r="I1" s="657"/>
+      <c r="J1" s="657"/>
+      <c r="K1" s="657"/>
+      <c r="L1" s="657"/>
+      <c r="M1" s="657"/>
+      <c r="N1" s="657"/>
+      <c r="O1" s="657"/>
+      <c r="P1" s="657"/>
+      <c r="Q1" s="657"/>
+      <c r="R1" s="657"/>
+      <c r="S1" s="657"/>
+      <c r="T1" s="657"/>
+      <c r="U1" s="657"/>
+      <c r="V1" s="657"/>
+      <c r="W1" s="657"/>
+      <c r="X1" s="657"/>
+      <c r="Y1" s="657"/>
+      <c r="Z1" s="657"/>
+      <c r="AA1" s="657"/>
+      <c r="AB1" s="657"/>
+      <c r="AC1" s="657"/>
+      <c r="AD1" s="657"/>
+      <c r="AE1" s="657"/>
+      <c r="AF1" s="657"/>
+      <c r="AG1" s="657"/>
+      <c r="AH1" s="657"/>
     </row>
     <row r="2" spans="1:40" ht="25.95" customHeight="1">
       <c r="AI2" s="39"/>
@@ -45840,7 +46762,7 @@
     <row r="3" spans="1:40">
       <c r="AI3" s="39"/>
     </row>
-    <row r="4" spans="1:40" ht="15" thickBot="1"/>
+    <row r="4" spans="1:40" ht="14.7" thickBot="1"/>
     <row r="5" spans="1:40">
       <c r="A5" s="294"/>
       <c r="B5" s="417">
@@ -46160,7 +47082,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="15" thickBot="1"/>
+    <row r="10" spans="1:40" ht="14.7" thickBot="1"/>
     <row r="11" spans="1:40">
       <c r="A11" s="497" t="s">
         <v>588</v>
@@ -46265,7 +47187,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="28.8">
+    <row r="12" spans="1:40" ht="28.7">
       <c r="A12" s="295" t="str">
         <f>'Methadone NSSATS'!A3</f>
         <v>Tx point patients OTP MMT NSSATS</v>
@@ -46354,12 +47276,12 @@
         <f>'Methadone NSSATS'!V3</f>
         <v>408550</v>
       </c>
-      <c r="W12" s="648">
-        <f>'Methadone NSSATS'!W3</f>
-        <v>311531</v>
+      <c r="W12" s="306">
+        <f t="shared" ref="W12:AH12" si="1">$W$13*LN(W15)+$W$14</f>
+        <v>419851.13076559408</v>
       </c>
       <c r="X12" s="306">
-        <f t="shared" ref="X12:AH12" si="1">$W$13*LN(X15)+$W$14</f>
+        <f t="shared" si="1"/>
         <v>428063.80529137771</v>
       </c>
       <c r="Y12" s="306">
@@ -46443,7 +47365,7 @@
       <c r="AG14" s="303"/>
       <c r="AH14" s="304"/>
     </row>
-    <row r="15" spans="1:40" ht="43.2">
+    <row r="15" spans="1:40" ht="43">
       <c r="A15" s="295"/>
       <c r="V15" s="313" t="s">
         <v>589</v>
@@ -46486,7 +47408,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="18.600000000000001" thickBot="1">
+    <row r="16" spans="1:40" ht="18.350000000000001" thickBot="1">
       <c r="A16" s="296"/>
       <c r="B16" s="499"/>
       <c r="C16" s="499"/>
@@ -46529,7 +47451,7 @@
       <c r="AG16" s="310"/>
       <c r="AH16" s="311"/>
     </row>
-    <row r="17" spans="1:34" ht="15" thickBot="1"/>
+    <row r="17" spans="1:34" ht="14.7" thickBot="1"/>
     <row r="18" spans="1:34">
       <c r="A18" s="497" t="s">
         <v>591</v>
@@ -46634,7 +47556,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="28.8">
+    <row r="19" spans="1:34" ht="28.7">
       <c r="A19" s="295" t="s">
         <v>20</v>
       </c>
@@ -46722,12 +47644,12 @@
         <f>'Methadone NSSATS'!V3</f>
         <v>408550</v>
       </c>
-      <c r="W19" s="648">
-        <f>'Methadone NSSATS'!W3</f>
-        <v>311531</v>
+      <c r="W19" s="303">
+        <f t="shared" ref="W19:AH19" si="2">($W$20*W22)+$W$21</f>
+        <v>421394</v>
       </c>
       <c r="X19" s="303">
-        <f t="shared" ref="X19:AH19" si="2">($W$20*X22)+$W$21</f>
+        <f t="shared" si="2"/>
         <v>434236</v>
       </c>
       <c r="Y19" s="303">
@@ -46811,7 +47733,7 @@
       <c r="AG21" s="303"/>
       <c r="AH21" s="304"/>
     </row>
-    <row r="22" spans="1:34" ht="43.2">
+    <row r="22" spans="1:34" ht="43">
       <c r="A22" s="295"/>
       <c r="V22" s="313" t="s">
         <v>592</v>
@@ -46854,7 +47776,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:34" ht="18.600000000000001" thickBot="1">
+    <row r="23" spans="1:34" ht="18.350000000000001" thickBot="1">
       <c r="A23" s="296"/>
       <c r="B23" s="499"/>
       <c r="C23" s="499"/>
@@ -46897,7 +47819,7 @@
       <c r="AG23" s="310"/>
       <c r="AH23" s="311"/>
     </row>
-    <row r="25" spans="1:34" ht="15" thickBot="1"/>
+    <row r="25" spans="1:34" ht="14.7" thickBot="1"/>
     <row r="26" spans="1:34">
       <c r="A26" s="294"/>
       <c r="B26" s="417">
@@ -47178,7 +48100,7 @@
       <c r="AG29" s="305"/>
       <c r="AH29" s="309"/>
     </row>
-    <row r="30" spans="1:34" ht="43.2">
+    <row r="30" spans="1:34" ht="43">
       <c r="A30" s="295"/>
       <c r="V30" s="313" t="s">
         <v>592</v>
@@ -47221,7 +48143,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:34" ht="18.600000000000001" thickBot="1">
+    <row r="31" spans="1:34" ht="18.350000000000001" thickBot="1">
       <c r="A31" s="296"/>
       <c r="B31" s="499"/>
       <c r="C31" s="499"/>
@@ -47269,7 +48191,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="33" spans="1:34" ht="15" thickBot="1"/>
+    <row r="33" spans="1:34" ht="14.7" thickBot="1"/>
     <row r="34" spans="1:34">
       <c r="A34" s="294"/>
       <c r="B34" s="417">
@@ -47590,7 +48512,7 @@
       <c r="AG37" s="583"/>
       <c r="AH37" s="315"/>
     </row>
-    <row r="38" spans="1:34" ht="29.4" thickBot="1">
+    <row r="38" spans="1:34" ht="29" thickBot="1">
       <c r="A38" s="296"/>
       <c r="B38" s="499"/>
       <c r="C38" s="499"/>
@@ -47656,7 +48578,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="40" spans="1:34" ht="15" thickBot="1"/>
+    <row r="40" spans="1:34" ht="14.7" thickBot="1"/>
     <row r="41" spans="1:34">
       <c r="A41" s="294"/>
       <c r="B41" s="417">
@@ -47759,7 +48681,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="42" spans="1:34" ht="29.4">
+    <row r="42" spans="1:34" ht="29.35">
       <c r="A42" s="295" t="str">
         <f>'Opioid Rx Data IQVIA SH'!A57</f>
         <v>Patients receiving opioid prescription IQVIA SH</v>
@@ -47977,7 +48899,7 @@
       <c r="AG44" s="586"/>
       <c r="AH44" s="304"/>
     </row>
-    <row r="45" spans="1:34" ht="43.8" thickBot="1">
+    <row r="45" spans="1:34" ht="43.35" thickBot="1">
       <c r="A45" s="296"/>
       <c r="B45" s="499"/>
       <c r="C45" s="499"/>
@@ -48040,7 +48962,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:34" ht="15" thickBot="1"/>
+    <row r="47" spans="1:34" ht="14.7" thickBot="1"/>
     <row r="48" spans="1:34">
       <c r="A48" s="294"/>
       <c r="B48" s="417">
@@ -48143,8 +49065,8 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="49" spans="1:34" ht="28.8">
-      <c r="A49" s="649" t="str">
+    <row r="49" spans="1:34" ht="28.7">
+      <c r="A49" s="648" t="str">
         <f>'Opioid Rx Data IQVIA SH'!A6</f>
         <v xml:space="preserve">Patients receiving opioid prescription IQVIA </v>
       </c>
@@ -48361,7 +49283,7 @@
       <c r="AG51" s="580"/>
       <c r="AH51" s="530"/>
     </row>
-    <row r="52" spans="1:34" ht="43.8" thickBot="1">
+    <row r="52" spans="1:34" ht="43.35" thickBot="1">
       <c r="A52" s="296"/>
       <c r="B52" s="499"/>
       <c r="C52" s="499"/>
@@ -48424,7 +49346,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:34" ht="15" thickBot="1"/>
+    <row r="53" spans="1:34" ht="14.7" thickBot="1"/>
     <row r="54" spans="1:34">
       <c r="A54" s="294"/>
       <c r="B54" s="417">
@@ -48744,7 +49666,7 @@
       <c r="AG57" s="586"/>
       <c r="AH57" s="304"/>
     </row>
-    <row r="58" spans="1:34" ht="29.4" thickBot="1">
+    <row r="58" spans="1:34" ht="29" thickBot="1">
       <c r="A58" s="296"/>
       <c r="B58" s="499"/>
       <c r="C58" s="499"/>
@@ -48840,7 +49762,7 @@
       <c r="AG60" s="299"/>
       <c r="AH60" s="283"/>
     </row>
-    <row r="61" spans="1:34" ht="21.6">
+    <row r="61" spans="1:34" ht="21">
       <c r="V61" s="49"/>
       <c r="W61" s="283"/>
       <c r="X61" s="283"/>
@@ -48859,7 +49781,7 @@
       <c r="AG61" s="299"/>
       <c r="AH61" s="283"/>
     </row>
-    <row r="62" spans="1:34" ht="18.600000000000001" thickBot="1">
+    <row r="62" spans="1:34" ht="18.350000000000001" thickBot="1">
       <c r="W62" s="283"/>
       <c r="X62" s="283"/>
       <c r="Y62" s="283"/>
@@ -49159,7 +50081,7 @@
       <c r="AG67" s="283"/>
       <c r="AH67" s="283"/>
     </row>
-    <row r="68" spans="1:34" ht="15" thickBot="1">
+    <row r="68" spans="1:34" ht="14.7" thickBot="1">
       <c r="W68" s="283"/>
       <c r="X68" s="283"/>
       <c r="Y68" s="283"/>
@@ -49492,7 +50414,7 @@
       <c r="AG72" s="590"/>
       <c r="AH72" s="309"/>
     </row>
-    <row r="73" spans="1:34" ht="29.4" thickBot="1">
+    <row r="73" spans="1:34" ht="29" thickBot="1">
       <c r="A73" s="296"/>
       <c r="B73" s="499"/>
       <c r="C73" s="499"/>
@@ -49553,7 +50475,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:34" ht="15" thickBot="1"/>
+    <row r="75" spans="1:34" ht="14.7" thickBot="1"/>
     <row r="76" spans="1:34">
       <c r="A76" s="294"/>
       <c r="B76" s="417">
@@ -49873,7 +50795,7 @@
       <c r="AG79" s="590"/>
       <c r="AH79" s="309"/>
     </row>
-    <row r="80" spans="1:34" ht="29.4" thickBot="1">
+    <row r="80" spans="1:34" ht="29" thickBot="1">
       <c r="A80" s="296"/>
       <c r="B80" s="499"/>
       <c r="C80" s="499"/>
@@ -49934,7 +50856,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:34" ht="15" thickBot="1"/>
+    <row r="82" spans="1:34" ht="14.7" thickBot="1"/>
     <row r="83" spans="1:34">
       <c r="A83" s="294"/>
       <c r="B83" s="417">
@@ -50037,7 +50959,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="84" spans="1:34" ht="29.4">
+    <row r="84" spans="1:34" ht="29.35">
       <c r="A84" s="295" t="s">
         <v>12</v>
       </c>
@@ -50254,7 +51176,7 @@
       <c r="AG86" s="586"/>
       <c r="AH86" s="304"/>
     </row>
-    <row r="87" spans="1:34" ht="29.4" thickBot="1">
+    <row r="87" spans="1:34" ht="29" thickBot="1">
       <c r="A87" s="296"/>
       <c r="B87" s="499"/>
       <c r="C87" s="499"/>
@@ -50336,19 +51258,19 @@
       <selection activeCell="U35" sqref="U35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14.35"/>
   <cols>
-    <col min="1" max="1" width="33.109375" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.1171875" customWidth="1"/>
+    <col min="2" max="2" width="14.234375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" style="49" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="21" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.44140625" customWidth="1"/>
-    <col min="23" max="23" width="22.21875" customWidth="1"/>
+    <col min="4" max="4" width="11.41015625" customWidth="1"/>
+    <col min="5" max="5" width="13.41015625" customWidth="1"/>
+    <col min="6" max="6" width="13.87890625" style="49" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.87890625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.1171875" bestFit="1" customWidth="1"/>
+    <col min="10" max="21" width="14.1171875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.41015625" customWidth="1"/>
+    <col min="23" max="23" width="22.234375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="15.6" customHeight="1">
@@ -50415,21 +51337,21 @@
       <c r="V1" s="162">
         <v>2019</v>
       </c>
-      <c r="W1" s="660" t="s">
+      <c r="W1" s="662" t="s">
         <v>68</v>
       </c>
-      <c r="X1" s="651" t="s">
+      <c r="X1" s="653" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" s="652"/>
-      <c r="Z1" s="652"/>
-      <c r="AA1" s="652"/>
-      <c r="AB1" s="652"/>
-      <c r="AC1" s="652"/>
-      <c r="AD1" s="652"/>
-      <c r="AE1" s="652"/>
-      <c r="AF1" s="652"/>
-      <c r="AG1" s="653"/>
+      <c r="Y1" s="654"/>
+      <c r="Z1" s="654"/>
+      <c r="AA1" s="654"/>
+      <c r="AB1" s="654"/>
+      <c r="AC1" s="654"/>
+      <c r="AD1" s="654"/>
+      <c r="AE1" s="654"/>
+      <c r="AF1" s="654"/>
+      <c r="AG1" s="655"/>
     </row>
     <row r="2" spans="1:33" ht="15" customHeight="1">
       <c r="A2" s="26" t="s">
@@ -50519,17 +51441,17 @@
         <f>U12</f>
         <v>0.54408739565454922</v>
       </c>
-      <c r="W2" s="660"/>
-      <c r="X2" s="654"/>
-      <c r="Y2" s="655"/>
-      <c r="Z2" s="655"/>
-      <c r="AA2" s="655"/>
-      <c r="AB2" s="655"/>
-      <c r="AC2" s="655"/>
-      <c r="AD2" s="655"/>
-      <c r="AE2" s="655"/>
-      <c r="AF2" s="655"/>
-      <c r="AG2" s="656"/>
+      <c r="W2" s="662"/>
+      <c r="X2" s="656"/>
+      <c r="Y2" s="657"/>
+      <c r="Z2" s="657"/>
+      <c r="AA2" s="657"/>
+      <c r="AB2" s="657"/>
+      <c r="AC2" s="657"/>
+      <c r="AD2" s="657"/>
+      <c r="AE2" s="657"/>
+      <c r="AF2" s="657"/>
+      <c r="AG2" s="658"/>
     </row>
     <row r="3" spans="1:33" ht="14.85" customHeight="1">
       <c r="A3" s="168" t="s">
@@ -50576,17 +51498,17 @@
       <c r="V3" s="277">
         <v>0.76687717099999997</v>
       </c>
-      <c r="W3" s="660"/>
-      <c r="X3" s="654"/>
-      <c r="Y3" s="655"/>
-      <c r="Z3" s="655"/>
-      <c r="AA3" s="655"/>
-      <c r="AB3" s="655"/>
-      <c r="AC3" s="655"/>
-      <c r="AD3" s="655"/>
-      <c r="AE3" s="655"/>
-      <c r="AF3" s="655"/>
-      <c r="AG3" s="656"/>
+      <c r="W3" s="662"/>
+      <c r="X3" s="656"/>
+      <c r="Y3" s="657"/>
+      <c r="Z3" s="657"/>
+      <c r="AA3" s="657"/>
+      <c r="AB3" s="657"/>
+      <c r="AC3" s="657"/>
+      <c r="AD3" s="657"/>
+      <c r="AE3" s="657"/>
+      <c r="AF3" s="657"/>
+      <c r="AG3" s="658"/>
     </row>
     <row r="4" spans="1:33">
       <c r="A4" s="30"/>
@@ -50595,19 +51517,19 @@
       <c r="D4" s="30"/>
       <c r="F4"/>
       <c r="V4" s="49"/>
-      <c r="W4" s="660"/>
-      <c r="X4" s="657"/>
-      <c r="Y4" s="658"/>
-      <c r="Z4" s="658"/>
-      <c r="AA4" s="658"/>
-      <c r="AB4" s="658"/>
-      <c r="AC4" s="658"/>
-      <c r="AD4" s="658"/>
-      <c r="AE4" s="658"/>
-      <c r="AF4" s="658"/>
-      <c r="AG4" s="659"/>
-    </row>
-    <row r="5" spans="1:33" s="49" customFormat="1" ht="60.6">
+      <c r="W4" s="662"/>
+      <c r="X4" s="659"/>
+      <c r="Y4" s="660"/>
+      <c r="Z4" s="660"/>
+      <c r="AA4" s="660"/>
+      <c r="AB4" s="660"/>
+      <c r="AC4" s="660"/>
+      <c r="AD4" s="660"/>
+      <c r="AE4" s="660"/>
+      <c r="AF4" s="660"/>
+      <c r="AG4" s="661"/>
+    </row>
+    <row r="5" spans="1:33" s="49" customFormat="1" ht="60.35">
       <c r="A5" s="162" t="s">
         <v>71</v>
       </c>
@@ -50680,7 +51602,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="55.8">
+    <row r="6" spans="1:33" ht="41.7">
       <c r="A6" s="400" t="s">
         <v>74</v>
       </c>
@@ -50741,7 +51663,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="28.2">
+    <row r="7" spans="1:33">
       <c r="A7" s="401" t="s">
         <v>77</v>
       </c>
@@ -50872,7 +51794,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="28.2">
+    <row r="9" spans="1:33" ht="28">
       <c r="A9" s="401" t="s">
         <v>82</v>
       </c>
@@ -50939,7 +51861,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:33" ht="28.2">
+    <row r="10" spans="1:33" ht="28">
       <c r="A10" s="400" t="s">
         <v>84</v>
       </c>
@@ -51028,7 +51950,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:33" ht="28.2">
+    <row r="11" spans="1:33" ht="28">
       <c r="A11" s="401" t="s">
         <v>86</v>
       </c>
@@ -51119,7 +52041,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:33" ht="28.2">
+    <row r="12" spans="1:33" ht="28">
       <c r="A12" s="401" t="s">
         <v>88</v>
       </c>
@@ -51225,17 +52147,17 @@
       <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14.35"/>
   <cols>
-    <col min="1" max="1" width="50.109375" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="50.1171875" customWidth="1"/>
+    <col min="2" max="2" width="10.41015625" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
-    <col min="5" max="6" width="11.88671875" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.41015625" customWidth="1"/>
+    <col min="5" max="6" width="11.87890625" customWidth="1"/>
+    <col min="7" max="7" width="9.41015625" bestFit="1" customWidth="1"/>
     <col min="8" max="15" width="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" customWidth="1"/>
-    <col min="17" max="23" width="13.109375" customWidth="1"/>
+    <col min="16" max="16" width="11.64453125" customWidth="1"/>
+    <col min="17" max="23" width="13.1171875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="73.349999999999994" customHeight="1">
@@ -51474,33 +52396,33 @@
       <c r="V6" s="32"/>
     </row>
     <row r="7" spans="1:23" ht="56.85" customHeight="1">
-      <c r="A7" s="662" t="s">
+      <c r="A7" s="664" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="662"/>
-      <c r="C7" s="662"/>
-      <c r="D7" s="662"/>
-      <c r="E7" s="662"/>
-      <c r="F7" s="662"/>
-      <c r="G7" s="662"/>
-      <c r="H7" s="662"/>
-      <c r="I7" s="662"/>
-      <c r="J7" s="662"/>
-      <c r="K7" s="662"/>
-      <c r="L7" s="662"/>
-      <c r="M7" s="662"/>
-      <c r="N7" s="662"/>
-      <c r="O7" s="662"/>
+      <c r="B7" s="664"/>
+      <c r="C7" s="664"/>
+      <c r="D7" s="664"/>
+      <c r="E7" s="664"/>
+      <c r="F7" s="664"/>
+      <c r="G7" s="664"/>
+      <c r="H7" s="664"/>
+      <c r="I7" s="664"/>
+      <c r="J7" s="664"/>
+      <c r="K7" s="664"/>
+      <c r="L7" s="664"/>
+      <c r="M7" s="664"/>
+      <c r="N7" s="664"/>
+      <c r="O7" s="664"/>
       <c r="V7" s="31"/>
     </row>
     <row r="8" spans="1:23" ht="14.85" customHeight="1">
-      <c r="W8" s="661"/>
+      <c r="W8" s="663"/>
     </row>
     <row r="9" spans="1:23">
-      <c r="W9" s="661"/>
+      <c r="W9" s="663"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="W10" s="661"/>
+      <c r="W10" s="663"/>
     </row>
     <row r="14" spans="1:23">
       <c r="F14" s="21"/>
@@ -51607,20 +52529,20 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14.35"/>
   <cols>
     <col min="1" max="1" width="80" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="17" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.44140625" customWidth="1"/>
-    <col min="19" max="19" width="13.44140625" customWidth="1"/>
-    <col min="20" max="20" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="17" width="11.41015625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.41015625" customWidth="1"/>
+    <col min="19" max="19" width="13.41015625" customWidth="1"/>
+    <col min="20" max="20" width="11.41015625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.41015625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="16" customWidth="1"/>
-    <col min="23" max="23" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.44140625" customWidth="1"/>
-    <col min="25" max="31" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.41015625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.41015625" customWidth="1"/>
+    <col min="25" max="31" width="13.87890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="24.6" customHeight="1">
@@ -52056,17 +52978,17 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="82.95" customHeight="1">
-      <c r="A6" s="664" t="s">
+      <c r="A6" s="669" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="664"/>
-      <c r="C6" s="664"/>
-      <c r="D6" s="664"/>
-      <c r="E6" s="664"/>
-      <c r="F6" s="664"/>
-      <c r="G6" s="664"/>
-      <c r="H6" s="664"/>
-      <c r="I6" s="664"/>
+      <c r="B6" s="669"/>
+      <c r="C6" s="669"/>
+      <c r="D6" s="669"/>
+      <c r="E6" s="669"/>
+      <c r="F6" s="669"/>
+      <c r="G6" s="669"/>
+      <c r="H6" s="669"/>
+      <c r="I6" s="669"/>
       <c r="J6" s="38"/>
       <c r="K6" s="38"/>
       <c r="L6" s="38"/>
@@ -52096,7 +53018,7 @@
       <c r="X7" s="498"/>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" s="667" t="s">
+      <c r="A8" s="668" t="s">
         <v>102</v>
       </c>
       <c r="B8" s="666"/>
@@ -52156,7 +53078,7 @@
       </c>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12" s="667" t="s">
+      <c r="A12" s="668" t="s">
         <v>102</v>
       </c>
       <c r="B12" s="666"/>
@@ -52657,10 +53579,10 @@
       <c r="W32" s="31"/>
     </row>
     <row r="33" spans="1:23">
-      <c r="A33" s="663" t="s">
+      <c r="A33" s="667" t="s">
         <v>102</v>
       </c>
-      <c r="B33" s="663"/>
+      <c r="B33" s="667"/>
       <c r="C33" s="28"/>
       <c r="D33" s="28"/>
       <c r="E33" s="28"/>
@@ -52679,10 +53601,10 @@
       <c r="W33" s="31"/>
     </row>
     <row r="34" spans="1:23">
-      <c r="A34" s="663" t="s">
+      <c r="A34" s="667" t="s">
         <v>106</v>
       </c>
-      <c r="B34" s="663"/>
+      <c r="B34" s="667"/>
       <c r="C34" s="28"/>
       <c r="D34" s="28"/>
       <c r="E34" s="28"/>
@@ -52700,10 +53622,10 @@
       <c r="P34" s="22"/>
     </row>
     <row r="35" spans="1:23" ht="34.5" customHeight="1">
-      <c r="A35" s="663" t="s">
+      <c r="A35" s="667" t="s">
         <v>107</v>
       </c>
-      <c r="B35" s="663"/>
+      <c r="B35" s="667"/>
       <c r="C35" s="28"/>
       <c r="D35" s="28"/>
       <c r="E35" s="28"/>
@@ -52774,10 +53696,10 @@
       <c r="W38" s="31"/>
     </row>
     <row r="39" spans="1:23">
-      <c r="A39" s="663" t="s">
+      <c r="A39" s="667" t="s">
         <v>102</v>
       </c>
-      <c r="B39" s="663"/>
+      <c r="B39" s="667"/>
       <c r="C39" s="28"/>
       <c r="D39" s="28"/>
       <c r="E39" s="28"/>
@@ -52800,10 +53722,10 @@
       <c r="W39" s="31"/>
     </row>
     <row r="40" spans="1:23">
-      <c r="A40" s="663" t="s">
+      <c r="A40" s="667" t="s">
         <v>106</v>
       </c>
-      <c r="B40" s="663"/>
+      <c r="B40" s="667"/>
       <c r="C40" s="28"/>
       <c r="D40" s="28"/>
       <c r="E40" s="28"/>
@@ -52825,10 +53747,10 @@
       </c>
     </row>
     <row r="41" spans="1:23" ht="43.5" customHeight="1">
-      <c r="A41" s="663" t="s">
+      <c r="A41" s="667" t="s">
         <v>107</v>
       </c>
-      <c r="B41" s="663"/>
+      <c r="B41" s="667"/>
       <c r="C41" s="28"/>
       <c r="D41" s="28"/>
       <c r="E41" s="28"/>
@@ -52905,10 +53827,10 @@
       </c>
     </row>
     <row r="45" spans="1:23">
-      <c r="A45" s="663" t="s">
+      <c r="A45" s="667" t="s">
         <v>102</v>
       </c>
-      <c r="B45" s="663"/>
+      <c r="B45" s="667"/>
       <c r="C45" s="28"/>
       <c r="D45" s="28"/>
       <c r="E45" s="28"/>
@@ -52936,10 +53858,10 @@
       </c>
     </row>
     <row r="46" spans="1:23">
-      <c r="A46" s="663" t="s">
+      <c r="A46" s="667" t="s">
         <v>106</v>
       </c>
-      <c r="B46" s="663"/>
+      <c r="B46" s="667"/>
       <c r="C46" s="28"/>
       <c r="D46" s="28"/>
       <c r="E46" s="28"/>
@@ -52968,10 +53890,10 @@
       <c r="W46" s="31"/>
     </row>
     <row r="47" spans="1:23" ht="40.5" customHeight="1">
-      <c r="A47" s="663" t="s">
+      <c r="A47" s="667" t="s">
         <v>107</v>
       </c>
-      <c r="B47" s="663"/>
+      <c r="B47" s="667"/>
       <c r="C47" s="28"/>
       <c r="D47" s="28"/>
       <c r="E47" s="28"/>
@@ -54337,6 +55259,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A45:B45"/>
@@ -54345,18 +55279,6 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -54374,28 +55296,28 @@
       <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14.35"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="4" width="17.88671875" customWidth="1"/>
+    <col min="2" max="4" width="17.87890625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="7" width="11.88671875" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" customWidth="1"/>
-    <col min="25" max="25" width="16.88671875" customWidth="1"/>
+    <col min="6" max="7" width="11.87890625" customWidth="1"/>
+    <col min="12" max="12" width="11.64453125" customWidth="1"/>
+    <col min="13" max="13" width="10.41015625" customWidth="1"/>
+    <col min="25" max="25" width="16.87890625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="43.35" customHeight="1">
-      <c r="A1" s="668" t="s">
+      <c r="A1" s="670" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="668"/>
-      <c r="C1" s="668"/>
-      <c r="D1" s="668"/>
-      <c r="E1" s="668"/>
-      <c r="F1" s="668"/>
-      <c r="G1" s="668"/>
-      <c r="H1" s="668"/>
+      <c r="B1" s="670"/>
+      <c r="C1" s="670"/>
+      <c r="D1" s="670"/>
+      <c r="E1" s="670"/>
+      <c r="F1" s="670"/>
+      <c r="G1" s="670"/>
+      <c r="H1" s="670"/>
       <c r="I1" s="30"/>
       <c r="J1" s="30"/>
       <c r="K1" s="30"/>
@@ -54415,7 +55337,7 @@
       <c r="W1" s="30"/>
       <c r="X1" s="30"/>
     </row>
-    <row r="2" spans="1:28" ht="15.6">
+    <row r="2" spans="1:28" ht="15.7">
       <c r="A2" s="59" t="s">
         <v>133</v>
       </c>
@@ -54489,7 +55411,7 @@
       <c r="Y2" s="30"/>
       <c r="Z2" s="30"/>
     </row>
-    <row r="3" spans="1:28" ht="15.6">
+    <row r="3" spans="1:28" ht="15.7">
       <c r="A3" s="146" t="s">
         <v>20</v>
       </c>
@@ -54568,7 +55490,7 @@
       <c r="AA3" s="30"/>
       <c r="AB3" s="30"/>
     </row>
-    <row r="4" spans="1:28" s="49" customFormat="1" ht="72">
+    <row r="4" spans="1:28" s="49" customFormat="1" ht="57.7">
       <c r="A4" s="145"/>
       <c r="B4" s="145" t="s">
         <v>134</v>
@@ -54685,7 +55607,7 @@
       <c r="Y8" s="30"/>
       <c r="Z8" s="30"/>
     </row>
-    <row r="9" spans="1:28" ht="86.4">
+    <row r="9" spans="1:28" ht="71.7">
       <c r="B9" s="145" t="s">
         <v>140</v>
       </c>
@@ -55050,17 +55972,17 @@
       <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.41015625" defaultRowHeight="14.35"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="25.41015625" customWidth="1"/>
+    <col min="2" max="2" width="11.64453125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" customWidth="1"/>
-    <col min="6" max="12" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.87890625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.52734375" customWidth="1"/>
+    <col min="6" max="12" width="5.234375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.41015625" bestFit="1" customWidth="1"/>
     <col min="14" max="17" width="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="23" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="23" width="8.1171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -55131,7 +56053,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="31.2">
+    <row r="2" spans="1:23" ht="15.7">
       <c r="A2" s="150" t="s">
         <v>24</v>
       </c>
@@ -55225,20 +56147,20 @@
       </c>
     </row>
     <row r="4" spans="1:23" ht="65.849999999999994" customHeight="1">
-      <c r="A4" s="669" t="s">
+      <c r="A4" s="671" t="s">
         <v>163</v>
       </c>
-      <c r="B4" s="669"/>
-      <c r="C4" s="669"/>
-      <c r="D4" s="669"/>
-      <c r="E4" s="669"/>
-      <c r="F4" s="669"/>
-      <c r="G4" s="669"/>
-      <c r="H4" s="669"/>
+      <c r="B4" s="671"/>
+      <c r="C4" s="671"/>
+      <c r="D4" s="671"/>
+      <c r="E4" s="671"/>
+      <c r="F4" s="671"/>
+      <c r="G4" s="671"/>
+      <c r="H4" s="671"/>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="670"/>
-      <c r="B5" s="670"/>
+      <c r="A5" s="672"/>
+      <c r="B5" s="672"/>
       <c r="C5" s="637"/>
       <c r="E5" s="49"/>
       <c r="F5" s="23"/>
@@ -55667,7 +56589,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="31.2">
+    <row r="29" spans="1:23" ht="15.7">
       <c r="A29" s="409" t="s">
         <v>24</v>
       </c>
@@ -55858,11 +56780,11 @@
       <c r="R34" s="1"/>
     </row>
     <row r="38" spans="1:18">
-      <c r="A38" s="671" t="s">
+      <c r="A38" s="673" t="s">
         <v>173</v>
       </c>
-      <c r="B38" s="671"/>
-      <c r="C38" s="671"/>
+      <c r="B38" s="673"/>
+      <c r="C38" s="673"/>
     </row>
     <row r="41" spans="1:18" ht="15.6" customHeight="1"/>
     <row r="43" spans="1:18" ht="40.5" customHeight="1"/>
@@ -55886,45 +56808,45 @@
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14.35"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" style="39" customWidth="1"/>
-    <col min="2" max="3" width="17.21875" style="39" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" style="39" customWidth="1"/>
-    <col min="5" max="8" width="17.21875" style="39" customWidth="1"/>
-    <col min="9" max="16" width="17.21875" customWidth="1"/>
-    <col min="17" max="32" width="17.21875" style="39" customWidth="1"/>
-    <col min="33" max="34" width="6.6640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="35" max="37" width="7.6640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.44140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="7.6640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="8.88671875" style="39" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.44140625" style="39" customWidth="1"/>
-    <col min="43" max="53" width="10.88671875" style="39" bestFit="1" customWidth="1"/>
-    <col min="54" max="16384" width="8.88671875" style="39"/>
+    <col min="1" max="1" width="26.41015625" style="39" customWidth="1"/>
+    <col min="2" max="3" width="17.234375" style="39" customWidth="1"/>
+    <col min="4" max="4" width="25.64453125" style="39" customWidth="1"/>
+    <col min="5" max="8" width="17.234375" style="39" customWidth="1"/>
+    <col min="9" max="16" width="17.234375" customWidth="1"/>
+    <col min="17" max="32" width="17.234375" style="39" customWidth="1"/>
+    <col min="33" max="34" width="6.64453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="35" max="37" width="7.64453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.41015625" style="39" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7.64453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="8.87890625" style="39" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.41015625" style="39" customWidth="1"/>
+    <col min="43" max="53" width="10.87890625" style="39" bestFit="1" customWidth="1"/>
+    <col min="54" max="16384" width="8.87890625" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="14.85" customHeight="1">
-      <c r="A1" s="674" t="s">
+      <c r="A1" s="676" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="675"/>
-      <c r="C1" s="675"/>
-      <c r="D1" s="675"/>
-      <c r="E1" s="675"/>
-      <c r="F1" s="675"/>
-      <c r="G1" s="675"/>
-      <c r="H1" s="675"/>
-      <c r="I1" s="675"/>
-      <c r="J1" s="675"/>
-      <c r="K1" s="675"/>
-      <c r="L1" s="675"/>
-      <c r="M1" s="675"/>
-      <c r="N1" s="675"/>
-      <c r="O1" s="675"/>
-      <c r="P1" s="675"/>
-      <c r="Q1" s="675"/>
-      <c r="R1" s="675"/>
+      <c r="B1" s="677"/>
+      <c r="C1" s="677"/>
+      <c r="D1" s="677"/>
+      <c r="E1" s="677"/>
+      <c r="F1" s="677"/>
+      <c r="G1" s="677"/>
+      <c r="H1" s="677"/>
+      <c r="I1" s="677"/>
+      <c r="J1" s="677"/>
+      <c r="K1" s="677"/>
+      <c r="L1" s="677"/>
+      <c r="M1" s="677"/>
+      <c r="N1" s="677"/>
+      <c r="O1" s="677"/>
+      <c r="P1" s="677"/>
+      <c r="Q1" s="677"/>
+      <c r="R1" s="677"/>
       <c r="U1" s="108">
         <v>1999</v>
       </c>
@@ -56007,24 +56929,24 @@
       <c r="BD1" s="108"/>
     </row>
     <row r="2" spans="1:56" ht="14.85" customHeight="1">
-      <c r="A2" s="674"/>
-      <c r="B2" s="675"/>
-      <c r="C2" s="675"/>
-      <c r="D2" s="675"/>
-      <c r="E2" s="675"/>
-      <c r="F2" s="675"/>
-      <c r="G2" s="675"/>
-      <c r="H2" s="675"/>
-      <c r="I2" s="675"/>
-      <c r="J2" s="675"/>
-      <c r="K2" s="675"/>
-      <c r="L2" s="675"/>
-      <c r="M2" s="675"/>
-      <c r="N2" s="675"/>
-      <c r="O2" s="675"/>
-      <c r="P2" s="675"/>
-      <c r="Q2" s="675"/>
-      <c r="R2" s="675"/>
+      <c r="A2" s="676"/>
+      <c r="B2" s="677"/>
+      <c r="C2" s="677"/>
+      <c r="D2" s="677"/>
+      <c r="E2" s="677"/>
+      <c r="F2" s="677"/>
+      <c r="G2" s="677"/>
+      <c r="H2" s="677"/>
+      <c r="I2" s="677"/>
+      <c r="J2" s="677"/>
+      <c r="K2" s="677"/>
+      <c r="L2" s="677"/>
+      <c r="M2" s="677"/>
+      <c r="N2" s="677"/>
+      <c r="O2" s="677"/>
+      <c r="P2" s="677"/>
+      <c r="Q2" s="677"/>
+      <c r="R2" s="677"/>
       <c r="T2" s="84" t="s">
         <v>175</v>
       </c>
@@ -56129,24 +57051,24 @@
       <c r="BA2" s="281"/>
     </row>
     <row r="3" spans="1:56" ht="40.35" customHeight="1">
-      <c r="A3" s="674"/>
-      <c r="B3" s="675"/>
-      <c r="C3" s="675"/>
-      <c r="D3" s="675"/>
-      <c r="E3" s="675"/>
-      <c r="F3" s="675"/>
-      <c r="G3" s="675"/>
-      <c r="H3" s="675"/>
-      <c r="I3" s="675"/>
-      <c r="J3" s="675"/>
-      <c r="K3" s="675"/>
-      <c r="L3" s="675"/>
-      <c r="M3" s="675"/>
-      <c r="N3" s="675"/>
-      <c r="O3" s="675"/>
-      <c r="P3" s="675"/>
-      <c r="Q3" s="675"/>
-      <c r="R3" s="675"/>
+      <c r="A3" s="676"/>
+      <c r="B3" s="677"/>
+      <c r="C3" s="677"/>
+      <c r="D3" s="677"/>
+      <c r="E3" s="677"/>
+      <c r="F3" s="677"/>
+      <c r="G3" s="677"/>
+      <c r="H3" s="677"/>
+      <c r="I3" s="677"/>
+      <c r="J3" s="677"/>
+      <c r="K3" s="677"/>
+      <c r="L3" s="677"/>
+      <c r="M3" s="677"/>
+      <c r="N3" s="677"/>
+      <c r="O3" s="677"/>
+      <c r="P3" s="677"/>
+      <c r="Q3" s="677"/>
+      <c r="R3" s="677"/>
       <c r="X3" s="218"/>
       <c r="Y3" s="222"/>
       <c r="Z3" s="221"/>
@@ -56167,24 +57089,24 @@
       <c r="AO3" s="222"/>
     </row>
     <row r="4" spans="1:56" ht="45.6" customHeight="1" thickBot="1">
-      <c r="A4" s="674"/>
-      <c r="B4" s="676"/>
-      <c r="C4" s="676"/>
-      <c r="D4" s="676"/>
-      <c r="E4" s="676"/>
-      <c r="F4" s="676"/>
-      <c r="G4" s="676"/>
-      <c r="H4" s="676"/>
-      <c r="I4" s="676"/>
-      <c r="J4" s="676"/>
-      <c r="K4" s="676"/>
-      <c r="L4" s="676"/>
-      <c r="M4" s="676"/>
-      <c r="N4" s="676"/>
-      <c r="O4" s="676"/>
-      <c r="P4" s="676"/>
-      <c r="Q4" s="676"/>
-      <c r="R4" s="676"/>
+      <c r="A4" s="676"/>
+      <c r="B4" s="678"/>
+      <c r="C4" s="678"/>
+      <c r="D4" s="678"/>
+      <c r="E4" s="678"/>
+      <c r="F4" s="678"/>
+      <c r="G4" s="678"/>
+      <c r="H4" s="678"/>
+      <c r="I4" s="678"/>
+      <c r="J4" s="678"/>
+      <c r="K4" s="678"/>
+      <c r="L4" s="678"/>
+      <c r="M4" s="678"/>
+      <c r="N4" s="678"/>
+      <c r="O4" s="678"/>
+      <c r="P4" s="678"/>
+      <c r="Q4" s="678"/>
+      <c r="R4" s="678"/>
       <c r="X4" s="218"/>
       <c r="Y4" s="198"/>
       <c r="Z4" s="198"/>
@@ -56207,27 +57129,27 @@
     </row>
     <row r="5" spans="1:56">
       <c r="A5" s="97"/>
-      <c r="B5" s="677" t="s">
+      <c r="B5" s="679" t="s">
         <v>176</v>
       </c>
-      <c r="C5" s="677"/>
-      <c r="D5" s="677"/>
-      <c r="E5" s="677"/>
-      <c r="F5" s="677"/>
-      <c r="G5" s="677"/>
-      <c r="H5" s="677"/>
-      <c r="I5" s="678" t="s">
+      <c r="C5" s="679"/>
+      <c r="D5" s="679"/>
+      <c r="E5" s="679"/>
+      <c r="F5" s="679"/>
+      <c r="G5" s="679"/>
+      <c r="H5" s="679"/>
+      <c r="I5" s="680" t="s">
         <v>177</v>
       </c>
-      <c r="J5" s="678"/>
-      <c r="K5" s="678"/>
-      <c r="L5" s="678"/>
-      <c r="M5" s="678" t="s">
+      <c r="J5" s="680"/>
+      <c r="K5" s="680"/>
+      <c r="L5" s="680"/>
+      <c r="M5" s="680" t="s">
         <v>178</v>
       </c>
-      <c r="N5" s="678"/>
-      <c r="O5" s="678"/>
-      <c r="P5" s="678"/>
+      <c r="N5" s="680"/>
+      <c r="O5" s="680"/>
+      <c r="P5" s="680"/>
       <c r="Q5" s="638" t="s">
         <v>179</v>
       </c>
@@ -56252,7 +57174,7 @@
       <c r="AM5" s="1"/>
       <c r="AN5" s="1"/>
     </row>
-    <row r="6" spans="1:56" ht="72">
+    <row r="6" spans="1:56" ht="57.35">
       <c r="A6" s="609" t="s">
         <v>181</v>
       </c>
@@ -56344,7 +57266,7 @@
       <c r="E7" s="598">
         <v>1</v>
       </c>
-      <c r="F7" s="679" t="s">
+      <c r="F7" s="681" t="s">
         <v>192</v>
       </c>
       <c r="G7" s="599">
@@ -56406,7 +57328,7 @@
       <c r="E8" s="602">
         <v>3</v>
       </c>
-      <c r="F8" s="679"/>
+      <c r="F8" s="681"/>
       <c r="G8" s="599">
         <f t="shared" ref="G8" si="2">E8-E7</f>
         <v>2</v>
@@ -56462,7 +57384,7 @@
       <c r="E9" s="603">
         <v>4</v>
       </c>
-      <c r="F9" s="679"/>
+      <c r="F9" s="681"/>
       <c r="G9" s="599">
         <f t="shared" ref="G9:G22" si="4">E9-E8</f>
         <v>1</v>
@@ -56518,7 +57440,7 @@
       <c r="E10" s="605">
         <v>5</v>
       </c>
-      <c r="F10" s="679"/>
+      <c r="F10" s="681"/>
       <c r="G10" s="606">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -56596,7 +57518,7 @@
       <c r="E11" s="605">
         <v>9</v>
       </c>
-      <c r="F11" s="679"/>
+      <c r="F11" s="681"/>
       <c r="G11" s="606">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -56673,7 +57595,7 @@
       <c r="E12" s="605">
         <v>13</v>
       </c>
-      <c r="F12" s="679"/>
+      <c r="F12" s="681"/>
       <c r="G12" s="606">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -56751,7 +57673,7 @@
       <c r="E13" s="605">
         <v>15</v>
       </c>
-      <c r="F13" s="679"/>
+      <c r="F13" s="681"/>
       <c r="G13" s="606">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -56828,7 +57750,7 @@
       <c r="E14" s="605">
         <v>25</v>
       </c>
-      <c r="F14" s="679"/>
+      <c r="F14" s="681"/>
       <c r="G14" s="606">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -56892,7 +57814,7 @@
       <c r="E15" s="605">
         <v>27</v>
       </c>
-      <c r="F15" s="679"/>
+      <c r="F15" s="681"/>
       <c r="G15" s="606">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -56956,7 +57878,7 @@
       <c r="E16" s="605">
         <v>36</v>
       </c>
-      <c r="F16" s="679"/>
+      <c r="F16" s="681"/>
       <c r="G16" s="606">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -57023,7 +57945,7 @@
       <c r="E17" s="605">
         <v>40</v>
       </c>
-      <c r="F17" s="679"/>
+      <c r="F17" s="681"/>
       <c r="G17" s="606">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -57087,7 +58009,7 @@
       <c r="E18" s="605">
         <v>48</v>
       </c>
-      <c r="F18" s="679"/>
+      <c r="F18" s="681"/>
       <c r="G18" s="606">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -57151,7 +58073,7 @@
       <c r="E19" s="605">
         <v>50</v>
       </c>
-      <c r="F19" s="673" t="s">
+      <c r="F19" s="675" t="s">
         <v>194</v>
       </c>
       <c r="G19" s="606">
@@ -57217,7 +58139,7 @@
       <c r="E20" s="605">
         <v>70</v>
       </c>
-      <c r="F20" s="673"/>
+      <c r="F20" s="675"/>
       <c r="G20" s="606">
         <f t="shared" si="4"/>
         <v>20</v>
@@ -57284,7 +58206,7 @@
       <c r="E21" s="608">
         <v>93</v>
       </c>
-      <c r="F21" s="673"/>
+      <c r="F21" s="675"/>
       <c r="G21" s="606">
         <f t="shared" si="4"/>
         <v>23</v>
@@ -57348,7 +58270,7 @@
       <c r="E22" s="608">
         <v>136</v>
       </c>
-      <c r="F22" s="673"/>
+      <c r="F22" s="675"/>
       <c r="G22" s="606">
         <f t="shared" si="4"/>
         <v>43</v>
@@ -57805,7 +58727,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="37" spans="1:31" ht="43.2">
+    <row r="37" spans="1:31" ht="43">
       <c r="A37" s="201" t="s">
         <v>204</v>
       </c>
@@ -57816,7 +58738,7 @@
     <row r="38" spans="1:31">
       <c r="A38" s="201"/>
     </row>
-    <row r="39" spans="1:31" ht="15" thickBot="1">
+    <row r="39" spans="1:31" ht="14.7" thickBot="1">
       <c r="A39" s="108" t="s">
         <v>205</v>
       </c>
@@ -58102,7 +59024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:31" ht="18">
+    <row r="43" spans="1:31" ht="17.350000000000001">
       <c r="A43" s="476" t="s">
         <v>209</v>
       </c>
@@ -58197,7 +59119,7 @@
         <v>0.98299999999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:31" ht="18">
+    <row r="44" spans="1:31" ht="17.350000000000001">
       <c r="A44" s="476" t="s">
         <v>211</v>
       </c>
@@ -58292,7 +59214,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:31" ht="18">
+    <row r="45" spans="1:31" ht="17.350000000000001">
       <c r="A45" s="476" t="s">
         <v>212</v>
       </c>
@@ -58387,7 +59309,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:31" ht="18.600000000000001" thickBot="1">
+    <row r="46" spans="1:31" ht="17.7" thickBot="1">
       <c r="A46" s="481" t="s">
         <v>213</v>
       </c>
@@ -58482,26 +59404,26 @@
         <v>210</v>
       </c>
     </row>
-    <row r="47" spans="1:31" ht="18">
+    <row r="47" spans="1:31" ht="17.350000000000001">
       <c r="C47" s="462"/>
     </row>
     <row r="48" spans="1:31" ht="64.2" customHeight="1">
-      <c r="A48" s="672" t="s">
+      <c r="A48" s="674" t="s">
         <v>215</v>
       </c>
-      <c r="B48" s="672"/>
-      <c r="C48" s="672"/>
-      <c r="D48" s="672"/>
-      <c r="E48" s="672"/>
+      <c r="B48" s="674"/>
+      <c r="C48" s="674"/>
+      <c r="D48" s="674"/>
+      <c r="E48" s="674"/>
     </row>
     <row r="49" spans="1:5" ht="127.5" customHeight="1">
-      <c r="A49" s="672" t="s">
+      <c r="A49" s="674" t="s">
         <v>216</v>
       </c>
-      <c r="B49" s="672"/>
-      <c r="C49" s="672"/>
-      <c r="D49" s="672"/>
-      <c r="E49" s="672"/>
+      <c r="B49" s="674"/>
+      <c r="C49" s="674"/>
+      <c r="D49" s="674"/>
+      <c r="E49" s="674"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -58535,37 +59457,37 @@
       <selection pane="bottomRight" activeCell="B41" sqref="B41:W41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14.35"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="9.41015625" customWidth="1"/>
+    <col min="3" max="3" width="12.41015625" customWidth="1"/>
+    <col min="4" max="4" width="8.41015625" customWidth="1"/>
+    <col min="5" max="5" width="12.41015625" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.21875" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.109375" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.88671875" customWidth="1"/>
-    <col min="17" max="17" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.44140625" customWidth="1"/>
-    <col min="19" max="19" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.41015625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.87890625" customWidth="1"/>
+    <col min="9" max="9" width="12.41015625" customWidth="1"/>
+    <col min="10" max="10" width="12.64453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.41015625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.234375" customWidth="1"/>
+    <col min="13" max="13" width="11.41015625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.1171875" customWidth="1"/>
+    <col min="15" max="15" width="11.41015625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.87890625" customWidth="1"/>
+    <col min="17" max="17" width="11.41015625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.41015625" customWidth="1"/>
+    <col min="19" max="19" width="11.41015625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.109375" customWidth="1"/>
-    <col min="22" max="22" width="8.44140625" customWidth="1"/>
-    <col min="23" max="23" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.1171875" customWidth="1"/>
+    <col min="22" max="22" width="8.41015625" customWidth="1"/>
+    <col min="23" max="23" width="11.41015625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.87890625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.87890625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.87890625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.41015625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="10" customWidth="1"/>
-    <col min="29" max="29" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.87890625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -58774,62 +59696,62 @@
       <c r="A5" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="B5" s="681">
+      <c r="B5" s="683">
         <v>2007</v>
       </c>
-      <c r="C5" s="681"/>
-      <c r="D5" s="681">
+      <c r="C5" s="683"/>
+      <c r="D5" s="683">
         <v>2008</v>
       </c>
-      <c r="E5" s="681"/>
-      <c r="F5" s="681">
+      <c r="E5" s="683"/>
+      <c r="F5" s="683">
         <v>2009</v>
       </c>
-      <c r="G5" s="681"/>
-      <c r="H5" s="681">
+      <c r="G5" s="683"/>
+      <c r="H5" s="683">
         <v>2010</v>
       </c>
-      <c r="I5" s="681"/>
-      <c r="J5" s="681">
+      <c r="I5" s="683"/>
+      <c r="J5" s="683">
         <v>2011</v>
       </c>
-      <c r="K5" s="681"/>
-      <c r="L5" s="681">
+      <c r="K5" s="683"/>
+      <c r="L5" s="683">
         <v>2012</v>
       </c>
-      <c r="M5" s="681"/>
-      <c r="N5" s="681">
+      <c r="M5" s="683"/>
+      <c r="N5" s="683">
         <v>2013</v>
       </c>
-      <c r="O5" s="681"/>
-      <c r="P5" s="681">
+      <c r="O5" s="683"/>
+      <c r="P5" s="683">
         <v>2014</v>
       </c>
-      <c r="Q5" s="681"/>
-      <c r="R5" s="681">
+      <c r="Q5" s="683"/>
+      <c r="R5" s="683">
         <v>2015</v>
       </c>
-      <c r="S5" s="681"/>
-      <c r="T5" s="681">
+      <c r="S5" s="683"/>
+      <c r="T5" s="683">
         <v>2016</v>
       </c>
-      <c r="U5" s="681"/>
-      <c r="V5" s="681">
+      <c r="U5" s="683"/>
+      <c r="V5" s="683">
         <v>2017</v>
       </c>
-      <c r="W5" s="681"/>
-      <c r="X5" s="681">
+      <c r="W5" s="683"/>
+      <c r="X5" s="683">
         <v>2018</v>
       </c>
-      <c r="Y5" s="681"/>
-      <c r="Z5" s="680">
+      <c r="Y5" s="683"/>
+      <c r="Z5" s="684">
         <v>2019</v>
       </c>
-      <c r="AA5" s="680"/>
-      <c r="AB5" s="680">
+      <c r="AA5" s="684"/>
+      <c r="AB5" s="684">
         <v>2020</v>
       </c>
-      <c r="AC5" s="680"/>
+      <c r="AC5" s="684"/>
       <c r="AD5" t="s">
         <v>220</v>
       </c>
@@ -62441,6 +63363,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="T5:U5"/>
     <mergeCell ref="A3:G4"/>
     <mergeCell ref="V5:W5"/>
     <mergeCell ref="X5:Y5"/>
@@ -62450,12 +63378,6 @@
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="L5:M5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="T5:U5"/>
   </mergeCells>
   <phoneticPr fontId="40" type="noConversion"/>
   <hyperlinks>
@@ -62476,24 +63398,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46BA5EE9-2B6F-46E3-8E78-3355AAA71A4E}">
   <dimension ref="A1:AT122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="14.35"/>
   <cols>
-    <col min="1" max="1" width="49.88671875" customWidth="1"/>
-    <col min="2" max="23" width="15.6640625" customWidth="1"/>
-    <col min="24" max="24" width="18.21875" customWidth="1"/>
-    <col min="25" max="25" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.87890625" customWidth="1"/>
+    <col min="2" max="23" width="15.64453125" customWidth="1"/>
+    <col min="24" max="24" width="18.234375" customWidth="1"/>
+    <col min="25" max="25" width="16.64453125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="16" customWidth="1"/>
-    <col min="27" max="27" width="17.88671875" customWidth="1"/>
-    <col min="28" max="28" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22.44140625" customWidth="1"/>
-    <col min="31" max="31" width="17.21875" customWidth="1"/>
-    <col min="32" max="32" width="12.44140625" customWidth="1"/>
-    <col min="33" max="33" width="12.6640625" customWidth="1"/>
+    <col min="27" max="27" width="17.87890625" customWidth="1"/>
+    <col min="28" max="28" width="16.64453125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.64453125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.41015625" customWidth="1"/>
+    <col min="31" max="31" width="17.234375" customWidth="1"/>
+    <col min="32" max="32" width="12.41015625" customWidth="1"/>
+    <col min="33" max="33" width="12.64453125" customWidth="1"/>
     <col min="34" max="36" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -62937,7 +63859,7 @@
       </c>
       <c r="AA5" s="579"/>
     </row>
-    <row r="6" spans="1:46" ht="15" thickBot="1">
+    <row r="6" spans="1:46" ht="14.7" thickBot="1">
       <c r="A6" s="646" t="s">
         <v>258</v>
       </c>
@@ -63052,11 +63974,11 @@
       <c r="AT7" s="525"/>
     </row>
     <row r="8" spans="1:46" ht="18">
-      <c r="A8" s="683" t="s">
+      <c r="A8" s="695" t="s">
         <v>259</v>
       </c>
-      <c r="B8" s="684"/>
-      <c r="C8" s="685"/>
+      <c r="B8" s="696"/>
+      <c r="C8" s="697"/>
       <c r="X8" s="644"/>
       <c r="Y8" s="442"/>
       <c r="Z8" s="282"/>
@@ -63075,55 +63997,55 @@
         <v>3.0966497196416092</v>
       </c>
       <c r="J10" s="272">
-        <f t="shared" ref="J10:V10" si="5">J61/J11</f>
+        <f>J61/J11</f>
         <v>3.3121192477699299</v>
       </c>
       <c r="K10" s="272">
-        <f t="shared" si="5"/>
+        <f>K61/K11</f>
         <v>3.4316631780077822</v>
       </c>
       <c r="L10" s="272">
-        <f t="shared" si="5"/>
+        <f>L61/L11</f>
         <v>3.6024889113441345</v>
       </c>
       <c r="M10" s="272">
-        <f t="shared" si="5"/>
+        <f>M61/M11</f>
         <v>3.6003537279673679</v>
       </c>
       <c r="N10" s="272">
-        <f t="shared" si="5"/>
+        <f>N61/N11</f>
         <v>3.6020835090223953</v>
       </c>
       <c r="O10" s="272">
-        <f t="shared" si="5"/>
+        <f>O61/O11</f>
         <v>3.6225010387670107</v>
       </c>
       <c r="P10" s="272">
-        <f t="shared" si="5"/>
+        <f>P61/P11</f>
         <v>3.6387373505284355</v>
       </c>
       <c r="Q10" s="272">
-        <f t="shared" si="5"/>
+        <f>Q61/Q11</f>
         <v>3.5985284347306883</v>
       </c>
       <c r="R10" s="272">
-        <f t="shared" si="5"/>
+        <f>R61/R11</f>
         <v>3.4149697661784177</v>
       </c>
       <c r="S10" s="272">
-        <f t="shared" si="5"/>
+        <f>S61/S11</f>
         <v>3.3607662394786866</v>
       </c>
       <c r="T10" s="272">
-        <f t="shared" si="5"/>
+        <f>T61/T11</f>
         <v>3.3675885589972916</v>
       </c>
       <c r="U10" s="272">
-        <f t="shared" si="5"/>
+        <f>U61/U11</f>
         <v>3.3406557613204404</v>
       </c>
       <c r="V10" s="272">
-        <f t="shared" si="5"/>
+        <f>V61/V11</f>
         <v>3.3694461561890288</v>
       </c>
     </row>
@@ -63132,27 +64054,27 @@
         <v>258</v>
       </c>
       <c r="B11" s="643">
-        <f t="shared" ref="B11:G11" si="6">B61/$I$10</f>
+        <f t="shared" ref="B11:G11" si="5">B61/$I$10</f>
         <v>50608436.274199456</v>
       </c>
       <c r="C11" s="643">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>54244443.255739212</v>
       </c>
       <c r="D11" s="643">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>59327304.226472974</v>
       </c>
       <c r="E11" s="643">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>60598209.351788692</v>
       </c>
       <c r="F11" s="643">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>62956141.84692575</v>
       </c>
       <c r="G11" s="643">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>65886554.008960731</v>
       </c>
       <c r="H11" s="643">
@@ -63202,23 +64124,23 @@
         <v>45900215</v>
       </c>
     </row>
-    <row r="12" spans="1:46" ht="25.8">
-      <c r="A12" s="737" t="s">
+    <row r="12" spans="1:46" ht="25.7">
+      <c r="A12" s="649" t="s">
         <v>610</v>
       </c>
-      <c r="B12" s="738"/>
-      <c r="C12" s="738"/>
-      <c r="D12" s="738"/>
-      <c r="E12" s="739">
+      <c r="B12" s="650"/>
+      <c r="C12" s="650"/>
+      <c r="D12" s="650"/>
+      <c r="E12" s="651">
         <v>63323080.703804597</v>
       </c>
-      <c r="F12" s="739">
+      <c r="F12" s="651">
         <v>63804536.966740698</v>
       </c>
-      <c r="G12" s="739">
+      <c r="G12" s="651">
         <v>62682441.868738703</v>
       </c>
-      <c r="H12" s="739">
+      <c r="H12" s="651">
         <v>64233678.942893296</v>
       </c>
       <c r="I12" s="643"/>
@@ -63242,58 +64164,58 @@
       </c>
     </row>
     <row r="14" spans="1:46" ht="40.950000000000003" hidden="1" customHeight="1" thickBot="1">
-      <c r="A14" s="696" t="s">
+      <c r="A14" s="708" t="s">
         <v>262</v>
       </c>
-      <c r="B14" s="697"/>
-      <c r="C14" s="697"/>
-      <c r="D14" s="697"/>
-      <c r="E14" s="697"/>
-      <c r="F14" s="697"/>
-      <c r="G14" s="697"/>
-      <c r="H14" s="697"/>
-      <c r="I14" s="697"/>
-      <c r="J14" s="697"/>
-      <c r="K14" s="697"/>
-      <c r="L14" s="697"/>
-      <c r="M14" s="697"/>
-      <c r="N14" s="697"/>
-      <c r="O14" s="697"/>
-      <c r="P14" s="697"/>
-      <c r="Q14" s="697"/>
-      <c r="R14" s="697"/>
-      <c r="S14" s="697"/>
-      <c r="T14" s="697"/>
-      <c r="U14" s="697"/>
-      <c r="V14" s="697"/>
-      <c r="W14" s="698"/>
+      <c r="B14" s="709"/>
+      <c r="C14" s="709"/>
+      <c r="D14" s="709"/>
+      <c r="E14" s="709"/>
+      <c r="F14" s="709"/>
+      <c r="G14" s="709"/>
+      <c r="H14" s="709"/>
+      <c r="I14" s="709"/>
+      <c r="J14" s="709"/>
+      <c r="K14" s="709"/>
+      <c r="L14" s="709"/>
+      <c r="M14" s="709"/>
+      <c r="N14" s="709"/>
+      <c r="O14" s="709"/>
+      <c r="P14" s="709"/>
+      <c r="Q14" s="709"/>
+      <c r="R14" s="709"/>
+      <c r="S14" s="709"/>
+      <c r="T14" s="709"/>
+      <c r="U14" s="709"/>
+      <c r="V14" s="709"/>
+      <c r="W14" s="710"/>
     </row>
     <row r="15" spans="1:46" ht="45.6" hidden="1" customHeight="1">
-      <c r="A15" s="703" t="s">
+      <c r="A15" s="715" t="s">
         <v>263</v>
       </c>
-      <c r="B15" s="704"/>
-      <c r="C15" s="704"/>
-      <c r="D15" s="704"/>
-      <c r="E15" s="704"/>
-      <c r="F15" s="704"/>
-      <c r="G15" s="704"/>
-      <c r="H15" s="704"/>
-      <c r="I15" s="704"/>
-      <c r="J15" s="704"/>
-      <c r="K15" s="704"/>
-      <c r="L15" s="704"/>
-      <c r="M15" s="704"/>
-      <c r="N15" s="704"/>
-      <c r="O15" s="704"/>
-      <c r="P15" s="704"/>
-      <c r="Q15" s="704"/>
-      <c r="R15" s="704"/>
-      <c r="S15" s="704"/>
-      <c r="T15" s="704"/>
-      <c r="U15" s="704"/>
-      <c r="V15" s="704"/>
-      <c r="W15" s="705"/>
+      <c r="B15" s="716"/>
+      <c r="C15" s="716"/>
+      <c r="D15" s="716"/>
+      <c r="E15" s="716"/>
+      <c r="F15" s="716"/>
+      <c r="G15" s="716"/>
+      <c r="H15" s="716"/>
+      <c r="I15" s="716"/>
+      <c r="J15" s="716"/>
+      <c r="K15" s="716"/>
+      <c r="L15" s="716"/>
+      <c r="M15" s="716"/>
+      <c r="N15" s="716"/>
+      <c r="O15" s="716"/>
+      <c r="P15" s="716"/>
+      <c r="Q15" s="716"/>
+      <c r="R15" s="716"/>
+      <c r="S15" s="716"/>
+      <c r="T15" s="716"/>
+      <c r="U15" s="716"/>
+      <c r="V15" s="716"/>
+      <c r="W15" s="717"/>
       <c r="X15" s="528"/>
       <c r="Y15" s="420"/>
       <c r="Z15" s="282"/>
@@ -64072,7 +64994,7 @@
       </c>
       <c r="W30" s="540"/>
     </row>
-    <row r="31" spans="1:36" ht="15" hidden="1" thickBot="1">
+    <row r="31" spans="1:36" ht="14.7" hidden="1" thickBot="1">
       <c r="A31" s="541" t="s">
         <v>276</v>
       </c>
@@ -64087,47 +65009,47 @@
       <c r="J31" s="543"/>
       <c r="K31" s="543"/>
       <c r="L31" s="544">
-        <f t="shared" ref="L31:V31" si="7">L29/L22</f>
+        <f t="shared" ref="L31:V31" si="6">L29/L22</f>
         <v>9.4097172753124312</v>
       </c>
       <c r="M31" s="544">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>9.05617541783778</v>
       </c>
       <c r="N31" s="544">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>9.0274230818903423</v>
       </c>
       <c r="O31" s="544">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8.8287267264544891</v>
       </c>
       <c r="P31" s="544">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8.9911561955268979</v>
       </c>
       <c r="Q31" s="544">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8.4988817203211156</v>
       </c>
       <c r="R31" s="544">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8.5022352534713868</v>
       </c>
       <c r="S31" s="544">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8.5569291951802846</v>
       </c>
       <c r="T31" s="544">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8.3744669740824591</v>
       </c>
       <c r="U31" s="544">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8.4447165320169315</v>
       </c>
       <c r="V31" s="544">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>8.8641784543391342</v>
       </c>
       <c r="W31" s="545"/>
@@ -64144,7 +65066,7 @@
       <c r="AI31" s="547"/>
       <c r="AJ31" s="547"/>
     </row>
-    <row r="32" spans="1:36" ht="15" hidden="1" thickBot="1">
+    <row r="32" spans="1:36" ht="14.7" hidden="1" thickBot="1">
       <c r="A32" s="541"/>
       <c r="B32" s="542"/>
       <c r="C32" s="542"/>
@@ -64182,31 +65104,31 @@
       <c r="AJ32" s="547"/>
     </row>
     <row r="33" spans="1:36" ht="53.25" hidden="1" customHeight="1" thickBot="1">
-      <c r="A33" s="706" t="s">
+      <c r="A33" s="718" t="s">
         <v>277</v>
       </c>
-      <c r="B33" s="707"/>
-      <c r="C33" s="707"/>
-      <c r="D33" s="707"/>
-      <c r="E33" s="707"/>
-      <c r="F33" s="707"/>
-      <c r="G33" s="707"/>
-      <c r="H33" s="707"/>
-      <c r="I33" s="707"/>
-      <c r="J33" s="707"/>
-      <c r="K33" s="707"/>
-      <c r="L33" s="707"/>
-      <c r="M33" s="707"/>
-      <c r="N33" s="707"/>
-      <c r="O33" s="707"/>
-      <c r="P33" s="707"/>
-      <c r="Q33" s="707"/>
-      <c r="R33" s="707"/>
-      <c r="S33" s="707"/>
-      <c r="T33" s="707"/>
-      <c r="U33" s="707"/>
-      <c r="V33" s="707"/>
-      <c r="W33" s="708"/>
+      <c r="B33" s="719"/>
+      <c r="C33" s="719"/>
+      <c r="D33" s="719"/>
+      <c r="E33" s="719"/>
+      <c r="F33" s="719"/>
+      <c r="G33" s="719"/>
+      <c r="H33" s="719"/>
+      <c r="I33" s="719"/>
+      <c r="J33" s="719"/>
+      <c r="K33" s="719"/>
+      <c r="L33" s="719"/>
+      <c r="M33" s="719"/>
+      <c r="N33" s="719"/>
+      <c r="O33" s="719"/>
+      <c r="P33" s="719"/>
+      <c r="Q33" s="719"/>
+      <c r="R33" s="719"/>
+      <c r="S33" s="719"/>
+      <c r="T33" s="719"/>
+      <c r="U33" s="719"/>
+      <c r="V33" s="719"/>
+      <c r="W33" s="720"/>
       <c r="Y33" s="546"/>
       <c r="Z33" s="547"/>
       <c r="AA33" s="547"/>
@@ -64221,12 +65143,12 @@
       <c r="AJ33" s="547"/>
     </row>
     <row r="34" spans="1:36" ht="79.2" hidden="1" customHeight="1" thickBot="1">
-      <c r="X34" s="689" t="s">
+      <c r="X34" s="701" t="s">
         <v>278</v>
       </c>
-      <c r="Y34" s="689"/>
-      <c r="Z34" s="689"/>
-      <c r="AA34" s="689"/>
+      <c r="Y34" s="701"/>
+      <c r="Z34" s="701"/>
+      <c r="AA34" s="701"/>
       <c r="AB34" s="503"/>
       <c r="AC34" s="503"/>
       <c r="AD34" s="503"/>
@@ -64312,87 +65234,87 @@
         <v>280</v>
       </c>
       <c r="B36" s="436">
-        <f t="shared" ref="B36:K36" si="8">TREND($L36:$V36,$L35:$V35,B35)</f>
+        <f t="shared" ref="B36:K36" si="7">TREND($L36:$V36,$L35:$V35,B35)</f>
         <v>0.40435106414411948</v>
       </c>
       <c r="C36" s="436">
+        <f t="shared" si="7"/>
+        <v>0.41611788590348908</v>
+      </c>
+      <c r="D36" s="436">
+        <f t="shared" si="7"/>
+        <v>0.42788470766285869</v>
+      </c>
+      <c r="E36" s="436">
+        <f t="shared" si="7"/>
+        <v>0.43965152942222829</v>
+      </c>
+      <c r="F36" s="436">
+        <f t="shared" si="7"/>
+        <v>0.4514183511815979</v>
+      </c>
+      <c r="G36" s="436">
+        <f t="shared" si="7"/>
+        <v>0.4631851729409675</v>
+      </c>
+      <c r="H36" s="436">
+        <f t="shared" si="7"/>
+        <v>0.47495199470033711</v>
+      </c>
+      <c r="I36" s="436">
+        <f t="shared" si="7"/>
+        <v>0.48671881645970672</v>
+      </c>
+      <c r="J36" s="436">
+        <f t="shared" si="7"/>
+        <v>0.49848563821907632</v>
+      </c>
+      <c r="K36" s="436">
+        <f t="shared" si="7"/>
+        <v>0.51025245997844593</v>
+      </c>
+      <c r="L36" s="436">
+        <f t="shared" ref="L36:V36" si="8">L18/L23</f>
+        <v>0.52841342607957265</v>
+      </c>
+      <c r="M36" s="436">
         <f t="shared" si="8"/>
-        <v>0.41611788590348908</v>
-      </c>
-      <c r="D36" s="436">
+        <v>0.54547371402387623</v>
+      </c>
+      <c r="N36" s="436">
         <f t="shared" si="8"/>
-        <v>0.42788470766285869</v>
-      </c>
-      <c r="E36" s="436">
+        <v>0.54428610531062038</v>
+      </c>
+      <c r="O36" s="436">
         <f t="shared" si="8"/>
-        <v>0.43965152942222829</v>
-      </c>
-      <c r="F36" s="436">
+        <v>0.55455368729723253</v>
+      </c>
+      <c r="P36" s="436">
         <f t="shared" si="8"/>
-        <v>0.4514183511815979</v>
-      </c>
-      <c r="G36" s="436">
+        <v>0.55719913702500956</v>
+      </c>
+      <c r="Q36" s="436">
         <f t="shared" si="8"/>
-        <v>0.4631851729409675</v>
-      </c>
-      <c r="H36" s="436">
+        <v>0.57065194043321299</v>
+      </c>
+      <c r="R36" s="436">
         <f t="shared" si="8"/>
-        <v>0.47495199470033711</v>
-      </c>
-      <c r="I36" s="436">
+        <v>0.58510719938103783</v>
+      </c>
+      <c r="S36" s="436">
         <f t="shared" si="8"/>
-        <v>0.48671881645970672</v>
-      </c>
-      <c r="J36" s="436">
+        <v>0.60018693413536905</v>
+      </c>
+      <c r="T36" s="436">
         <f t="shared" si="8"/>
-        <v>0.49848563821907632</v>
-      </c>
-      <c r="K36" s="436">
+        <v>0.62353296603900099</v>
+      </c>
+      <c r="U36" s="436">
         <f t="shared" si="8"/>
-        <v>0.51025245997844593</v>
-      </c>
-      <c r="L36" s="436">
-        <f t="shared" ref="L36:V36" si="9">L18/L23</f>
-        <v>0.52841342607957265</v>
-      </c>
-      <c r="M36" s="436">
-        <f t="shared" si="9"/>
-        <v>0.54547371402387623</v>
-      </c>
-      <c r="N36" s="436">
-        <f t="shared" si="9"/>
-        <v>0.54428610531062038</v>
-      </c>
-      <c r="O36" s="436">
-        <f t="shared" si="9"/>
-        <v>0.55455368729723253</v>
-      </c>
-      <c r="P36" s="436">
-        <f t="shared" si="9"/>
-        <v>0.55719913702500956</v>
-      </c>
-      <c r="Q36" s="436">
-        <f t="shared" si="9"/>
-        <v>0.57065194043321299</v>
-      </c>
-      <c r="R36" s="436">
-        <f t="shared" si="9"/>
-        <v>0.58510719938103783</v>
-      </c>
-      <c r="S36" s="436">
-        <f t="shared" si="9"/>
-        <v>0.60018693413536905</v>
-      </c>
-      <c r="T36" s="436">
-        <f t="shared" si="9"/>
-        <v>0.62353296603900099</v>
-      </c>
-      <c r="U36" s="436">
-        <f t="shared" si="9"/>
         <v>0.63851368897531458</v>
       </c>
       <c r="V36" s="436">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.64146849718106835</v>
       </c>
       <c r="W36" s="571"/>
@@ -64409,87 +65331,87 @@
         <v>282</v>
       </c>
       <c r="B37" s="436">
-        <f t="shared" ref="B37:K37" si="10">TREND($L37:$V37,$L35:$V35,B35)</f>
+        <f t="shared" ref="B37:K37" si="9">TREND($L37:$V37,$L35:$V35,B35)</f>
         <v>0.23598756759296169</v>
       </c>
       <c r="C37" s="436">
+        <f t="shared" si="9"/>
+        <v>0.23385881965844124</v>
+      </c>
+      <c r="D37" s="436">
+        <f t="shared" si="9"/>
+        <v>0.23173007172391991</v>
+      </c>
+      <c r="E37" s="436">
+        <f t="shared" si="9"/>
+        <v>0.22960132378939946</v>
+      </c>
+      <c r="F37" s="436">
+        <f t="shared" si="9"/>
+        <v>0.22747257585487901</v>
+      </c>
+      <c r="G37" s="436">
+        <f t="shared" si="9"/>
+        <v>0.22534382792035768</v>
+      </c>
+      <c r="H37" s="436">
+        <f t="shared" si="9"/>
+        <v>0.22321507998583723</v>
+      </c>
+      <c r="I37" s="436">
+        <f t="shared" si="9"/>
+        <v>0.22108633205131678</v>
+      </c>
+      <c r="J37" s="436">
+        <f t="shared" si="9"/>
+        <v>0.21895758411679545</v>
+      </c>
+      <c r="K37" s="436">
+        <f t="shared" si="9"/>
+        <v>0.216828836182275</v>
+      </c>
+      <c r="L37" s="436">
+        <f t="shared" ref="L37:V37" si="10">L19/L23</f>
+        <v>0.21086363816462192</v>
+      </c>
+      <c r="M37" s="436">
         <f t="shared" si="10"/>
-        <v>0.23385881965844124</v>
-      </c>
-      <c r="D37" s="436">
+        <v>0.2097587857265521</v>
+      </c>
+      <c r="N37" s="436">
         <f t="shared" si="10"/>
-        <v>0.23173007172391991</v>
-      </c>
-      <c r="E37" s="436">
+        <v>0.20964799735421952</v>
+      </c>
+      <c r="O37" s="436">
         <f t="shared" si="10"/>
-        <v>0.22960132378939946</v>
-      </c>
-      <c r="F37" s="436">
+        <v>0.20953614913873445</v>
+      </c>
+      <c r="P37" s="436">
         <f t="shared" si="10"/>
-        <v>0.22747257585487901</v>
-      </c>
-      <c r="G37" s="436">
+        <v>0.20781208761171971</v>
+      </c>
+      <c r="Q37" s="436">
         <f t="shared" si="10"/>
-        <v>0.22534382792035768</v>
-      </c>
-      <c r="H37" s="436">
+        <v>0.20877894855595669</v>
+      </c>
+      <c r="R37" s="436">
         <f t="shared" si="10"/>
-        <v>0.22321507998583723</v>
-      </c>
-      <c r="I37" s="436">
+        <v>0.20613662208216124</v>
+      </c>
+      <c r="S37" s="436">
         <f t="shared" si="10"/>
-        <v>0.22108633205131678</v>
-      </c>
-      <c r="J37" s="436">
+        <v>0.20358330158822102</v>
+      </c>
+      <c r="T37" s="436">
         <f t="shared" si="10"/>
-        <v>0.21895758411679545</v>
-      </c>
-      <c r="K37" s="436">
+        <v>0.19907065087205367</v>
+      </c>
+      <c r="U37" s="436">
         <f t="shared" si="10"/>
-        <v>0.216828836182275</v>
-      </c>
-      <c r="L37" s="436">
-        <f t="shared" ref="L37:V37" si="11">L19/L23</f>
-        <v>0.21086363816462192</v>
-      </c>
-      <c r="M37" s="436">
-        <f t="shared" si="11"/>
-        <v>0.2097587857265521</v>
-      </c>
-      <c r="N37" s="436">
-        <f t="shared" si="11"/>
-        <v>0.20964799735421952</v>
-      </c>
-      <c r="O37" s="436">
-        <f t="shared" si="11"/>
-        <v>0.20953614913873445</v>
-      </c>
-      <c r="P37" s="436">
-        <f t="shared" si="11"/>
-        <v>0.20781208761171971</v>
-      </c>
-      <c r="Q37" s="436">
-        <f t="shared" si="11"/>
-        <v>0.20877894855595669</v>
-      </c>
-      <c r="R37" s="436">
-        <f t="shared" si="11"/>
-        <v>0.20613662208216124</v>
-      </c>
-      <c r="S37" s="436">
-        <f t="shared" si="11"/>
-        <v>0.20358330158822102</v>
-      </c>
-      <c r="T37" s="436">
-        <f t="shared" si="11"/>
-        <v>0.19907065087205367</v>
-      </c>
-      <c r="U37" s="436">
-        <f t="shared" si="11"/>
         <v>0.19265400515294048</v>
       </c>
       <c r="V37" s="436">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.18677764807947117</v>
       </c>
       <c r="W37" s="572"/>
@@ -64503,87 +65425,87 @@
         <v>283</v>
       </c>
       <c r="B38" s="436">
-        <f t="shared" ref="B38:K38" si="12">TREND($L38:$V38,$L35:$V35,B35)</f>
+        <f t="shared" ref="B38:K38" si="11">TREND($L38:$V38,$L35:$V35,B35)</f>
         <v>0.12287712234454595</v>
       </c>
       <c r="C38" s="436">
+        <f t="shared" si="11"/>
+        <v>0.12032526089580564</v>
+      </c>
+      <c r="D38" s="436">
+        <f t="shared" si="11"/>
+        <v>0.11777339944706533</v>
+      </c>
+      <c r="E38" s="436">
+        <f t="shared" si="11"/>
+        <v>0.11522153799832502</v>
+      </c>
+      <c r="F38" s="436">
+        <f t="shared" si="11"/>
+        <v>0.11266967654958471</v>
+      </c>
+      <c r="G38" s="436">
+        <f t="shared" si="11"/>
+        <v>0.1101178151008444</v>
+      </c>
+      <c r="H38" s="436">
+        <f t="shared" si="11"/>
+        <v>0.10756595365210408</v>
+      </c>
+      <c r="I38" s="436">
+        <f t="shared" si="11"/>
+        <v>0.10501409220336377</v>
+      </c>
+      <c r="J38" s="436">
+        <f t="shared" si="11"/>
+        <v>0.10246223075462346</v>
+      </c>
+      <c r="K38" s="436">
+        <f t="shared" si="11"/>
+        <v>9.9910369305883151E-2</v>
+      </c>
+      <c r="L38" s="436">
+        <f t="shared" ref="L38:V38" si="12">L20/L23</f>
+        <v>9.5472259551824257E-2</v>
+      </c>
+      <c r="M38" s="436">
         <f t="shared" si="12"/>
-        <v>0.12032526089580564</v>
-      </c>
-      <c r="D38" s="436">
+        <v>9.2017958519754167E-2</v>
+      </c>
+      <c r="N38" s="436">
         <f t="shared" si="12"/>
-        <v>0.11777339944706533</v>
-      </c>
-      <c r="E38" s="436">
+        <v>9.2058574096305246E-2</v>
+      </c>
+      <c r="O38" s="436">
         <f t="shared" si="12"/>
-        <v>0.11522153799832502</v>
-      </c>
-      <c r="F38" s="436">
+        <v>9.0399792185857114E-2</v>
+      </c>
+      <c r="P38" s="436">
         <f t="shared" si="12"/>
-        <v>0.11266967654958471</v>
-      </c>
-      <c r="G38" s="436">
+        <v>8.923407104625973E-2</v>
+      </c>
+      <c r="Q38" s="436">
         <f t="shared" si="12"/>
-        <v>0.1101178151008444</v>
-      </c>
-      <c r="H38" s="436">
+        <v>8.7705031588447654E-2</v>
+      </c>
+      <c r="R38" s="436">
         <f t="shared" si="12"/>
-        <v>0.10756595365210408</v>
-      </c>
-      <c r="I38" s="436">
+        <v>8.4823217414084717E-2</v>
+      </c>
+      <c r="S38" s="436">
         <f t="shared" si="12"/>
-        <v>0.10501409220336377</v>
-      </c>
-      <c r="J38" s="436">
+        <v>8.1387572209663736E-2</v>
+      </c>
+      <c r="T38" s="436">
         <f t="shared" si="12"/>
-        <v>0.10246223075462346</v>
-      </c>
-      <c r="K38" s="436">
+        <v>7.6064384033328797E-2</v>
+      </c>
+      <c r="U38" s="436">
         <f t="shared" si="12"/>
-        <v>9.9910369305883151E-2</v>
-      </c>
-      <c r="L38" s="436">
-        <f t="shared" ref="L38:V38" si="13">L20/L23</f>
-        <v>9.5472259551824257E-2</v>
-      </c>
-      <c r="M38" s="436">
-        <f t="shared" si="13"/>
-        <v>9.2017958519754167E-2</v>
-      </c>
-      <c r="N38" s="436">
-        <f t="shared" si="13"/>
-        <v>9.2058574096305246E-2</v>
-      </c>
-      <c r="O38" s="436">
-        <f t="shared" si="13"/>
-        <v>9.0399792185857114E-2</v>
-      </c>
-      <c r="P38" s="436">
-        <f t="shared" si="13"/>
-        <v>8.923407104625973E-2</v>
-      </c>
-      <c r="Q38" s="436">
-        <f t="shared" si="13"/>
-        <v>8.7705031588447654E-2</v>
-      </c>
-      <c r="R38" s="436">
-        <f t="shared" si="13"/>
-        <v>8.4823217414084717E-2</v>
-      </c>
-      <c r="S38" s="436">
-        <f t="shared" si="13"/>
-        <v>8.1387572209663736E-2</v>
-      </c>
-      <c r="T38" s="436">
-        <f t="shared" si="13"/>
-        <v>7.6064384033328797E-2</v>
-      </c>
-      <c r="U38" s="436">
-        <f t="shared" si="13"/>
         <v>7.1995494261471074E-2</v>
       </c>
       <c r="V38" s="436">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>6.943285184086162E-2</v>
       </c>
       <c r="W38" s="572"/>
@@ -64597,87 +65519,87 @@
         <v>284</v>
       </c>
       <c r="B39" s="436">
-        <f t="shared" ref="B39:K39" si="14">TREND($L39:$V39,$L$35:$V$35,B35)</f>
+        <f t="shared" ref="B39:K39" si="13">TREND($L39:$V39,$L$35:$V$35,B35)</f>
         <v>6.9658194268269469E-2</v>
       </c>
       <c r="C39" s="436">
+        <f t="shared" si="13"/>
+        <v>6.7826238346569312E-2</v>
+      </c>
+      <c r="D39" s="436">
+        <f t="shared" si="13"/>
+        <v>6.5994282424868711E-2</v>
+      </c>
+      <c r="E39" s="436">
+        <f t="shared" si="13"/>
+        <v>6.4162326503168554E-2</v>
+      </c>
+      <c r="F39" s="436">
+        <f t="shared" si="13"/>
+        <v>6.2330370581468397E-2</v>
+      </c>
+      <c r="G39" s="436">
+        <f t="shared" si="13"/>
+        <v>6.0498414659767796E-2</v>
+      </c>
+      <c r="H39" s="436">
+        <f t="shared" si="13"/>
+        <v>5.8666458738067639E-2</v>
+      </c>
+      <c r="I39" s="436">
+        <f t="shared" si="13"/>
+        <v>5.6834502816367483E-2</v>
+      </c>
+      <c r="J39" s="436">
+        <f t="shared" si="13"/>
+        <v>5.5002546894666882E-2</v>
+      </c>
+      <c r="K39" s="436">
+        <f t="shared" si="13"/>
+        <v>5.3170590972966725E-2</v>
+      </c>
+      <c r="L39" s="436">
+        <f t="shared" ref="L39:V39" si="14">L21/L23</f>
+        <v>5.0596774322532852E-2</v>
+      </c>
+      <c r="M39" s="436">
         <f t="shared" si="14"/>
-        <v>6.7826238346569312E-2</v>
-      </c>
-      <c r="D39" s="436">
+        <v>4.7715011180423941E-2</v>
+      </c>
+      <c r="N39" s="436">
         <f t="shared" si="14"/>
-        <v>6.5994282424868711E-2</v>
-      </c>
-      <c r="E39" s="436">
+        <v>4.7825233338099932E-2</v>
+      </c>
+      <c r="O39" s="436">
         <f t="shared" si="14"/>
-        <v>6.4162326503168554E-2</v>
-      </c>
-      <c r="F39" s="436">
+        <v>4.6198367440357331E-2</v>
+      </c>
+      <c r="P39" s="436">
         <f t="shared" si="14"/>
-        <v>6.2330370581468397E-2</v>
-      </c>
-      <c r="G39" s="436">
+        <v>4.5472674690519826E-2</v>
+      </c>
+      <c r="Q39" s="436">
         <f t="shared" si="14"/>
-        <v>6.0498414659767796E-2</v>
-      </c>
-      <c r="H39" s="436">
+        <v>4.3824368231046934E-2</v>
+      </c>
+      <c r="R39" s="436">
         <f t="shared" si="14"/>
-        <v>5.8666458738067639E-2</v>
-      </c>
-      <c r="I39" s="436">
+        <v>4.1538085716443754E-2</v>
+      </c>
+      <c r="S39" s="436">
         <f t="shared" si="14"/>
-        <v>5.6834502816367483E-2</v>
-      </c>
-      <c r="J39" s="436">
+        <v>3.9104954316098964E-2</v>
+      </c>
+      <c r="T39" s="436">
         <f t="shared" si="14"/>
-        <v>5.5002546894666882E-2</v>
-      </c>
-      <c r="K39" s="436">
+        <v>3.5540813931125861E-2</v>
+      </c>
+      <c r="U39" s="436">
         <f t="shared" si="14"/>
-        <v>5.3170590972966725E-2</v>
-      </c>
-      <c r="L39" s="436">
-        <f t="shared" ref="L39:V39" si="15">L21/L23</f>
-        <v>5.0596774322532852E-2</v>
-      </c>
-      <c r="M39" s="436">
-        <f t="shared" si="15"/>
-        <v>4.7715011180423941E-2</v>
-      </c>
-      <c r="N39" s="436">
-        <f t="shared" si="15"/>
-        <v>4.7825233338099932E-2</v>
-      </c>
-      <c r="O39" s="436">
-        <f t="shared" si="15"/>
-        <v>4.6198367440357331E-2</v>
-      </c>
-      <c r="P39" s="436">
-        <f t="shared" si="15"/>
-        <v>4.5472674690519826E-2</v>
-      </c>
-      <c r="Q39" s="436">
-        <f t="shared" si="15"/>
-        <v>4.3824368231046934E-2</v>
-      </c>
-      <c r="R39" s="436">
-        <f t="shared" si="15"/>
-        <v>4.1538085716443754E-2</v>
-      </c>
-      <c r="S39" s="436">
-        <f t="shared" si="15"/>
-        <v>3.9104954316098964E-2</v>
-      </c>
-      <c r="T39" s="436">
-        <f t="shared" si="15"/>
-        <v>3.5540813931125861E-2</v>
-      </c>
-      <c r="U39" s="436">
-        <f t="shared" si="15"/>
         <v>3.3452195127969542E-2</v>
       </c>
       <c r="V39" s="436">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>3.2698931575792768E-2</v>
       </c>
       <c r="W39" s="572"/>
@@ -64691,87 +65613,87 @@
         <v>285</v>
       </c>
       <c r="B40" s="436">
-        <f t="shared" ref="B40:K40" si="16">TREND($L40:$V40,$L$35:$V$35,B35)</f>
+        <f t="shared" ref="B40:K40" si="15">TREND($L40:$V40,$L$35:$V$35,B35)</f>
         <v>0.16712604663718977</v>
       </c>
       <c r="C40" s="436">
+        <f t="shared" si="15"/>
+        <v>0.16187179009878427</v>
+      </c>
+      <c r="D40" s="436">
+        <f t="shared" si="15"/>
+        <v>0.15661753356038055</v>
+      </c>
+      <c r="E40" s="436">
+        <f t="shared" si="15"/>
+        <v>0.15136327702197683</v>
+      </c>
+      <c r="F40" s="436">
+        <f t="shared" si="15"/>
+        <v>0.1461090204835731</v>
+      </c>
+      <c r="G40" s="436">
+        <f t="shared" si="15"/>
+        <v>0.14085476394516938</v>
+      </c>
+      <c r="H40" s="436">
+        <f t="shared" si="15"/>
+        <v>0.13560050740676388</v>
+      </c>
+      <c r="I40" s="436">
+        <f t="shared" si="15"/>
+        <v>0.13034625086836016</v>
+      </c>
+      <c r="J40" s="436">
+        <f t="shared" si="15"/>
+        <v>0.12509199432995644</v>
+      </c>
+      <c r="K40" s="436">
+        <f t="shared" si="15"/>
+        <v>0.11983773779155271</v>
+      </c>
+      <c r="L40" s="436">
+        <f t="shared" ref="L40:V40" si="16">L22/L23</f>
+        <v>0.11465390188144829</v>
+      </c>
+      <c r="M40" s="436">
         <f t="shared" si="16"/>
-        <v>0.16187179009878427</v>
-      </c>
-      <c r="D40" s="436">
+        <v>0.10503453054939355</v>
+      </c>
+      <c r="N40" s="436">
         <f t="shared" si="16"/>
-        <v>0.15661753356038055</v>
-      </c>
-      <c r="E40" s="436">
+        <v>0.10618206880337294</v>
+      </c>
+      <c r="O40" s="436">
         <f t="shared" si="16"/>
-        <v>0.15136327702197683</v>
-      </c>
-      <c r="F40" s="436">
+        <v>9.9312003937818583E-2</v>
+      </c>
+      <c r="P40" s="436">
         <f t="shared" si="16"/>
-        <v>0.1461090204835731</v>
-      </c>
-      <c r="G40" s="436">
+        <v>0.1002820296264912</v>
+      </c>
+      <c r="Q40" s="436">
         <f t="shared" si="16"/>
-        <v>0.14085476394516938</v>
-      </c>
-      <c r="H40" s="436">
+        <v>8.9039711191335746E-2</v>
+      </c>
+      <c r="R40" s="436">
         <f t="shared" si="16"/>
-        <v>0.13560050740676388</v>
-      </c>
-      <c r="I40" s="436">
+        <v>8.2394852130016044E-2</v>
+      </c>
+      <c r="S40" s="436">
         <f t="shared" si="16"/>
-        <v>0.13034625086836016</v>
-      </c>
-      <c r="J40" s="436">
+        <v>7.5737213122941807E-2</v>
+      </c>
+      <c r="T40" s="436">
         <f t="shared" si="16"/>
-        <v>0.12509199432995644</v>
-      </c>
-      <c r="K40" s="436">
+        <v>6.5791185124490684E-2</v>
+      </c>
+      <c r="U40" s="436">
         <f t="shared" si="16"/>
-        <v>0.11983773779155271</v>
-      </c>
-      <c r="L40" s="436">
-        <f t="shared" ref="L40:V40" si="17">L22/L23</f>
-        <v>0.11465390188144829</v>
-      </c>
-      <c r="M40" s="436">
-        <f t="shared" si="17"/>
-        <v>0.10503453054939355</v>
-      </c>
-      <c r="N40" s="436">
-        <f t="shared" si="17"/>
-        <v>0.10618206880337294</v>
-      </c>
-      <c r="O40" s="436">
-        <f t="shared" si="17"/>
-        <v>9.9312003937818583E-2</v>
-      </c>
-      <c r="P40" s="436">
-        <f t="shared" si="17"/>
-        <v>0.1002820296264912</v>
-      </c>
-      <c r="Q40" s="436">
-        <f t="shared" si="17"/>
-        <v>8.9039711191335746E-2</v>
-      </c>
-      <c r="R40" s="436">
-        <f t="shared" si="17"/>
-        <v>8.2394852130016044E-2</v>
-      </c>
-      <c r="S40" s="436">
-        <f t="shared" si="17"/>
-        <v>7.5737213122941807E-2</v>
-      </c>
-      <c r="T40" s="436">
-        <f t="shared" si="17"/>
-        <v>6.5791185124490684E-2</v>
-      </c>
-      <c r="U40" s="436">
-        <f t="shared" si="17"/>
         <v>6.3384616482304285E-2</v>
       </c>
       <c r="V40" s="436">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>6.9622071322806067E-2</v>
       </c>
       <c r="W40" s="572"/>
@@ -64782,18 +65704,18 @@
     </row>
     <row r="41" spans="1:36" ht="51" hidden="1" customHeight="1" thickBot="1">
       <c r="A41" s="549"/>
-      <c r="B41" s="699" t="s">
+      <c r="B41" s="711" t="s">
         <v>286</v>
       </c>
-      <c r="C41" s="700"/>
-      <c r="D41" s="700"/>
-      <c r="E41" s="700"/>
-      <c r="F41" s="700"/>
-      <c r="G41" s="700"/>
-      <c r="H41" s="700"/>
-      <c r="I41" s="700"/>
-      <c r="J41" s="700"/>
-      <c r="K41" s="701"/>
+      <c r="C41" s="712"/>
+      <c r="D41" s="712"/>
+      <c r="E41" s="712"/>
+      <c r="F41" s="712"/>
+      <c r="G41" s="712"/>
+      <c r="H41" s="712"/>
+      <c r="I41" s="712"/>
+      <c r="J41" s="712"/>
+      <c r="K41" s="713"/>
       <c r="L41" s="437"/>
       <c r="M41" s="437"/>
       <c r="N41" s="437"/>
@@ -64824,27 +65746,28 @@
       <c r="AJ41" s="547"/>
     </row>
     <row r="42" spans="1:36" ht="51" customHeight="1">
+      <c r="A42" s="739"/>
       <c r="B42" s="640"/>
       <c r="C42" s="640"/>
       <c r="D42" s="640"/>
-      <c r="E42" s="640"/>
-      <c r="F42" s="640"/>
-      <c r="G42" s="640"/>
-      <c r="H42" s="640"/>
-      <c r="I42" s="640"/>
-      <c r="J42" s="640"/>
-      <c r="K42" s="640"/>
-      <c r="L42" s="436"/>
-      <c r="M42" s="436"/>
-      <c r="N42" s="436"/>
-      <c r="O42" s="436"/>
-      <c r="P42" s="436"/>
-      <c r="Q42" s="436"/>
-      <c r="R42" s="436"/>
-      <c r="S42" s="436"/>
-      <c r="T42" s="436"/>
-      <c r="U42" s="436"/>
-      <c r="V42" s="436"/>
+      <c r="E42" s="651"/>
+      <c r="F42" s="651"/>
+      <c r="G42" s="651"/>
+      <c r="H42" s="651"/>
+      <c r="I42" s="643"/>
+      <c r="J42" s="643"/>
+      <c r="K42" s="643"/>
+      <c r="L42" s="643"/>
+      <c r="M42" s="643"/>
+      <c r="N42" s="643"/>
+      <c r="O42" s="643"/>
+      <c r="P42" s="643"/>
+      <c r="Q42" s="643"/>
+      <c r="R42" s="643"/>
+      <c r="S42" s="643"/>
+      <c r="T42" s="643"/>
+      <c r="U42" s="643"/>
+      <c r="V42" s="643"/>
       <c r="W42" s="436"/>
       <c r="X42" s="269"/>
       <c r="Y42" s="546"/>
@@ -64861,31 +65784,31 @@
       <c r="AJ42" s="547"/>
     </row>
     <row r="43" spans="1:36" ht="51" hidden="1" customHeight="1">
-      <c r="A43" s="690" t="s">
+      <c r="A43" s="702" t="s">
         <v>287</v>
       </c>
-      <c r="B43" s="691"/>
-      <c r="C43" s="691"/>
-      <c r="D43" s="691"/>
-      <c r="E43" s="691"/>
-      <c r="F43" s="691"/>
-      <c r="G43" s="691"/>
-      <c r="H43" s="691"/>
-      <c r="I43" s="691"/>
-      <c r="J43" s="691"/>
-      <c r="K43" s="691"/>
-      <c r="L43" s="691"/>
-      <c r="M43" s="691"/>
-      <c r="N43" s="691"/>
-      <c r="O43" s="691"/>
-      <c r="P43" s="691"/>
-      <c r="Q43" s="691"/>
-      <c r="R43" s="691"/>
-      <c r="S43" s="691"/>
-      <c r="T43" s="691"/>
-      <c r="U43" s="691"/>
-      <c r="V43" s="691"/>
-      <c r="W43" s="692"/>
+      <c r="B43" s="703"/>
+      <c r="C43" s="703"/>
+      <c r="D43" s="703"/>
+      <c r="E43" s="703"/>
+      <c r="F43" s="703"/>
+      <c r="G43" s="703"/>
+      <c r="H43" s="703"/>
+      <c r="I43" s="703"/>
+      <c r="J43" s="703"/>
+      <c r="K43" s="703"/>
+      <c r="L43" s="703"/>
+      <c r="M43" s="703"/>
+      <c r="N43" s="703"/>
+      <c r="O43" s="703"/>
+      <c r="P43" s="703"/>
+      <c r="Q43" s="703"/>
+      <c r="R43" s="703"/>
+      <c r="S43" s="703"/>
+      <c r="T43" s="703"/>
+      <c r="U43" s="703"/>
+      <c r="V43" s="703"/>
+      <c r="W43" s="704"/>
       <c r="X43" s="269"/>
       <c r="Y43" s="546"/>
       <c r="Z43" s="547"/>
@@ -64969,92 +65892,92 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="45" spans="1:36" ht="28.8" hidden="1">
+    <row r="45" spans="1:36" hidden="1">
       <c r="A45" s="505" t="s">
         <v>288</v>
       </c>
       <c r="B45" s="550">
-        <f t="shared" ref="B45:K45" si="18">(B36*1)+(B37*2)+(B38*3)+(B39*4)+(B40*$X$40)</f>
+        <f>(B36*1)+(B37*2)+(B38*3)+(B39*4)+(B40*$X$40)</f>
         <v>3.096199191633394</v>
       </c>
       <c r="C45" s="550">
-        <f t="shared" si="18"/>
+        <f>(C36*1)+(C37*2)+(C38*3)+(C39*4)+(C40*$X$40)</f>
         <v>3.0392840409723441</v>
       </c>
       <c r="D45" s="550">
-        <f t="shared" si="18"/>
+        <f>(D36*1)+(D37*2)+(D38*3)+(D39*4)+(D40*$X$40)</f>
         <v>2.9823688903113066</v>
       </c>
       <c r="E45" s="550">
-        <f t="shared" si="18"/>
+        <f>(E36*1)+(E37*2)+(E38*3)+(E39*4)+(E40*$X$40)</f>
         <v>2.9254537396502731</v>
       </c>
       <c r="F45" s="550">
-        <f t="shared" si="18"/>
+        <f>(F36*1)+(F37*2)+(F38*3)+(F39*4)+(F40*$X$40)</f>
         <v>2.8685385889892396</v>
       </c>
       <c r="G45" s="550">
-        <f t="shared" si="18"/>
+        <f>(G36*1)+(G37*2)+(G38*3)+(G39*4)+(G40*$X$40)</f>
         <v>2.8116234383282022</v>
       </c>
       <c r="H45" s="550">
-        <f t="shared" si="18"/>
+        <f>(H36*1)+(H37*2)+(H38*3)+(H39*4)+(H40*$X$40)</f>
         <v>2.7547082876671518</v>
       </c>
       <c r="I45" s="550">
-        <f t="shared" si="18"/>
+        <f>(I36*1)+(I37*2)+(I38*3)+(I39*4)+(I40*$X$40)</f>
         <v>2.6977931370061183</v>
       </c>
       <c r="J45" s="550">
-        <f t="shared" si="18"/>
+        <f>(J36*1)+(J37*2)+(J38*3)+(J39*4)+(J40*$X$40)</f>
         <v>2.6408779863450809</v>
       </c>
       <c r="K45" s="550">
-        <f t="shared" si="18"/>
+        <f>(K36*1)+(K37*2)+(K38*3)+(K39*4)+(K40*$X$40)</f>
         <v>2.5839628356840469</v>
       </c>
       <c r="L45" s="504">
-        <f t="shared" ref="L45:V45" si="19">L30/L23</f>
+        <f>L30/L23</f>
         <v>2.5178054022891154</v>
       </c>
       <c r="M45" s="504">
-        <f t="shared" si="19"/>
+        <f>M30/M23</f>
         <v>2.3831163607935655</v>
       </c>
       <c r="N45" s="504">
-        <f t="shared" si="19"/>
+        <f>N30/N23</f>
         <v>2.3896092355561942</v>
       </c>
       <c r="O45" s="504">
-        <f t="shared" si="19"/>
+        <f>O30/O23</f>
         <v>2.3064173966516766</v>
       </c>
       <c r="P45" s="504">
-        <f t="shared" si="19"/>
+        <f>P30/P23</f>
         <v>2.3240676596745105</v>
       </c>
       <c r="Q45" s="504">
-        <f t="shared" si="19"/>
+        <f>Q30/Q23</f>
         <v>2.1833603564981949</v>
       </c>
       <c r="R45" s="504">
-        <f t="shared" si="19"/>
+        <f>R30/R23</f>
         <v>2.1185428784140306</v>
       </c>
       <c r="S45" s="504">
-        <f t="shared" si="19"/>
+        <f>S30/S23</f>
         <v>2.0560140905939011</v>
       </c>
       <c r="T45" s="504">
-        <f t="shared" si="19"/>
+        <f>T30/T23</f>
         <v>1.9429967826183907</v>
       </c>
       <c r="U45" s="504">
-        <f t="shared" si="19"/>
+        <f>U30/U23</f>
         <v>1.9088821109902294</v>
       </c>
       <c r="V45" s="504">
-        <f t="shared" si="19"/>
+        <f>V30/V23</f>
         <v>1.9712605397318468</v>
       </c>
       <c r="W45" s="506"/>
@@ -65068,16 +65991,16 @@
     </row>
     <row r="46" spans="1:36" ht="14.85" hidden="1" customHeight="1">
       <c r="A46" s="509"/>
-      <c r="B46" s="702"/>
-      <c r="C46" s="702"/>
-      <c r="D46" s="702"/>
-      <c r="E46" s="702"/>
-      <c r="F46" s="702"/>
-      <c r="G46" s="702"/>
-      <c r="H46" s="702"/>
-      <c r="I46" s="702"/>
-      <c r="J46" s="702"/>
-      <c r="K46" s="702"/>
+      <c r="B46" s="714"/>
+      <c r="C46" s="714"/>
+      <c r="D46" s="714"/>
+      <c r="E46" s="714"/>
+      <c r="F46" s="714"/>
+      <c r="G46" s="714"/>
+      <c r="H46" s="714"/>
+      <c r="I46" s="714"/>
+      <c r="J46" s="714"/>
+      <c r="K46" s="714"/>
       <c r="L46" s="504"/>
       <c r="M46" s="504"/>
       <c r="N46" s="504"/>
@@ -65197,32 +66120,32 @@
       <c r="AG49" s="547"/>
       <c r="AH49" s="247"/>
     </row>
-    <row r="50" spans="1:34" ht="63">
-      <c r="A50" s="693" t="s">
+    <row r="50" spans="1:34" ht="62">
+      <c r="A50" s="705" t="s">
         <v>291</v>
       </c>
-      <c r="B50" s="694"/>
-      <c r="C50" s="694"/>
-      <c r="D50" s="694"/>
-      <c r="E50" s="694"/>
-      <c r="F50" s="694"/>
-      <c r="G50" s="694"/>
-      <c r="H50" s="694"/>
-      <c r="I50" s="694"/>
-      <c r="J50" s="694"/>
-      <c r="K50" s="694"/>
-      <c r="L50" s="694"/>
-      <c r="M50" s="694"/>
-      <c r="N50" s="694"/>
-      <c r="O50" s="694"/>
-      <c r="P50" s="694"/>
-      <c r="Q50" s="694"/>
-      <c r="R50" s="694"/>
-      <c r="S50" s="694"/>
-      <c r="T50" s="694"/>
-      <c r="U50" s="694"/>
-      <c r="V50" s="694"/>
-      <c r="W50" s="695"/>
+      <c r="B50" s="706"/>
+      <c r="C50" s="706"/>
+      <c r="D50" s="706"/>
+      <c r="E50" s="706"/>
+      <c r="F50" s="706"/>
+      <c r="G50" s="706"/>
+      <c r="H50" s="706"/>
+      <c r="I50" s="706"/>
+      <c r="J50" s="706"/>
+      <c r="K50" s="706"/>
+      <c r="L50" s="706"/>
+      <c r="M50" s="706"/>
+      <c r="N50" s="706"/>
+      <c r="O50" s="706"/>
+      <c r="P50" s="706"/>
+      <c r="Q50" s="706"/>
+      <c r="R50" s="706"/>
+      <c r="S50" s="706"/>
+      <c r="T50" s="706"/>
+      <c r="U50" s="706"/>
+      <c r="V50" s="706"/>
+      <c r="W50" s="707"/>
       <c r="X50" s="626" t="s">
         <v>292</v>
       </c>
@@ -65232,96 +66155,96 @@
       <c r="AD50" s="19"/>
       <c r="AE50" s="19"/>
     </row>
-    <row r="51" spans="1:34" ht="15.6">
+    <row r="51" spans="1:34" ht="15.7">
       <c r="A51" s="443" t="s">
         <v>294</v>
       </c>
       <c r="B51" s="623">
-        <f t="shared" ref="B51:K51" si="20">SUM((B36*$X36)+(B37*$X37)+(B38*$X38)+(B39*$X39)+(B40*$X40))</f>
+        <f>SUM((B36*$X36)+(B37*$X37)+(B38*$X38)+(B39*$X39)+(B40*$X40))</f>
         <v>2.3344040199150147</v>
       </c>
       <c r="C51" s="623">
-        <f t="shared" si="20"/>
+        <f>SUM((C36*$X36)+(C37*$X37)+(C38*$X38)+(C39*$X39)+(C40*$X40))</f>
         <v>2.2812259103253112</v>
       </c>
       <c r="D51" s="623">
-        <f t="shared" si="20"/>
+        <f>SUM((D36*$X36)+(D37*$X37)+(D38*$X38)+(D39*$X39)+(D40*$X40))</f>
         <v>2.2280478007356219</v>
       </c>
       <c r="E51" s="623">
-        <f t="shared" si="20"/>
+        <f>SUM((E36*$X36)+(E37*$X37)+(E38*$X38)+(E39*$X39)+(E40*$X40))</f>
         <v>2.1748696911459349</v>
       </c>
       <c r="F51" s="623">
-        <f t="shared" si="20"/>
+        <f>SUM((F36*$X36)+(F37*$X37)+(F38*$X38)+(F39*$X39)+(F40*$X40))</f>
         <v>2.1216915815562478</v>
       </c>
       <c r="G51" s="623">
-        <f t="shared" si="20"/>
+        <f>SUM((G36*$X36)+(G37*$X37)+(G38*$X38)+(G39*$X39)+(G40*$X40))</f>
         <v>2.0685134719665585</v>
       </c>
       <c r="H51" s="623">
-        <f t="shared" si="20"/>
+        <f>SUM((H36*$X36)+(H37*$X37)+(H38*$X38)+(H39*$X39)+(H40*$X40))</f>
         <v>2.0153353623768546</v>
       </c>
       <c r="I51" s="623">
-        <f t="shared" si="20"/>
+        <f>SUM((I36*$X36)+(I37*$X37)+(I38*$X38)+(I39*$X39)+(I40*$X40))</f>
         <v>1.9621572527871673</v>
       </c>
       <c r="J51" s="623">
-        <f t="shared" si="20"/>
+        <f>SUM((J36*$X36)+(J37*$X37)+(J38*$X38)+(J39*$X39)+(J40*$X40))</f>
         <v>1.9089791431974783</v>
       </c>
       <c r="K51" s="623">
-        <f t="shared" si="20"/>
+        <f>SUM((K36*$X36)+(K37*$X37)+(K38*$X38)+(K39*$X39)+(K40*$X40))</f>
         <v>1.855801033607791</v>
       </c>
       <c r="L51" s="623">
-        <f t="shared" ref="L51:W51" si="21">SUM((L36*$X36)+(L37*$X37)+(L38*$X38)+(L39*$X39)+(L40*L31))</f>
+        <f>SUM((L36*$X36)+(L37*$X37)+(L38*$X38)+(L39*$X39)+(L40*L31))</f>
         <v>1.7983330903930508</v>
       </c>
       <c r="M51" s="623">
-        <f t="shared" si="21"/>
+        <f>SUM((M36*$X36)+(M37*$X37)+(M38*$X38)+(M39*$X39)+(M40*M31))</f>
         <v>1.6671637364645187</v>
       </c>
       <c r="N51" s="623">
-        <f t="shared" si="21"/>
+        <f>SUM((N36*$X36)+(N37*$X37)+(N38*$X38)+(N39*$X39)+(N40*N31))</f>
         <v>1.6740798366286249</v>
       </c>
       <c r="O51" s="623">
-        <f t="shared" si="21"/>
+        <f>SUM((O36*$X36)+(O37*$X37)+(O38*$X38)+(O39*$X39)+(O40*O31))</f>
         <v>1.5916079593704233</v>
       </c>
       <c r="P51" s="623">
-        <f t="shared" si="21"/>
+        <f>SUM((P36*$X36)+(P37*$X37)+(P38*$X38)+(P39*$X39)+(P40*P31))</f>
         <v>1.6128595040508922</v>
       </c>
       <c r="Q51" s="623">
-        <f t="shared" si="21"/>
+        <f>SUM((Q36*$X36)+(Q37*$X37)+(Q38*$X38)+(Q39*$X39)+(Q40*Q31))</f>
         <v>1.4700491764440433</v>
       </c>
       <c r="R51" s="623">
-        <f t="shared" si="21"/>
+        <f>SUM((R36*$X36)+(R37*$X37)+(R38*$X38)+(R39*$X39)+(R40*R31))</f>
         <v>1.4095416358110791</v>
       </c>
       <c r="S51" s="623">
-        <f t="shared" si="21"/>
+        <f>SUM((S36*$X36)+(S37*$X37)+(S38*$X38)+(S39*$X39)+(S40*S31))</f>
         <v>1.3520460057358914</v>
       </c>
       <c r="T51" s="623">
-        <f t="shared" si="21"/>
+        <f>SUM((T36*$X36)+(T37*$X37)+(T38*$X38)+(T39*$X39)+(T40*T31))</f>
         <v>1.2469814448145915</v>
       </c>
       <c r="U51" s="623">
-        <f t="shared" si="21"/>
+        <f>SUM((U36*$X36)+(U37*$X37)+(U38*$X38)+(U39*$X39)+(U40*U31))</f>
         <v>1.2220735999724113</v>
       </c>
       <c r="V51" s="623">
-        <f t="shared" si="21"/>
+        <f>SUM((V36*$X36)+(V37*$X37)+(V38*$X38)+(V39*$X39)+(V40*V31))</f>
         <v>1.2942015021489635</v>
       </c>
       <c r="W51" s="551">
-        <f t="shared" si="21"/>
+        <f>SUM((W36*$X36)+(W37*$X37)+(W38*$X38)+(W39*$X39)+(W40*W31))</f>
         <v>0</v>
       </c>
       <c r="X51" s="627">
@@ -65338,87 +66261,87 @@
         <v>295</v>
       </c>
       <c r="B52" s="624">
-        <f t="shared" ref="B52:V52" si="22">B51*B57</f>
+        <f t="shared" ref="B52:V52" si="17">B51*B57</f>
         <v>118157727.71209052</v>
       </c>
       <c r="C52" s="624">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>126079461.34552409</v>
       </c>
       <c r="D52" s="624">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>137249206.06702104</v>
       </c>
       <c r="E52" s="624">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>139505676.58138478</v>
       </c>
       <c r="F52" s="624">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>144195512.29609936</v>
       </c>
       <c r="G52" s="624">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>150103242.86710441</v>
       </c>
       <c r="H52" s="624">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>155057862.61199394</v>
       </c>
       <c r="I52" s="624">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>163253183.17809507</v>
       </c>
       <c r="J52" s="624">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>171739074.23440379</v>
       </c>
       <c r="K52" s="624">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>177370354.88968191</v>
       </c>
       <c r="L52" s="624">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>180738907.42202437</v>
       </c>
       <c r="M52" s="624">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>181842874.95457992</v>
       </c>
       <c r="N52" s="624">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>182585763.20432958</v>
       </c>
       <c r="O52" s="624">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>181537384.17443261</v>
       </c>
       <c r="P52" s="624">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>176215280.12724125</v>
       </c>
       <c r="Q52" s="624">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>165850685.21786049</v>
       </c>
       <c r="R52" s="624">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>152455326.23792812</v>
       </c>
       <c r="S52" s="624">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>142906842.13555112</v>
       </c>
       <c r="T52" s="624">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>124366317.05976546</v>
       </c>
       <c r="U52" s="624">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>108747547.3025807</v>
       </c>
       <c r="V52" s="624">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>101538586.11182743</v>
       </c>
       <c r="W52" s="444" t="e">
@@ -65432,96 +66355,96 @@
         <v>297</v>
       </c>
     </row>
-    <row r="53" spans="1:34" ht="16.2" thickBot="1">
+    <row r="53" spans="1:34" ht="16" thickBot="1">
       <c r="A53" s="445" t="s">
         <v>298</v>
       </c>
       <c r="B53" s="291">
-        <f t="shared" ref="B53:W53" si="23">B51/B45</f>
+        <f t="shared" ref="B53:W53" si="18">B51/B45</f>
         <v>0.75395795794504561</v>
       </c>
       <c r="C53" s="291">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0.75058003120876093</v>
       </c>
       <c r="D53" s="291">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0.74707317661935946</v>
       </c>
       <c r="E53" s="291">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0.7434298692434399</v>
       </c>
       <c r="F53" s="291">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0.73964198693378869</v>
       </c>
       <c r="G53" s="291">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0.73570074988295786</v>
       </c>
       <c r="H53" s="291">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0.73159665268352558</v>
       </c>
       <c r="I53" s="291">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0.72731938778844829</v>
       </c>
       <c r="J53" s="291">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0.72285775907408167</v>
       </c>
       <c r="K53" s="291">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0.71819958397989447</v>
       </c>
       <c r="L53" s="291">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0.71424625936462705</v>
       </c>
       <c r="M53" s="291">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0.6995729473777611</v>
       </c>
       <c r="N53" s="291">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0.70056635692528779</v>
       </c>
       <c r="O53" s="291">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0.6900780239001959</v>
       </c>
       <c r="P53" s="291">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0.69398130357219279</v>
       </c>
       <c r="Q53" s="291">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0.67329663290296105</v>
       </c>
       <c r="R53" s="291">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0.66533542944680957</v>
       </c>
       <c r="S53" s="291">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0.65760541813472628</v>
       </c>
       <c r="T53" s="291">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0.64178255773236748</v>
       </c>
       <c r="U53" s="291">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0.64020380983006997</v>
       </c>
       <c r="V53" s="291">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0.65653498158341639</v>
       </c>
       <c r="W53" s="553" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X53" s="627">
@@ -65533,36 +66456,36 @@
         <v>5.874428919099093E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:34" ht="21.6" thickBot="1">
+    <row r="54" spans="1:34" ht="21" thickBot="1">
       <c r="A54" s="1"/>
       <c r="X54" s="513"/>
     </row>
-    <row r="55" spans="1:34" ht="47.55" hidden="1" customHeight="1">
-      <c r="A55" s="686" t="s">
+    <row r="55" spans="1:34" ht="47.6" hidden="1" customHeight="1">
+      <c r="A55" s="698" t="s">
         <v>299</v>
       </c>
-      <c r="B55" s="687"/>
-      <c r="C55" s="687"/>
-      <c r="D55" s="687"/>
-      <c r="E55" s="687"/>
-      <c r="F55" s="687"/>
-      <c r="G55" s="687"/>
-      <c r="H55" s="687"/>
-      <c r="I55" s="687"/>
-      <c r="J55" s="687"/>
-      <c r="K55" s="687"/>
-      <c r="L55" s="687"/>
-      <c r="M55" s="687"/>
-      <c r="N55" s="687"/>
-      <c r="O55" s="687"/>
-      <c r="P55" s="687"/>
-      <c r="Q55" s="687"/>
-      <c r="R55" s="687"/>
-      <c r="S55" s="687"/>
-      <c r="T55" s="687"/>
-      <c r="U55" s="687"/>
-      <c r="V55" s="687"/>
-      <c r="W55" s="688"/>
+      <c r="B55" s="699"/>
+      <c r="C55" s="699"/>
+      <c r="D55" s="699"/>
+      <c r="E55" s="699"/>
+      <c r="F55" s="699"/>
+      <c r="G55" s="699"/>
+      <c r="H55" s="699"/>
+      <c r="I55" s="699"/>
+      <c r="J55" s="699"/>
+      <c r="K55" s="699"/>
+      <c r="L55" s="699"/>
+      <c r="M55" s="699"/>
+      <c r="N55" s="699"/>
+      <c r="O55" s="699"/>
+      <c r="P55" s="699"/>
+      <c r="Q55" s="699"/>
+      <c r="R55" s="699"/>
+      <c r="S55" s="699"/>
+      <c r="T55" s="699"/>
+      <c r="U55" s="699"/>
+      <c r="V55" s="699"/>
+      <c r="W55" s="700"/>
       <c r="X55" s="554"/>
     </row>
     <row r="56" spans="1:34" ht="14.85" hidden="1" customHeight="1">
@@ -65646,91 +66569,91 @@
         <v>256</v>
       </c>
       <c r="B57" s="556">
-        <f t="shared" ref="B57:W57" si="24">B61/B45</f>
+        <f t="shared" ref="B57:W57" si="19">B61/B45</f>
         <v>50615800.308805212</v>
       </c>
       <c r="C57" s="556">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>55268292.708259083</v>
       </c>
       <c r="D57" s="556">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>61600655.974125087</v>
       </c>
       <c r="E57" s="556">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>64144383.982784502</v>
       </c>
       <c r="F57" s="556">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>67962522.71045579</v>
       </c>
       <c r="G57" s="556">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>72565755.505764052</v>
       </c>
       <c r="H57" s="556">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>76938987.677525371</v>
       </c>
       <c r="I57" s="556">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>83200866.264006272</v>
       </c>
       <c r="J57" s="556">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>89963829.540194139</v>
       </c>
       <c r="K57" s="556">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>95576169.900532424</v>
       </c>
       <c r="L57" s="556">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>100503576.55517608</v>
       </c>
       <c r="M57" s="556">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>109073194.77822027</v>
       </c>
       <c r="N57" s="556">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>109066341.52647889</v>
       </c>
       <c r="O57" s="556">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>114059108.02698019</v>
       </c>
       <c r="P57" s="556">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>109256435.34644848</v>
       </c>
       <c r="Q57" s="556">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>112819821.18383473</v>
       </c>
       <c r="R57" s="556">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>108159505.44816807</v>
       </c>
       <c r="S57" s="556">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>105696730.38438496</v>
       </c>
       <c r="T57" s="556">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>99733895.461657792</v>
       </c>
       <c r="U57" s="556">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>88986086.68498829</v>
       </c>
       <c r="V57" s="556">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>78456550.964611903</v>
       </c>
       <c r="W57" s="557" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y57" s="558"/>
@@ -65748,12 +66671,12 @@
       <c r="V58" s="580"/>
       <c r="W58" s="289"/>
     </row>
-    <row r="59" spans="1:34" ht="21">
+    <row r="59" spans="1:34" ht="20.7">
       <c r="A59" s="511" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="1:34" ht="15" thickBot="1">
+    <row r="60" spans="1:34" ht="14.7" thickBot="1">
       <c r="B60" s="640"/>
       <c r="C60" s="640"/>
       <c r="D60" s="640"/>
@@ -65853,11 +66776,11 @@
       <c r="A62" s="296" t="s">
         <v>301</v>
       </c>
-      <c r="B62" s="709" t="s">
+      <c r="B62" s="685" t="s">
         <v>302</v>
       </c>
-      <c r="C62" s="709"/>
-      <c r="D62" s="709"/>
+      <c r="C62" s="685"/>
+      <c r="D62" s="685"/>
       <c r="E62" s="434"/>
       <c r="F62" s="434"/>
       <c r="G62" s="434"/>
@@ -66026,15 +66949,15 @@
       </c>
       <c r="X64" s="284"/>
     </row>
-    <row r="65" spans="1:34" ht="43.2">
+    <row r="65" spans="1:34" ht="28.7">
       <c r="A65" s="562" t="s">
         <v>305</v>
       </c>
-      <c r="B65" s="718" t="s">
+      <c r="B65" s="694" t="s">
         <v>306</v>
       </c>
-      <c r="C65" s="718"/>
-      <c r="D65" s="718"/>
+      <c r="C65" s="694"/>
+      <c r="D65" s="694"/>
       <c r="E65" s="563"/>
       <c r="F65" s="563"/>
       <c r="G65" s="563"/>
@@ -66057,23 +66980,23 @@
       <c r="X65" s="284"/>
       <c r="Y65" s="285"/>
     </row>
-    <row r="66" spans="1:34" ht="15" thickBot="1">
-      <c r="A66" s="715" t="s">
+    <row r="66" spans="1:34" ht="14.7" thickBot="1">
+      <c r="A66" s="691" t="s">
         <v>307</v>
       </c>
-      <c r="B66" s="716"/>
-      <c r="C66" s="716"/>
-      <c r="D66" s="716"/>
-      <c r="E66" s="716"/>
-      <c r="F66" s="716"/>
-      <c r="G66" s="716"/>
-      <c r="H66" s="716"/>
-      <c r="I66" s="716"/>
-      <c r="J66" s="716"/>
-      <c r="K66" s="716"/>
-      <c r="L66" s="716"/>
-      <c r="M66" s="716"/>
-      <c r="N66" s="716"/>
+      <c r="B66" s="692"/>
+      <c r="C66" s="692"/>
+      <c r="D66" s="692"/>
+      <c r="E66" s="692"/>
+      <c r="F66" s="692"/>
+      <c r="G66" s="692"/>
+      <c r="H66" s="692"/>
+      <c r="I66" s="692"/>
+      <c r="J66" s="692"/>
+      <c r="K66" s="692"/>
+      <c r="L66" s="692"/>
+      <c r="M66" s="692"/>
+      <c r="N66" s="692"/>
       <c r="O66" s="564"/>
       <c r="P66" s="564"/>
       <c r="Q66" s="564"/>
@@ -66095,7 +67018,7 @@
       <c r="AG66" s="285"/>
       <c r="AH66" s="285"/>
     </row>
-    <row r="67" spans="1:34" ht="15" thickBot="1">
+    <row r="67" spans="1:34" ht="14.7" thickBot="1">
       <c r="A67" s="416"/>
       <c r="B67" s="416"/>
       <c r="C67" s="416"/>
@@ -66130,7 +67053,7 @@
       <c r="AG67" s="286"/>
       <c r="AH67" s="286"/>
     </row>
-    <row r="68" spans="1:34" ht="46.8">
+    <row r="68" spans="1:34" ht="47">
       <c r="A68" s="451" t="s">
         <v>308</v>
       </c>
@@ -66266,11 +67189,11 @@
       <c r="AH70" s="286"/>
     </row>
     <row r="71" spans="1:34" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A71" s="713" t="s">
+      <c r="A71" s="689" t="s">
         <v>312</v>
       </c>
-      <c r="B71" s="714"/>
-      <c r="C71" s="714"/>
+      <c r="B71" s="690"/>
+      <c r="C71" s="690"/>
       <c r="D71" s="455" t="s">
         <v>313</v>
       </c>
@@ -66320,7 +67243,7 @@
       <c r="AG71" s="286"/>
       <c r="AH71" s="286"/>
     </row>
-    <row r="72" spans="1:34" ht="15" thickBot="1">
+    <row r="72" spans="1:34" ht="14.7" thickBot="1">
       <c r="O72" s="247"/>
       <c r="P72" s="247"/>
       <c r="Q72" s="247"/>
@@ -66435,83 +67358,83 @@
         <v>0</v>
       </c>
       <c r="L74" s="291">
-        <f t="shared" ref="L74:W74" si="25">L69/L64</f>
+        <f t="shared" ref="L74:W74" si="20">L69/L64</f>
         <v>1.2868150677794213E-4</v>
       </c>
       <c r="M74" s="291">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>3.0440046129983321E-2</v>
       </c>
       <c r="N74" s="291">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>0.10357235362782942</v>
       </c>
       <c r="O74" s="291">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>9.0387600251146713E-2</v>
       </c>
       <c r="P74" s="291">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>8.5121503878147764E-2</v>
       </c>
       <c r="Q74" s="291">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>7.9822156563950336E-2</v>
       </c>
       <c r="R74" s="291">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>7.5699132306866743E-2</v>
       </c>
       <c r="S74" s="291">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>7.0648063363307451E-2</v>
       </c>
       <c r="T74" s="291">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>6.5304469508482815E-2</v>
       </c>
       <c r="U74" s="291">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>6.2178924571006849E-2</v>
       </c>
       <c r="V74" s="291">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>5.5745186078936089E-2</v>
       </c>
       <c r="W74" s="553">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>4.9272336100354815E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:34" ht="49.8" customHeight="1" thickBot="1">
-      <c r="A77" s="717" t="s">
+    <row r="77" spans="1:34" ht="49.85" customHeight="1" thickBot="1">
+      <c r="A77" s="693" t="s">
         <v>323</v>
       </c>
-      <c r="B77" s="717"/>
-      <c r="C77" s="717"/>
-      <c r="D77" s="717"/>
-      <c r="E77" s="717"/>
-      <c r="F77" s="717"/>
-      <c r="G77" s="717"/>
-      <c r="H77" s="717"/>
-      <c r="I77" s="717"/>
-      <c r="J77" s="717"/>
-      <c r="K77" s="717"/>
-      <c r="L77" s="717"/>
-      <c r="M77" s="717"/>
-      <c r="N77" s="717"/>
-      <c r="O77" s="717"/>
-      <c r="P77" s="717"/>
-      <c r="Q77" s="717"/>
-      <c r="R77" s="717"/>
-    </row>
-    <row r="78" spans="1:34" ht="21">
-      <c r="A78" s="710" t="s">
+      <c r="B77" s="693"/>
+      <c r="C77" s="693"/>
+      <c r="D77" s="693"/>
+      <c r="E77" s="693"/>
+      <c r="F77" s="693"/>
+      <c r="G77" s="693"/>
+      <c r="H77" s="693"/>
+      <c r="I77" s="693"/>
+      <c r="J77" s="693"/>
+      <c r="K77" s="693"/>
+      <c r="L77" s="693"/>
+      <c r="M77" s="693"/>
+      <c r="N77" s="693"/>
+      <c r="O77" s="693"/>
+      <c r="P77" s="693"/>
+      <c r="Q77" s="693"/>
+      <c r="R77" s="693"/>
+    </row>
+    <row r="78" spans="1:34" ht="20.7">
+      <c r="A78" s="686" t="s">
         <v>324</v>
       </c>
-      <c r="B78" s="711"/>
-      <c r="C78" s="711"/>
-      <c r="D78" s="712"/>
+      <c r="B78" s="687"/>
+      <c r="C78" s="687"/>
+      <c r="D78" s="688"/>
     </row>
     <row r="79" spans="1:34">
       <c r="A79" s="529"/>
@@ -66525,20 +67448,20 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="80" spans="1:34" ht="20.55" customHeight="1">
+    <row r="80" spans="1:34" ht="20.6" customHeight="1">
       <c r="A80" s="529" t="s">
         <v>239</v>
       </c>
       <c r="B80" s="21">
-        <f t="shared" ref="B80:B89" si="26">B93*B105</f>
+        <f t="shared" ref="B80:B89" si="21">B93*B105</f>
         <v>640.80000000000007</v>
       </c>
       <c r="C80" s="21">
-        <f t="shared" ref="C80:C89" si="27">C93*B105</f>
+        <f t="shared" ref="C80:C89" si="22">C93*B105</f>
         <v>820.80000000000007</v>
       </c>
       <c r="D80" s="569">
-        <f t="shared" ref="D80:D89" si="28">D93*B105</f>
+        <f t="shared" ref="D80:D89" si="23">D93*B105</f>
         <v>1108.8</v>
       </c>
     </row>
@@ -66547,15 +67470,15 @@
         <v>233</v>
       </c>
       <c r="B81" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>740</v>
       </c>
       <c r="C81" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="22"/>
         <v>792</v>
       </c>
       <c r="D81" s="569">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>948</v>
       </c>
     </row>
@@ -66564,15 +67487,15 @@
         <v>225</v>
       </c>
       <c r="B82" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>13371</v>
       </c>
       <c r="C82" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="22"/>
         <v>20812.5</v>
       </c>
       <c r="D82" s="569">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>27420</v>
       </c>
     </row>
@@ -66581,15 +67504,15 @@
         <v>227</v>
       </c>
       <c r="B83" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>12185.380228136883</v>
       </c>
       <c r="C83" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="22"/>
         <v>13346</v>
       </c>
       <c r="D83" s="569">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>14723</v>
       </c>
     </row>
@@ -66598,15 +67521,15 @@
         <v>229</v>
       </c>
       <c r="B84" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>5337</v>
       </c>
       <c r="C84" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="22"/>
         <v>6035</v>
       </c>
       <c r="D84" s="569">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>6911</v>
       </c>
     </row>
@@ -66615,15 +67538,15 @@
         <v>230</v>
       </c>
       <c r="B85" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>15906</v>
       </c>
       <c r="C85" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="22"/>
         <v>15549</v>
       </c>
       <c r="D85" s="569">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>20622</v>
       </c>
     </row>
@@ -66632,15 +67555,15 @@
         <v>325</v>
       </c>
       <c r="B86" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>273</v>
       </c>
       <c r="C86" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="22"/>
         <v>271.40000000000003</v>
       </c>
       <c r="D86" s="569">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>268.60000000000002</v>
       </c>
     </row>
@@ -66649,15 +67572,15 @@
         <v>231</v>
       </c>
       <c r="B87" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>3976.7551181102363</v>
       </c>
       <c r="C87" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="22"/>
         <v>3206.0076454152909</v>
       </c>
       <c r="D87" s="569">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>3109.0499999999997</v>
       </c>
     </row>
@@ -66666,15 +67589,15 @@
         <v>326</v>
       </c>
       <c r="B88" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>30668.2</v>
       </c>
       <c r="C88" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="22"/>
         <v>26731.75</v>
       </c>
       <c r="D88" s="569">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>28727</v>
       </c>
     </row>
@@ -66683,15 +67606,15 @@
         <v>327</v>
       </c>
       <c r="B89" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>762.2</v>
       </c>
       <c r="C89" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="22"/>
         <v>678.58</v>
       </c>
       <c r="D89" s="569">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>594.96</v>
       </c>
     </row>
@@ -66704,11 +67627,11 @@
         <v>83860.335346247113</v>
       </c>
       <c r="C90" s="422">
-        <f t="shared" ref="C90:D90" si="29">SUM(C80:C89)</f>
+        <f t="shared" ref="C90:D90" si="24">SUM(C80:C89)</f>
         <v>88243.037645415301</v>
       </c>
       <c r="D90" s="423">
-        <f t="shared" si="29"/>
+        <f t="shared" si="24"/>
         <v>104432.41000000002</v>
       </c>
     </row>
@@ -66866,7 +67789,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="115.2">
+    <row r="103" spans="1:5" ht="100.35">
       <c r="A103" s="529"/>
       <c r="B103" s="502" t="s">
         <v>330</v>
@@ -67026,7 +67949,7 @@
       </c>
       <c r="D121" s="530"/>
     </row>
-    <row r="122" spans="1:4" ht="15" thickBot="1">
+    <row r="122" spans="1:4" ht="14.7" thickBot="1">
       <c r="A122" s="549" t="s">
         <v>239</v>
       </c>
@@ -67038,12 +67961,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A66:N66"/>
-    <mergeCell ref="A77:R77"/>
-    <mergeCell ref="B65:D65"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A55:W55"/>
     <mergeCell ref="X34:AA34"/>
@@ -67054,6 +67971,12 @@
     <mergeCell ref="B46:K46"/>
     <mergeCell ref="A15:W15"/>
     <mergeCell ref="A33:W33"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A66:N66"/>
+    <mergeCell ref="A77:R77"/>
+    <mergeCell ref="B65:D65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -67062,6 +67985,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A183296C2D9DE541958AD9D9A6E59D08" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ef9e81cc8ea135f7dd7143deedbca767">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="12e73323-2992-4b61-9f89-f2ff99442528" xmlns:ns3="60bd3312-76b2-43ff-ab1e-17ba520e0d12" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f6f209b185d7905ebfc3951605bf0c4b" ns2:_="" ns3:_="">
     <xsd:import namespace="12e73323-2992-4b61-9f89-f2ff99442528"/>
@@ -67278,22 +68216,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{642EFE88-F0B0-4CEB-A790-D35D5BED6864}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99BCC93E-EAFD-4FDF-8B88-2730FA1D1CB4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="60bd3312-76b2-43ff-ab1e-17ba520e0d12"/>
+    <ds:schemaRef ds:uri="12e73323-2992-4b61-9f89-f2ff99442528"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D8AD805-ECCD-402F-AA75-0FF0ED1C401E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -67310,21 +68258,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99BCC93E-EAFD-4FDF-8B88-2730FA1D1CB4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{642EFE88-F0B0-4CEB-A790-D35D5BED6864}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>